--- a/ExcelProject/Register Student.xlsx
+++ b/ExcelProject/Register Student.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jalem\OneDrive\Desktop\Project100%\ExcelProject\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jalem\OneDrive\Desktop\Project_Test_Tutors\ExcelProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16E897CE-B1B3-4138-9136-ED0A92DE9ABE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C9407E4-592D-4B57-9D93-6A87F0DFC330}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RegisterStudent" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="797" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="718" uniqueCount="190">
   <si>
     <t>TestCase</t>
   </si>
@@ -44,12 +44,6 @@
     <t>student_id</t>
   </si>
   <si>
-    <t>First name</t>
-  </si>
-  <si>
-    <t>Last name</t>
-  </si>
-  <si>
     <t>telephone</t>
   </si>
   <si>
@@ -449,93 +443,6 @@
     <t>Execute</t>
   </si>
   <si>
-    <t>ลงทะเบียนสำเร็จ</t>
-  </si>
-  <si>
-    <t>กรุณากรอกข้อมูลเป็นตัวเลขเท่านั้น</t>
-  </si>
-  <si>
-    <t>กรุณากรอกข้อมูลรหัสนักศึกษามีความยาว 10 หลัก</t>
-  </si>
-  <si>
-    <t>มีรหัสนักศึกษาอยู่ในระบบแล้ว</t>
-  </si>
-  <si>
-    <t>กรุณากรอกข้อมูลรหัสนักศึกษา</t>
-  </si>
-  <si>
-    <t>กรุณากรอกข้อมูลเป็นภาษาไทย หรือ ภาษาอังกฤษเท่านั้น</t>
-  </si>
-  <si>
-    <t>กรุณากรอกชื่อได้ตั้งแต่ 2 และไม่เกิน 50 ตัวอักษร</t>
-  </si>
-  <si>
-    <t>ห้ามมีเว้นวรรคระหว่างตัวอักษร</t>
-  </si>
-  <si>
-    <t>กรุณากรอกชื่อ</t>
-  </si>
-  <si>
-    <t>กรุณากรอกนามสกุลตั้งแต่ 2 และไม่เกิน 85 ตัวอักษร</t>
-  </si>
-  <si>
-    <t>กรุณากรอกข้อมูลโดยไม่มีอักขระพิเศษหรือเว้นวรรค</t>
-  </si>
-  <si>
-    <t>กรุณากรอกนามสกุล</t>
-  </si>
-  <si>
-    <t>กรุณากรอกเป็นตัวเลข [0-9] เท่านั้น</t>
-  </si>
-  <si>
-    <t>กรุณากรอกข้อมูลที่ขึ้นต้นด้วย 06 07 08 09</t>
-  </si>
-  <si>
-    <t>กรุณากรอกข้อมูลจำนวนตัวเลข 10 หลักเท่านั้น</t>
-  </si>
-  <si>
-    <t>กรุณากรอกข้อมูลห้ามมีช่องว่างระหว่างตัวเลข</t>
-  </si>
-  <si>
-    <t>กรุณากรอกข้อมูลเบอร์โทรศัพท์</t>
-  </si>
-  <si>
-    <t>กรุณาเลือกชั้นปี</t>
-  </si>
-  <si>
-    <t>กรุณาแนบไฟล์รูปภาพ</t>
-  </si>
-  <si>
-    <t>ขนาดไฟล์เกิน 5 MB</t>
-  </si>
-  <si>
-    <t>กรุณาแนบรูปภาพ</t>
-  </si>
-  <si>
-    <t>กรุณากรอกเป็นรูปแบบของอีเมล MJU เท่านั้น เช่น (MJU6504106001@mju.ac.th)</t>
-  </si>
-  <si>
-    <t>กรุณากรอกโดยห้ามมีช่องว่าง</t>
-  </si>
-  <si>
-    <t>กรุณากรอกความยาวให้มีขนาด 13 ตัวพอดี</t>
-  </si>
-  <si>
-    <t>กรุณากรอกอีเมล์รูปแบบของอีเมล MJU</t>
-  </si>
-  <si>
-    <t>กรุณากรอกประกอบด้วยตัวอักษรภาษาอังกฤษหรือตัวเลขรวมอักขระพิเศษ</t>
-  </si>
-  <si>
-    <t>กรุณากรอกได้ต้องแต่ 8 - 16 ตัวอักษร</t>
-  </si>
-  <si>
-    <t>กรุณากรอกข้อมูลโดยไม่มีช่องว่างระหว่างตัวอักษร</t>
-  </si>
-  <si>
-    <t>กรุณากรอกรหัสผ่าน</t>
-  </si>
-  <si>
     <t>ActualResult</t>
   </si>
   <si>
@@ -693,6 +600,12 @@
   </si>
   <si>
     <t>mju65041064001</t>
+  </si>
+  <si>
+    <t>Lastname</t>
+  </si>
+  <si>
+    <t>Firstname</t>
   </si>
 </sst>
 </file>
@@ -1085,8 +998,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A54" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K61" sqref="K61"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1107,7 +1020,7 @@
   <sheetData>
     <row r="1" spans="1:13" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -1116,2942 +1029,2784 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="L1" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C2" s="3">
         <v>6504106383</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>167</v>
+        <v>136</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="I2" s="11" t="s">
-        <v>213</v>
+        <v>182</v>
       </c>
       <c r="J2" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>137</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="K2" s="2"/>
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
     </row>
     <row r="3" spans="1:13" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>15</v>
-      </c>
       <c r="D3" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>176</v>
+        <v>145</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="I3" s="11" t="s">
-        <v>213</v>
+        <v>182</v>
       </c>
       <c r="J3" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>138</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="K3" s="2"/>
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
     </row>
     <row r="4" spans="1:13" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C4" s="3">
         <v>6504106383</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>177</v>
+        <v>146</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="I4" s="11" t="s">
-        <v>213</v>
+        <v>182</v>
       </c>
       <c r="J4" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>137</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="K4" s="2"/>
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
     </row>
     <row r="5" spans="1:13" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C5" s="4">
         <v>650410638</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>178</v>
+        <v>147</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="I5" s="11" t="s">
-        <v>213</v>
+        <v>182</v>
       </c>
       <c r="J5" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>139</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="K5" s="2"/>
       <c r="L5" s="2"/>
       <c r="M5" s="2"/>
     </row>
     <row r="6" spans="1:13" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C6" s="4">
         <v>65041063833</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>179</v>
+        <v>148</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="I6" s="11" t="s">
-        <v>213</v>
+        <v>182</v>
       </c>
       <c r="J6" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="K6" s="2" t="s">
-        <v>139</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="K6" s="2"/>
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
     </row>
     <row r="7" spans="1:13" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C7" s="3">
         <v>6504106383</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>180</v>
+        <v>149</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="I7" s="11" t="s">
-        <v>213</v>
+        <v>182</v>
       </c>
       <c r="J7" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>137</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="K7" s="2"/>
       <c r="L7" s="2"/>
       <c r="M7" s="2"/>
     </row>
     <row r="8" spans="1:13" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C8" s="3">
         <v>6504106333</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>181</v>
+        <v>150</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="I8" s="11" t="s">
-        <v>213</v>
+        <v>182</v>
       </c>
       <c r="J8" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="K8" s="2" t="s">
-        <v>140</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="K8" s="2"/>
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
     </row>
     <row r="9" spans="1:13" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C9" s="5"/>
       <c r="D9" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>182</v>
+        <v>151</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="I9" s="11" t="s">
-        <v>213</v>
+        <v>182</v>
       </c>
       <c r="J9" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="K9" s="2" t="s">
-        <v>141</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="K9" s="2"/>
       <c r="L9" s="2"/>
       <c r="M9" s="2"/>
     </row>
     <row r="10" spans="1:13" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C10" s="3">
         <v>6504106383</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>183</v>
+        <v>152</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="I10" s="11" t="s">
-        <v>213</v>
+        <v>182</v>
       </c>
       <c r="J10" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="K10" s="2" t="s">
-        <v>137</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="K10" s="2"/>
       <c r="L10" s="2"/>
       <c r="M10" s="2"/>
     </row>
     <row r="11" spans="1:13" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C11" s="3">
         <v>6504106383</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>184</v>
+        <v>153</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="I11" s="11" t="s">
-        <v>213</v>
+        <v>182</v>
       </c>
       <c r="J11" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="K11" s="2" t="s">
-        <v>137</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="K11" s="2"/>
       <c r="L11" s="2"/>
       <c r="M11" s="2"/>
     </row>
     <row r="12" spans="1:13" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C12" s="3">
         <v>6504106383</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>185</v>
+        <v>154</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="I12" s="11" t="s">
-        <v>213</v>
+        <v>182</v>
       </c>
       <c r="J12" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="K12" s="2" t="s">
-        <v>142</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="K12" s="2"/>
       <c r="L12" s="2"/>
       <c r="M12" s="2"/>
     </row>
     <row r="13" spans="1:13" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C13" s="3">
         <v>6504106383</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>186</v>
+        <v>155</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="I13" s="11" t="s">
-        <v>213</v>
+        <v>182</v>
       </c>
       <c r="J13" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="K13" s="2" t="s">
-        <v>137</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="K13" s="2"/>
       <c r="L13" s="2"/>
       <c r="M13" s="2"/>
     </row>
     <row r="14" spans="1:13" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C14" s="3">
         <v>6504106383</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>187</v>
+        <v>156</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="I14" s="11" t="s">
-        <v>213</v>
+        <v>182</v>
       </c>
       <c r="J14" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="K14" s="2" t="s">
-        <v>137</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="K14" s="2"/>
       <c r="L14" s="2"/>
       <c r="M14" s="2"/>
     </row>
     <row r="15" spans="1:13" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C15" s="3">
         <v>6504106383</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>188</v>
+        <v>157</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="I15" s="11" t="s">
-        <v>213</v>
+        <v>182</v>
       </c>
       <c r="J15" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="K15" s="2" t="s">
-        <v>137</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="K15" s="2"/>
       <c r="L15" s="2"/>
       <c r="M15" s="2"/>
     </row>
     <row r="16" spans="1:13" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C16" s="3">
         <v>6504106383</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>189</v>
+        <v>158</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="I16" s="11" t="s">
-        <v>213</v>
+        <v>182</v>
       </c>
       <c r="J16" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="K16" s="2" t="s">
-        <v>137</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="K16" s="2"/>
       <c r="L16" s="2"/>
       <c r="M16" s="2"/>
     </row>
     <row r="17" spans="1:13" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C17" s="3">
         <v>6504106383</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F17" s="8" t="s">
-        <v>190</v>
+        <v>159</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="I17" s="11" t="s">
-        <v>213</v>
+        <v>182</v>
       </c>
       <c r="J17" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="K17" s="2" t="s">
-        <v>143</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="K17" s="2"/>
       <c r="L17" s="2"/>
       <c r="M17" s="2"/>
     </row>
     <row r="18" spans="1:13" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C18" s="3">
         <v>6504106383</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F18" s="8" t="s">
-        <v>191</v>
+        <v>160</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="I18" s="11" t="s">
-        <v>213</v>
+        <v>182</v>
       </c>
       <c r="J18" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="K18" s="2" t="s">
-        <v>143</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="K18" s="2"/>
       <c r="L18" s="2"/>
       <c r="M18" s="2"/>
     </row>
     <row r="19" spans="1:13" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C19" s="3">
         <v>6504106383</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>192</v>
+        <v>161</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="I19" s="11" t="s">
-        <v>213</v>
+        <v>182</v>
       </c>
       <c r="J19" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="K19" s="2" t="s">
-        <v>137</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="K19" s="2"/>
       <c r="L19" s="2"/>
       <c r="M19" s="2"/>
     </row>
     <row r="20" spans="1:13" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C20" s="3">
         <v>6504106383</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F20" s="8" t="s">
-        <v>193</v>
+        <v>162</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="I20" s="11" t="s">
-        <v>213</v>
+        <v>182</v>
       </c>
       <c r="J20" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="K20" s="2" t="s">
-        <v>144</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="K20" s="2"/>
       <c r="L20" s="2"/>
       <c r="M20" s="2"/>
     </row>
     <row r="21" spans="1:13" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C21" s="3">
         <v>6504106383</v>
       </c>
       <c r="D21" s="5"/>
       <c r="E21" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F21" s="8" t="s">
-        <v>194</v>
+        <v>163</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="I21" s="11" t="s">
-        <v>213</v>
+        <v>182</v>
       </c>
       <c r="J21" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="K21" s="2" t="s">
-        <v>145</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="K21" s="2"/>
       <c r="L21" s="2"/>
       <c r="M21" s="2"/>
     </row>
     <row r="22" spans="1:13" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C22" s="3">
         <v>6504106383</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F22" s="8" t="s">
-        <v>195</v>
+        <v>164</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="I22" s="11" t="s">
-        <v>213</v>
+        <v>182</v>
       </c>
       <c r="J22" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="K22" s="2" t="s">
-        <v>137</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="K22" s="2"/>
       <c r="L22" s="2"/>
       <c r="M22" s="2"/>
     </row>
     <row r="23" spans="1:13" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C23" s="3">
         <v>6504106383</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F23" s="8" t="s">
-        <v>196</v>
+        <v>165</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="I23" s="11" t="s">
-        <v>213</v>
+        <v>182</v>
       </c>
       <c r="J23" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="K23" s="2" t="s">
-        <v>137</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="K23" s="2"/>
       <c r="L23" s="2"/>
       <c r="M23" s="2"/>
     </row>
     <row r="24" spans="1:13" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C24" s="3">
         <v>6504106383</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E24" s="4">
         <v>1234</v>
       </c>
       <c r="F24" s="8" t="s">
-        <v>197</v>
+        <v>166</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="I24" s="11" t="s">
-        <v>213</v>
+        <v>182</v>
       </c>
       <c r="J24" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="K24" s="2" t="s">
-        <v>142</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="K24" s="2"/>
       <c r="L24" s="2"/>
       <c r="M24" s="2"/>
     </row>
     <row r="25" spans="1:13" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C25" s="3">
         <v>6504106383</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F25" s="8" t="s">
-        <v>198</v>
+        <v>167</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="I25" s="11" t="s">
-        <v>213</v>
+        <v>182</v>
       </c>
       <c r="J25" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="K25" s="2" t="s">
-        <v>137</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="K25" s="2"/>
       <c r="L25" s="2"/>
       <c r="M25" s="2"/>
     </row>
     <row r="26" spans="1:13" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C26" s="3">
         <v>6504106383</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F26" s="8" t="s">
-        <v>199</v>
+        <v>168</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="I26" s="11" t="s">
-        <v>213</v>
+        <v>182</v>
       </c>
       <c r="J26" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="K26" s="2" t="s">
-        <v>137</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="K26" s="2"/>
       <c r="L26" s="2"/>
       <c r="M26" s="2"/>
     </row>
     <row r="27" spans="1:13" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C27" s="3">
         <v>6504106383</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F27" s="8" t="s">
-        <v>200</v>
+        <v>169</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="I27" s="11" t="s">
-        <v>213</v>
+        <v>182</v>
       </c>
       <c r="J27" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="K27" s="2" t="s">
-        <v>137</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="K27" s="2"/>
       <c r="L27" s="2"/>
       <c r="M27" s="2"/>
     </row>
     <row r="28" spans="1:13" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C28" s="3">
         <v>6504106383</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F28" s="8" t="s">
-        <v>201</v>
+        <v>170</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="I28" s="11" t="s">
-        <v>213</v>
+        <v>182</v>
       </c>
       <c r="J28" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="K28" s="2" t="s">
-        <v>137</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="K28" s="2"/>
       <c r="L28" s="2"/>
       <c r="M28" s="2"/>
     </row>
     <row r="29" spans="1:13" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C29" s="3">
         <v>6504106383</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E29" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F29" s="8" t="s">
-        <v>202</v>
+        <v>171</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="I29" s="11" t="s">
-        <v>213</v>
+        <v>182</v>
       </c>
       <c r="J29" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="K29" s="2" t="s">
-        <v>146</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="K29" s="2"/>
       <c r="L29" s="2"/>
       <c r="M29" s="2"/>
     </row>
     <row r="30" spans="1:13" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A30" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C30" s="3">
         <v>6504106383</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F30" s="8" t="s">
-        <v>203</v>
+        <v>172</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="I30" s="11" t="s">
-        <v>213</v>
+        <v>182</v>
       </c>
       <c r="J30" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="K30" s="2" t="s">
-        <v>146</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="K30" s="2"/>
       <c r="L30" s="2"/>
       <c r="M30" s="2"/>
     </row>
     <row r="31" spans="1:13" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A31" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C31" s="3">
         <v>6504106383</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F31" s="8" t="s">
-        <v>204</v>
+        <v>173</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="I31" s="11" t="s">
-        <v>213</v>
+        <v>182</v>
       </c>
       <c r="J31" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="K31" s="2" t="s">
-        <v>137</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="K31" s="2"/>
       <c r="L31" s="2"/>
       <c r="M31" s="2"/>
     </row>
     <row r="32" spans="1:13" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C32" s="3">
         <v>6504106383</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E32" s="6" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F32" s="8" t="s">
-        <v>205</v>
+        <v>174</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="I32" s="11" t="s">
-        <v>213</v>
+        <v>182</v>
       </c>
       <c r="J32" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="K32" s="2" t="s">
-        <v>147</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="K32" s="2"/>
       <c r="L32" s="2"/>
       <c r="M32" s="2"/>
     </row>
     <row r="33" spans="1:13" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A33" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C33" s="3">
         <v>6504106383</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F33" s="8" t="s">
-        <v>206</v>
+        <v>175</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="I33" s="11" t="s">
-        <v>213</v>
+        <v>182</v>
       </c>
       <c r="J33" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="K33" s="2" t="s">
-        <v>137</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="K33" s="2"/>
       <c r="L33" s="2"/>
       <c r="M33" s="2"/>
     </row>
     <row r="34" spans="1:13" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A34" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C34" s="3">
         <v>6504106383</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E34" s="6" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F34" s="8" t="s">
-        <v>207</v>
+        <v>176</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="I34" s="11" t="s">
-        <v>213</v>
+        <v>182</v>
       </c>
       <c r="J34" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="K34" s="2" t="s">
-        <v>147</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="K34" s="2"/>
       <c r="L34" s="2"/>
       <c r="M34" s="2"/>
     </row>
     <row r="35" spans="1:13" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A35" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C35" s="3">
         <v>6504106383</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E35" s="5"/>
       <c r="F35" s="8" t="s">
-        <v>208</v>
+        <v>177</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="I35" s="11" t="s">
-        <v>213</v>
+        <v>182</v>
       </c>
       <c r="J35" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="K35" s="2" t="s">
-        <v>148</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="K35" s="2"/>
       <c r="L35" s="2"/>
       <c r="M35" s="2"/>
     </row>
     <row r="36" spans="1:13" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A36" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C36" s="3">
         <v>6504106383</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F36" s="8" t="s">
-        <v>167</v>
+        <v>136</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="I36" s="11" t="s">
-        <v>213</v>
+        <v>182</v>
       </c>
       <c r="J36" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="K36" s="2" t="s">
-        <v>137</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="K36" s="2"/>
       <c r="L36" s="2"/>
       <c r="M36" s="2"/>
     </row>
     <row r="37" spans="1:13" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A37" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C37" s="3">
         <v>6504106383</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F37" s="9" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="I37" s="11" t="s">
-        <v>213</v>
+        <v>182</v>
       </c>
       <c r="J37" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="K37" s="2" t="s">
-        <v>149</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="K37" s="2"/>
       <c r="L37" s="2"/>
       <c r="M37" s="2"/>
     </row>
     <row r="38" spans="1:13" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A38" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C38" s="3">
         <v>6504106383</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F38" s="8" t="s">
-        <v>168</v>
+        <v>137</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="I38" s="11" t="s">
-        <v>213</v>
+        <v>182</v>
       </c>
       <c r="J38" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="K38" s="2" t="s">
-        <v>137</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="K38" s="2"/>
       <c r="L38" s="2"/>
       <c r="M38" s="2"/>
     </row>
     <row r="39" spans="1:13" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A39" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C39" s="3">
         <v>6504106383</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F39" s="8" t="s">
-        <v>169</v>
+        <v>138</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="I39" s="11" t="s">
-        <v>213</v>
+        <v>182</v>
       </c>
       <c r="J39" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="K39" s="2" t="s">
-        <v>137</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="K39" s="2"/>
       <c r="L39" s="2"/>
       <c r="M39" s="2"/>
     </row>
     <row r="40" spans="1:13" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A40" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C40" s="3">
         <v>6504106383</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F40" s="8" t="s">
-        <v>170</v>
+        <v>139</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="I40" s="11" t="s">
-        <v>213</v>
+        <v>182</v>
       </c>
       <c r="J40" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="K40" s="2" t="s">
-        <v>137</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="K40" s="2"/>
       <c r="L40" s="2"/>
       <c r="M40" s="2"/>
     </row>
     <row r="41" spans="1:13" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A41" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C41" s="3">
         <v>6504106383</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F41" s="8" t="s">
-        <v>171</v>
+        <v>140</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="I41" s="11" t="s">
-        <v>213</v>
+        <v>182</v>
       </c>
       <c r="J41" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="K41" s="2" t="s">
-        <v>137</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="K41" s="2"/>
       <c r="L41" s="2"/>
       <c r="M41" s="2"/>
     </row>
     <row r="42" spans="1:13" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A42" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C42" s="3">
         <v>6504106383</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F42" s="9" t="s">
-        <v>172</v>
+        <v>141</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="I42" s="11" t="s">
-        <v>213</v>
+        <v>182</v>
       </c>
       <c r="J42" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="K42" s="2" t="s">
-        <v>150</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="K42" s="2"/>
       <c r="L42" s="2"/>
       <c r="M42" s="2"/>
     </row>
     <row r="43" spans="1:13" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A43" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C43" s="3">
         <v>6504106383</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F43" s="8" t="s">
-        <v>173</v>
+        <v>142</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="I43" s="11" t="s">
-        <v>213</v>
+        <v>182</v>
       </c>
       <c r="J43" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="K43" s="2" t="s">
-        <v>137</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="K43" s="2"/>
       <c r="L43" s="2"/>
       <c r="M43" s="2"/>
     </row>
     <row r="44" spans="1:13" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A44" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C44" s="3">
         <v>6504106383</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F44" s="9" t="s">
-        <v>174</v>
+        <v>143</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="I44" s="11" t="s">
-        <v>213</v>
+        <v>182</v>
       </c>
       <c r="J44" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="K44" s="2" t="s">
-        <v>151</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="K44" s="2"/>
       <c r="L44" s="2"/>
       <c r="M44" s="2"/>
     </row>
     <row r="45" spans="1:13" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A45" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C45" s="3">
         <v>6504106383</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F45" s="9" t="s">
-        <v>175</v>
+        <v>144</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="I45" s="11" t="s">
-        <v>213</v>
+        <v>182</v>
       </c>
       <c r="J45" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="K45" s="2" t="s">
-        <v>151</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="K45" s="2"/>
       <c r="L45" s="2"/>
       <c r="M45" s="2"/>
     </row>
     <row r="46" spans="1:13" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A46" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C46" s="3">
         <v>6504106383</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F46" s="8" t="s">
-        <v>173</v>
+        <v>142</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="I46" s="11" t="s">
-        <v>213</v>
+        <v>182</v>
       </c>
       <c r="J46" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="K46" s="2" t="s">
-        <v>137</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="K46" s="2"/>
       <c r="L46" s="2"/>
       <c r="M46" s="2"/>
     </row>
     <row r="47" spans="1:13" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A47" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C47" s="3">
         <v>6504106383</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F47" s="10" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="I47" s="11" t="s">
-        <v>213</v>
+        <v>182</v>
       </c>
       <c r="J47" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="K47" s="2" t="s">
-        <v>152</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="K47" s="2"/>
       <c r="L47" s="2"/>
       <c r="M47" s="2"/>
     </row>
     <row r="48" spans="1:13" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A48" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C48" s="3">
         <v>6504106383</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F48" s="5"/>
       <c r="G48" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="I48" s="11" t="s">
-        <v>213</v>
+        <v>182</v>
       </c>
       <c r="J48" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="K48" s="2" t="s">
-        <v>153</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="K48" s="2"/>
       <c r="L48" s="2"/>
       <c r="M48" s="2"/>
     </row>
     <row r="49" spans="1:13" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A49" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C49" s="3">
         <v>6504106383</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F49" s="8" t="s">
-        <v>167</v>
+        <v>136</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="I49" s="11" t="s">
-        <v>213</v>
+        <v>182</v>
       </c>
       <c r="J49" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="K49" s="2" t="s">
-        <v>137</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="K49" s="2"/>
       <c r="L49" s="2"/>
       <c r="M49" s="2"/>
     </row>
     <row r="50" spans="1:13" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A50" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C50" s="3">
         <v>6504106383</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F50" s="8" t="s">
-        <v>176</v>
+        <v>145</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="I50" s="11" t="s">
-        <v>213</v>
+        <v>182</v>
       </c>
       <c r="J50" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="K50" s="2" t="s">
-        <v>137</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="K50" s="2"/>
       <c r="L50" s="2"/>
       <c r="M50" s="2"/>
     </row>
     <row r="51" spans="1:13" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A51" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C51" s="3">
         <v>6504106383</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F51" s="8" t="s">
-        <v>177</v>
+        <v>146</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="I51" s="11" t="s">
-        <v>213</v>
+        <v>182</v>
       </c>
       <c r="J51" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="K51" s="2" t="s">
-        <v>137</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="K51" s="2"/>
       <c r="L51" s="2"/>
       <c r="M51" s="2"/>
     </row>
     <row r="52" spans="1:13" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A52" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C52" s="3">
         <v>6504106383</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F52" s="8" t="s">
-        <v>178</v>
+        <v>147</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="H52" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="I52" s="11" t="s">
-        <v>213</v>
+        <v>182</v>
       </c>
       <c r="J52" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="K52" s="2" t="s">
-        <v>137</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="K52" s="2"/>
       <c r="L52" s="2"/>
       <c r="M52" s="2"/>
     </row>
     <row r="53" spans="1:13" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A53" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C53" s="3">
         <v>6504106383</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F53" s="8" t="s">
-        <v>179</v>
+        <v>148</v>
       </c>
       <c r="G53" s="6" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="H53" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="I53" s="11" t="s">
-        <v>213</v>
+        <v>182</v>
       </c>
       <c r="J53" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="K53" s="2" t="s">
-        <v>154</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="K53" s="2"/>
       <c r="L53" s="2"/>
       <c r="M53" s="2"/>
     </row>
     <row r="54" spans="1:13" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A54" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C54" s="3">
         <v>6504106383</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F54" s="8" t="s">
-        <v>180</v>
+        <v>149</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="H54" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="I54" s="11" t="s">
-        <v>213</v>
+        <v>182</v>
       </c>
       <c r="J54" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="K54" s="2" t="s">
-        <v>137</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="K54" s="2"/>
       <c r="L54" s="2"/>
       <c r="M54" s="2"/>
     </row>
     <row r="55" spans="1:13" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A55" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C55" s="3">
         <v>6504106383</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F55" s="8" t="s">
-        <v>181</v>
+        <v>150</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="H55" s="6" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="I55" s="11" t="s">
-        <v>213</v>
+        <v>182</v>
       </c>
       <c r="J55" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="K55" s="2" t="s">
-        <v>155</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="K55" s="2"/>
       <c r="L55" s="2"/>
       <c r="M55" s="2"/>
     </row>
     <row r="56" spans="1:13" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A56" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C56" s="3">
         <v>6504106383</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F56" s="8" t="s">
-        <v>182</v>
+        <v>151</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="H56" s="2" t="s">
-        <v>209</v>
+        <v>178</v>
       </c>
       <c r="I56" s="11" t="s">
-        <v>213</v>
+        <v>182</v>
       </c>
       <c r="J56" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="K56" s="2" t="s">
-        <v>137</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="K56" s="2"/>
       <c r="L56" s="2"/>
       <c r="M56" s="2"/>
     </row>
     <row r="57" spans="1:13" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A57" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C57" s="3">
         <v>6504106383</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F57" s="8" t="s">
-        <v>183</v>
+        <v>152</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="H57" s="2" t="s">
-        <v>210</v>
+        <v>179</v>
       </c>
       <c r="I57" s="11" t="s">
-        <v>213</v>
+        <v>182</v>
       </c>
       <c r="J57" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="K57" s="2" t="s">
-        <v>137</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="K57" s="2"/>
       <c r="L57" s="2"/>
       <c r="M57" s="2"/>
     </row>
     <row r="58" spans="1:13" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A58" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C58" s="3">
         <v>6504106383</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F58" s="8" t="s">
-        <v>184</v>
+        <v>153</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="H58" s="7" t="s">
-        <v>211</v>
+        <v>180</v>
       </c>
       <c r="I58" s="11" t="s">
-        <v>213</v>
+        <v>182</v>
       </c>
       <c r="J58" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="K58" s="2" t="s">
-        <v>156</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="K58" s="2"/>
       <c r="L58" s="2"/>
       <c r="M58" s="2"/>
     </row>
     <row r="59" spans="1:13" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A59" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C59" s="3">
         <v>6504106383</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F59" s="8" t="s">
-        <v>185</v>
+        <v>154</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="H59" s="12"/>
       <c r="I59" s="11" t="s">
-        <v>213</v>
+        <v>182</v>
       </c>
       <c r="J59" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="K59" s="2" t="s">
-        <v>157</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="K59" s="2"/>
       <c r="L59" s="2"/>
       <c r="M59" s="2"/>
     </row>
     <row r="60" spans="1:13" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A60" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C60" s="3">
         <v>6504106383</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F60" s="8" t="s">
-        <v>186</v>
+        <v>155</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="H60" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="I60" s="11" t="s">
-        <v>213</v>
+        <v>182</v>
       </c>
       <c r="J60" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="K60" s="2" t="s">
-        <v>137</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="K60" s="2"/>
       <c r="L60" s="2"/>
       <c r="M60" s="2"/>
     </row>
     <row r="61" spans="1:13" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A61" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C61" s="3">
         <v>6504106383</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F61" s="8" t="s">
-        <v>187</v>
+        <v>156</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="H61" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="I61" s="7" t="s">
-        <v>214</v>
+        <v>183</v>
       </c>
       <c r="J61" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="K61" s="2" t="s">
-        <v>158</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="K61" s="2"/>
       <c r="L61" s="2"/>
       <c r="M61" s="2"/>
     </row>
     <row r="62" spans="1:13" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A62" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C62" s="3">
         <v>6504106383</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F62" s="8" t="s">
-        <v>188</v>
+        <v>157</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="H62" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="I62" s="11" t="s">
-        <v>215</v>
+        <v>184</v>
       </c>
       <c r="J62" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="K62" s="2" t="s">
-        <v>137</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="K62" s="2"/>
       <c r="L62" s="2"/>
       <c r="M62" s="2"/>
     </row>
     <row r="63" spans="1:13" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A63" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C63" s="3">
         <v>6504106383</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F63" s="8" t="s">
-        <v>189</v>
+        <v>158</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="H63" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="I63" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="I63" s="7" t="s">
-        <v>89</v>
-      </c>
       <c r="J63" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="K63" s="2" t="s">
-        <v>159</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="K63" s="2"/>
       <c r="L63" s="2"/>
       <c r="M63" s="2"/>
     </row>
     <row r="64" spans="1:13" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A64" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C64" s="3">
         <v>6504106383</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F64" s="8" t="s">
-        <v>190</v>
+        <v>159</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="H64" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="I64" s="11" t="s">
-        <v>216</v>
+        <v>185</v>
       </c>
       <c r="J64" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="K64" s="2" t="s">
-        <v>137</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="K64" s="2"/>
       <c r="L64" s="2"/>
       <c r="M64" s="2"/>
     </row>
     <row r="65" spans="1:13" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A65" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C65" s="3">
         <v>6504106383</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F65" s="8" t="s">
-        <v>191</v>
+        <v>160</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="H65" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="I65" s="7" t="s">
-        <v>217</v>
+        <v>186</v>
       </c>
       <c r="J65" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="K65" s="2" t="s">
-        <v>160</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="K65" s="2"/>
       <c r="L65" s="2"/>
       <c r="M65" s="2"/>
     </row>
     <row r="66" spans="1:13" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A66" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C66" s="3">
         <v>6504106383</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F66" s="8" t="s">
-        <v>192</v>
+        <v>161</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="H66" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="I66" s="7" t="s">
-        <v>218</v>
+        <v>187</v>
       </c>
       <c r="J66" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="K66" s="2" t="s">
-        <v>160</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="K66" s="2"/>
       <c r="L66" s="2"/>
       <c r="M66" s="2"/>
     </row>
     <row r="67" spans="1:13" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A67" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C67" s="3">
         <v>6504106383</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F67" s="8" t="s">
-        <v>193</v>
+        <v>162</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="H67" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="I67" s="12"/>
       <c r="J67" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="K67" s="2" t="s">
-        <v>161</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="K67" s="2"/>
       <c r="L67" s="2"/>
       <c r="M67" s="2"/>
     </row>
     <row r="68" spans="1:13" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A68" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C68" s="3">
         <v>6504106383</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F68" s="8" t="s">
-        <v>194</v>
+        <v>163</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="H68" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="I68" s="11" t="s">
-        <v>213</v>
+        <v>182</v>
       </c>
       <c r="J68" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="K68" s="2" t="s">
-        <v>137</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="K68" s="2"/>
       <c r="L68" s="2"/>
       <c r="M68" s="2"/>
     </row>
     <row r="69" spans="1:13" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A69" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C69" s="3">
         <v>6504106383</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F69" s="8" t="s">
-        <v>195</v>
+        <v>164</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="H69" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="I69" s="11" t="s">
-        <v>213</v>
+        <v>182</v>
       </c>
       <c r="J69" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="K69" s="2" t="s">
-        <v>162</v>
-      </c>
+        <v>89</v>
+      </c>
+      <c r="K69" s="2"/>
       <c r="L69" s="2"/>
       <c r="M69" s="2"/>
     </row>
     <row r="70" spans="1:13" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A70" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C70" s="3">
         <v>6504106383</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F70" s="8" t="s">
-        <v>196</v>
+        <v>165</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="H70" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="I70" s="11" t="s">
-        <v>213</v>
+        <v>182</v>
       </c>
       <c r="J70" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="K70" s="2" t="s">
-        <v>137</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="K70" s="2"/>
       <c r="L70" s="2"/>
       <c r="M70" s="2"/>
     </row>
     <row r="71" spans="1:13" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A71" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C71" s="3">
         <v>6504106383</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F71" s="8" t="s">
-        <v>197</v>
+        <v>166</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="H71" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="I71" s="11" t="s">
-        <v>213</v>
+        <v>182</v>
       </c>
       <c r="J71" s="11" t="s">
-        <v>93</v>
-      </c>
-      <c r="K71" s="2" t="s">
-        <v>137</v>
-      </c>
+        <v>91</v>
+      </c>
+      <c r="K71" s="2"/>
       <c r="L71" s="2"/>
       <c r="M71" s="2"/>
     </row>
     <row r="72" spans="1:13" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A72" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C72" s="3">
         <v>6504106383</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F72" s="8" t="s">
-        <v>198</v>
+        <v>167</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="H72" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="I72" s="11" t="s">
-        <v>213</v>
+        <v>182</v>
       </c>
       <c r="J72" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="K72" s="2" t="s">
-        <v>137</v>
-      </c>
+        <v>92</v>
+      </c>
+      <c r="K72" s="2"/>
       <c r="L72" s="2"/>
       <c r="M72" s="2"/>
     </row>
     <row r="73" spans="1:13" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A73" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C73" s="3">
         <v>6504106383</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F73" s="8" t="s">
-        <v>199</v>
+        <v>168</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="H73" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="I73" s="11" t="s">
-        <v>213</v>
+        <v>182</v>
       </c>
       <c r="J73" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="K73" s="2" t="s">
-        <v>137</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="K73" s="2"/>
       <c r="L73" s="2"/>
       <c r="M73" s="2"/>
     </row>
     <row r="74" spans="1:13" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A74" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C74" s="3">
         <v>6504106383</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F74" s="8" t="s">
-        <v>200</v>
+        <v>169</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="H74" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="I74" s="11" t="s">
-        <v>213</v>
+        <v>182</v>
       </c>
       <c r="J74" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="K74" s="2" t="s">
-        <v>163</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="K74" s="2"/>
       <c r="L74" s="2"/>
       <c r="M74" s="2"/>
     </row>
     <row r="75" spans="1:13" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A75" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C75" s="3">
         <v>6504106383</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F75" s="8" t="s">
-        <v>201</v>
+        <v>170</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="H75" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="I75" s="11" t="s">
-        <v>213</v>
+        <v>182</v>
       </c>
       <c r="J75" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="K75" s="2" t="s">
-        <v>163</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="K75" s="2"/>
       <c r="L75" s="2"/>
       <c r="M75" s="2"/>
     </row>
     <row r="76" spans="1:13" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A76" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C76" s="3">
         <v>6504106383</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F76" s="8" t="s">
-        <v>202</v>
+        <v>171</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="H76" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="I76" s="11" t="s">
-        <v>213</v>
+        <v>182</v>
       </c>
       <c r="J76" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="K76" s="2" t="s">
-        <v>137</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="K76" s="2"/>
       <c r="L76" s="2"/>
       <c r="M76" s="2"/>
     </row>
     <row r="77" spans="1:13" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A77" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C77" s="3">
         <v>6504106383</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F77" s="8" t="s">
-        <v>203</v>
+        <v>172</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="H77" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="I77" s="11" t="s">
-        <v>213</v>
+        <v>182</v>
       </c>
       <c r="J77" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="K77" s="2" t="s">
-        <v>137</v>
-      </c>
+        <v>96</v>
+      </c>
+      <c r="K77" s="2"/>
       <c r="L77" s="2"/>
       <c r="M77" s="2"/>
     </row>
     <row r="78" spans="1:13" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A78" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C78" s="3">
         <v>6504106383</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F78" s="8" t="s">
-        <v>204</v>
+        <v>173</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="H78" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="I78" s="11" t="s">
-        <v>213</v>
+        <v>182</v>
       </c>
       <c r="J78" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="K78" s="2" t="s">
-        <v>137</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="K78" s="2"/>
       <c r="L78" s="2"/>
       <c r="M78" s="2"/>
     </row>
     <row r="79" spans="1:13" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A79" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C79" s="3">
         <v>6504106383</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F79" s="8" t="s">
-        <v>205</v>
+        <v>174</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="H79" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="I79" s="11" t="s">
-        <v>213</v>
+        <v>182</v>
       </c>
       <c r="J79" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="K79" s="2" t="s">
-        <v>164</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="K79" s="2"/>
       <c r="L79" s="2"/>
       <c r="M79" s="2"/>
     </row>
     <row r="80" spans="1:13" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A80" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>212</v>
+        <v>181</v>
       </c>
       <c r="C80" s="3">
         <v>6504106383</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F80" s="8" t="s">
-        <v>205</v>
+        <v>174</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="H80" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="I80" s="11" t="s">
-        <v>213</v>
+        <v>182</v>
       </c>
       <c r="J80" s="12"/>
-      <c r="K80" s="2" t="s">
-        <v>165</v>
-      </c>
+      <c r="K80" s="2"/>
       <c r="L80" s="2"/>
       <c r="M80" s="2"/>
     </row>

--- a/ExcelProject/Register Student.xlsx
+++ b/ExcelProject/Register Student.xlsx
@@ -1,42 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jalem\OneDrive\Desktop\Project_Test_Tutors\ExcelProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C9407E4-592D-4B57-9D93-6A87F0DFC330}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E94780D3-7B61-437F-B910-5BD7C2410435}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9855" yWindow="2715" windowWidth="14610" windowHeight="12120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RegisterStudent" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="718" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="814" uniqueCount="223">
+  <si>
+    <t>Execute</t>
+  </si>
   <si>
     <t>TestCase</t>
   </si>
@@ -44,24 +31,33 @@
     <t>student_id</t>
   </si>
   <si>
+    <t>Firstname</t>
+  </si>
+  <si>
+    <t>Lastname</t>
+  </si>
+  <si>
     <t>telephone</t>
   </si>
   <si>
-    <t>year of study</t>
+    <t>year_of_study</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>Password</t>
   </si>
   <si>
     <t>Image</t>
   </si>
   <si>
-    <t>email</t>
-  </si>
-  <si>
-    <t>Password</t>
-  </si>
-  <si>
     <t>Expected Result</t>
   </si>
   <si>
+    <t>ActualResult</t>
+  </si>
+  <si>
     <t>Result</t>
   </si>
   <si>
@@ -71,7 +67,34 @@
     <t>TC2:01</t>
   </si>
   <si>
-    <t>N</t>
+    <t>Patarawut</t>
+  </si>
+  <si>
+    <t>maojai</t>
+  </si>
+  <si>
+    <t>0918079722</t>
+  </si>
+  <si>
+    <t>ชั้นปีที่ 4</t>
+  </si>
+  <si>
+    <t>MJU6504106383</t>
+  </si>
+  <si>
+    <t>Ptt123445678##</t>
+  </si>
+  <si>
+    <t>Profile.jpg</t>
+  </si>
+  <si>
+    <t>ลงทะเบียนสำเร็จ</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> | | | |-- เลือกชั้นปี -- | | |</t>
+  </si>
+  <si>
+    <t>Failed</t>
   </si>
   <si>
     <t>TC2:02</t>
@@ -80,28 +103,67 @@
     <t>##04106383</t>
   </si>
   <si>
+    <t>0918079723</t>
+  </si>
+  <si>
+    <t>กรุณากรอกข้อมูลเป็นตัวเลขเท่านั้น</t>
+  </si>
+  <si>
+    <t>*กรุณากรอกเป็นตัวเลข 10 ตัวเท่านั้น | | | |-- เลือกชั้นปี -- | | |</t>
+  </si>
+  <si>
     <t>TC2:03</t>
   </si>
   <si>
+    <t>0918079724</t>
+  </si>
+  <si>
     <t>TC2:04</t>
   </si>
   <si>
+    <t>0918079725</t>
+  </si>
+  <si>
+    <t>กรุณากรอกข้อมูลรหัสนักศึกษามีความยาว 10 หลัก</t>
+  </si>
+  <si>
     <t>TC2:05</t>
   </si>
   <si>
+    <t>0918079726</t>
+  </si>
+  <si>
     <t>TC2:06</t>
   </si>
   <si>
+    <t>0918079727</t>
+  </si>
+  <si>
     <t>TC2:07</t>
   </si>
   <si>
+    <t>0918079728</t>
+  </si>
+  <si>
+    <t>มีรหัสนักศึกษาอยู่ในระบบแล้ว</t>
+  </si>
+  <si>
     <t>TC2:08</t>
   </si>
   <si>
+    <t>0918079729</t>
+  </si>
+  <si>
+    <t>กรุณากรอกข้อมูลรหัสนักศึกษา</t>
+  </si>
+  <si>
+    <t>* กรุณากรอกรหัสนักศึกษา | | | |-- เลือกชั้นปี -- | | |</t>
+  </si>
+  <si>
     <t>TC2:09</t>
   </si>
   <si>
-    <t>Patarawut</t>
+    <t>0918079730</t>
   </si>
   <si>
     <t>TC2:10</t>
@@ -110,34 +172,55 @@
     <t>ภัทราวุธ</t>
   </si>
   <si>
+    <t>0918079731</t>
+  </si>
+  <si>
     <t>TC2:11</t>
   </si>
   <si>
     <t>12345#_</t>
   </si>
   <si>
+    <t>0918079732</t>
+  </si>
+  <si>
+    <t>กรุณากรอกข้อมูลเป็นภาษาไทย หรือ ภาษาอังกฤษเท่านั้น</t>
+  </si>
+  <si>
     <t>TC2:12</t>
   </si>
   <si>
     <t>นพ</t>
   </si>
   <si>
+    <t>0918079733</t>
+  </si>
+  <si>
     <t>TC2:13</t>
   </si>
   <si>
     <t>เจม</t>
   </si>
   <si>
+    <t>0918079734</t>
+  </si>
+  <si>
     <t>TC2:14</t>
   </si>
   <si>
-    <t>ชื่อนายภัทราวุธเมาใจ สุขเกษมเปรมปรียิ่ง มหาสมุทรเขา</t>
+    <t>ชื่อนายภัทราวุธเมาใจสุขเกษมเปรมปรียิ่งม</t>
+  </si>
+  <si>
+    <t>0918079735</t>
   </si>
   <si>
     <t>TC2:15</t>
   </si>
   <si>
-    <t>ชื่อนายภัทราวุธเมาใจ สุขเกษมเปรมปรียิ่งคุณ วุฒมากล้น</t>
+    <t>ชื่อนายภัทราวุธเมาใจสุขเกษมเปรมปรียิ่งคุ</t>
+  </si>
+  <si>
+    <t>0918079736</t>
   </si>
   <si>
     <t>TC2:16</t>
@@ -146,10 +229,19 @@
     <t>น</t>
   </si>
   <si>
+    <t>0918079737</t>
+  </si>
+  <si>
+    <t>กรุณากรอกชื่อได้ตั้งแต่ 2 และไม่เกิน 40 ตัวอักษร</t>
+  </si>
+  <si>
     <t>TC2:17</t>
   </si>
   <si>
-    <t>ภัทราวุธเมาใจสุขเกษม เปรมปรียิ่งคุณวุฒมาก ล้นดั่งเพชร</t>
+    <t>ภัทราวุธเมาใจสุขเกษมเปรมปรียิ่งคุณวุฒมากล</t>
+  </si>
+  <si>
+    <t>0918079738</t>
   </si>
   <si>
     <t>TC2:18</t>
@@ -158,19 +250,34 @@
     <t>มานพ</t>
   </si>
   <si>
+    <t>0918079739</t>
+  </si>
+  <si>
     <t>TC2:19</t>
   </si>
   <si>
     <t>มา นพ</t>
   </si>
   <si>
+    <t>0918079740</t>
+  </si>
+  <si>
+    <t>ห้ามมีเว้นวรรคระหว่างตัวอักษร</t>
+  </si>
+  <si>
     <t>TC2:20</t>
   </si>
   <si>
+    <t>0918079741</t>
+  </si>
+  <si>
+    <t>กรุณากรอกชื่อ</t>
+  </si>
+  <si>
     <t>TC2:21</t>
   </si>
   <si>
-    <t>maojai</t>
+    <t>0918079742</t>
   </si>
   <si>
     <t>TC2:22</t>
@@ -179,72 +286,120 @@
     <t>เมาใจ</t>
   </si>
   <si>
+    <t>0918079743</t>
+  </si>
+  <si>
     <t>TC2:23</t>
   </si>
   <si>
+    <t>0918079744</t>
+  </si>
+  <si>
     <t>TC2:24</t>
   </si>
   <si>
     <t>จี</t>
   </si>
   <si>
+    <t>0918079745</t>
+  </si>
+  <si>
     <t>TC2:25</t>
   </si>
   <si>
     <t>จีน</t>
   </si>
   <si>
+    <t>0918079746</t>
+  </si>
+  <si>
     <t>TC2:26</t>
   </si>
   <si>
     <t>มหาศิริปัญญาโชติวัฒนาสุวรรณ กิตติเพชรบูรณาอุดมเดชสกุลพงศ์ พาณิชย์ศิริวิชยาพรทรัพย์ศิลา</t>
   </si>
   <si>
+    <t>0918079747</t>
+  </si>
+  <si>
     <t>TC2:27</t>
   </si>
   <si>
     <t>มหาศิริปัญญาโชติวัฒนาสุวรรณ กิตติเพชรบูรณาอุดมเดชสกุลพงศ์ พาณิชย์ศิริวิชยาพรทรัพย์ศิลาก</t>
   </si>
   <si>
+    <t>0918079748</t>
+  </si>
+  <si>
     <t>TC2:28</t>
   </si>
   <si>
     <t>จ</t>
   </si>
   <si>
+    <t>0918079749</t>
+  </si>
+  <si>
+    <t>กรุณากรอกนามสกุลตั้งแต่ 2 และไม่เกิน 85 ตัวอักษร</t>
+  </si>
+  <si>
     <t>TC2:29</t>
   </si>
   <si>
     <t>มหาศิริปัญญาโชติวัฒนาสุวรรณ กิตติเพชรบูรณาอุดมเดชสกุลพงศ์ พาณิชย์ศิริวิชยาพรทรัพย์ศิลากร</t>
   </si>
   <si>
+    <t>0918079750</t>
+  </si>
+  <si>
     <t>TC2:30</t>
   </si>
   <si>
     <t>จีนดา</t>
   </si>
   <si>
+    <t>0918079751</t>
+  </si>
+  <si>
     <t>TC2:31</t>
   </si>
   <si>
     <t>จี@</t>
   </si>
   <si>
+    <t>0918079752</t>
+  </si>
+  <si>
+    <t>กรุณากรอกข้อมูลโดยไม่มีอักขระพิเศษหรือเว้นวรรค</t>
+  </si>
+  <si>
     <t>TC2:32</t>
   </si>
   <si>
     <t>คิม</t>
   </si>
   <si>
+    <t>0918079753</t>
+  </si>
+  <si>
     <t>TC2:33</t>
   </si>
   <si>
     <t>คิ ม</t>
   </si>
   <si>
+    <t>0918079754</t>
+  </si>
+  <si>
     <t>TC2:34</t>
   </si>
   <si>
+    <t>0918079755</t>
+  </si>
+  <si>
+    <t>กรุณากรอกนามสกุล</t>
+  </si>
+  <si>
     <t>TC2:35</t>
   </si>
   <si>
@@ -254,365 +409,293 @@
     <t>Eก#9180795</t>
   </si>
   <si>
+    <t>กรุณากรอกเป็นตัวเลข [0-9] เท่านั้น</t>
+  </si>
+  <si>
     <t>TC2:37</t>
   </si>
   <si>
+    <t>0648581234</t>
+  </si>
+  <si>
     <t>TC2:38</t>
   </si>
   <si>
+    <t>0748581234</t>
+  </si>
+  <si>
     <t>TC2:39</t>
   </si>
   <si>
+    <t>0848581234</t>
+  </si>
+  <si>
     <t>TC2:40</t>
   </si>
   <si>
+    <t>0948581234</t>
+  </si>
+  <si>
     <t>TC2:41</t>
   </si>
   <si>
+    <t>0719584713</t>
+  </si>
+  <si>
+    <t>กรุณากรอกข้อมูลที่ขึ้นต้นด้วย 06 07 08 09</t>
+  </si>
+  <si>
     <t>TC2:42</t>
   </si>
   <si>
+    <t>0879354033</t>
+  </si>
+  <si>
     <t>TC2:43</t>
   </si>
   <si>
+    <t>087935403</t>
+  </si>
+  <si>
+    <t>กรุณากรอกข้อมูลจำนวนตัวเลข 10 หลักเท่านั้น</t>
+  </si>
+  <si>
+    <t>TC2:44</t>
+  </si>
+  <si>
+    <t>08793540331</t>
+  </si>
+  <si>
+    <t>TC2:45</t>
+  </si>
+  <si>
+    <t>TC2:46</t>
+  </si>
+  <si>
     <t>087 935 4033</t>
   </si>
   <si>
+    <t>กรุณากรอกข้อมูลห้ามมีช่องว่างระหว่างตัวเลข</t>
+  </si>
+  <si>
+    <t>TC2:47</t>
+  </si>
+  <si>
+    <t>กรุณากรอกข้อมูลเบอร์โทรศัพท์</t>
+  </si>
+  <si>
+    <t>TC2:48</t>
+  </si>
+  <si>
     <t>ชั้นปีที่ 1</t>
   </si>
   <si>
+    <t>TC2:49</t>
+  </si>
+  <si>
     <t>ชั้นปีที่ 2</t>
   </si>
   <si>
+    <t>TC2:50</t>
+  </si>
+  <si>
     <t>ชั้นปีที่ 3</t>
   </si>
   <si>
-    <t>ชั้นปีที่ 4</t>
+    <t>TC2:51</t>
+  </si>
+  <si>
+    <t>TC2:52</t>
   </si>
   <si>
     <t xml:space="preserve">เลือกชั้นปี </t>
   </si>
   <si>
-    <t>Profile.jpg</t>
+    <t>กรุณาเลือกชั้นปี</t>
+  </si>
+  <si>
+    <t>TC2:53</t>
+  </si>
+  <si>
+    <t>TC2:54</t>
+  </si>
+  <si>
+    <t>pattrawut</t>
+  </si>
+  <si>
+    <t>กรุณากรอกเป็นรูปแบบของอีเมล MJU เท่านั้น เช่น (MJU6504106001@mju.ac.th)</t>
+  </si>
+  <si>
+    <t>TC2:55</t>
+  </si>
+  <si>
+    <t>MJU6504106337</t>
+  </si>
+  <si>
+    <t>TC2:56</t>
+  </si>
+  <si>
+    <t>MJU 650410640</t>
+  </si>
+  <si>
+    <t>กรุณากรอกโดยห้ามมีช่องว่าง</t>
+  </si>
+  <si>
+    <t>TC2:57</t>
+  </si>
+  <si>
+    <t>mju6504106400</t>
+  </si>
+  <si>
+    <t>TC2:58</t>
+  </si>
+  <si>
+    <t>mju650410640</t>
+  </si>
+  <si>
+    <t>กรุณากรอกความยาวให้มีขนาด 13 ตัวพอดี</t>
+  </si>
+  <si>
+    <t>TC2:59</t>
+  </si>
+  <si>
+    <t>mju65041064001</t>
+  </si>
+  <si>
+    <t>TC2:60</t>
+  </si>
+  <si>
+    <t>กรุณากรอกอีเมล์รูปแบบของอีเมล MJU</t>
+  </si>
+  <si>
+    <t>TC2:61</t>
+  </si>
+  <si>
+    <t>TC2:62</t>
+  </si>
+  <si>
+    <t>รหัสผ่าน</t>
+  </si>
+  <si>
+    <t>กรุณากรอกประกอบด้วยตัวอักษรภาษาอังกฤษหรือตัวเลขรวมอักขระพิเศษ</t>
+  </si>
+  <si>
+    <t>TC2:63</t>
+  </si>
+  <si>
+    <t>Jalem_11112</t>
+  </si>
+  <si>
+    <t>TC2:64</t>
+  </si>
+  <si>
+    <t>Pattara1_</t>
+  </si>
+  <si>
+    <t>TC2:65</t>
+  </si>
+  <si>
+    <t>Pattarawut_jam1</t>
+  </si>
+  <si>
+    <t>TC2:66</t>
+  </si>
+  <si>
+    <t>Pattarawut_kub11</t>
+  </si>
+  <si>
+    <t>TC2:67</t>
+  </si>
+  <si>
+    <t>1Jame##</t>
+  </si>
+  <si>
+    <t>กรุณากรอกได้ตั้งแต่ 8 - 16 ตัวอักษร</t>
+  </si>
+  <si>
+    <t>TC2:68</t>
+  </si>
+  <si>
+    <t>Pattarawut_123456</t>
+  </si>
+  <si>
+    <t>TC2:69</t>
+  </si>
+  <si>
+    <t>TC2:70</t>
+  </si>
+  <si>
+    <t>Ptt_1234</t>
+  </si>
+  <si>
+    <t>TC2:71</t>
+  </si>
+  <si>
+    <t>Pattarawut#12345</t>
+  </si>
+  <si>
+    <t>TC2:72</t>
+  </si>
+  <si>
+    <t>Pattarawut# 1234</t>
+  </si>
+  <si>
+    <t>กรุณากรอกข้อมูลโดยไม่มีช่องว่างระหว่างตัวอักษร</t>
+  </si>
+  <si>
+    <t>TC2:73</t>
+  </si>
+  <si>
+    <t>กรุณากรอกรหัสผ่าน</t>
+  </si>
+  <si>
+    <t>TC2:74</t>
+  </si>
+  <si>
+    <t>TC2:75</t>
   </si>
   <si>
     <t>Profile.docx</t>
   </si>
   <si>
-    <t>MJU 650410640</t>
-  </si>
-  <si>
-    <t>Ptt123445678##</t>
-  </si>
-  <si>
-    <t>รหัสผ่าน</t>
-  </si>
-  <si>
-    <t>Jalem_11112</t>
-  </si>
-  <si>
-    <t>Pattara1_</t>
-  </si>
-  <si>
-    <t>Pattarawut_jam1</t>
-  </si>
-  <si>
-    <t>Pattarawut_kub11</t>
-  </si>
-  <si>
-    <t>1Jame##</t>
-  </si>
-  <si>
-    <t>Pattarawut_123456</t>
-  </si>
-  <si>
-    <t>Ptt_1234</t>
-  </si>
-  <si>
-    <t>Pattarawut#12345</t>
-  </si>
-  <si>
-    <t>Pattarawut# 1234</t>
-  </si>
-  <si>
-    <t>TC2:44</t>
-  </si>
-  <si>
-    <t>TC2:45</t>
-  </si>
-  <si>
-    <t>TC2:46</t>
-  </si>
-  <si>
-    <t>TC2:47</t>
-  </si>
-  <si>
-    <t>TC2:48</t>
-  </si>
-  <si>
-    <t>TC2:49</t>
-  </si>
-  <si>
-    <t>TC2:50</t>
-  </si>
-  <si>
-    <t>TC2:51</t>
-  </si>
-  <si>
-    <t>TC2:52</t>
-  </si>
-  <si>
-    <t>TC2:53</t>
-  </si>
-  <si>
-    <t>TC2:54</t>
-  </si>
-  <si>
-    <t>TC2:55</t>
-  </si>
-  <si>
-    <t>TC2:56</t>
-  </si>
-  <si>
-    <t>TC2:57</t>
-  </si>
-  <si>
-    <t>TC2:58</t>
-  </si>
-  <si>
-    <t>TC2:59</t>
-  </si>
-  <si>
-    <t>TC2:60</t>
-  </si>
-  <si>
-    <t>TC2:61</t>
-  </si>
-  <si>
-    <t>TC2:62</t>
-  </si>
-  <si>
-    <t>TC2:63</t>
-  </si>
-  <si>
-    <t>TC2:64</t>
-  </si>
-  <si>
-    <t>TC2:65</t>
-  </si>
-  <si>
-    <t>TC2:66</t>
-  </si>
-  <si>
-    <t>TC2:67</t>
-  </si>
-  <si>
-    <t>TC2:68</t>
-  </si>
-  <si>
-    <t>TC2:69</t>
-  </si>
-  <si>
-    <t>TC2:70</t>
-  </si>
-  <si>
-    <t>TC2:71</t>
-  </si>
-  <si>
-    <t>TC2:72</t>
-  </si>
-  <si>
-    <t>TC2:73</t>
-  </si>
-  <si>
-    <t>TC2:74</t>
-  </si>
-  <si>
-    <t>TC2:75</t>
+    <t>กรุณาแนบไฟล์รูปภาพ</t>
   </si>
   <si>
     <t>TC2:76</t>
   </si>
   <si>
+    <t>Profile1.jpg</t>
+  </si>
+  <si>
     <t>TC2:77</t>
   </si>
   <si>
+    <t>Profile2.jpg</t>
+  </si>
+  <si>
     <t>TC2:78</t>
   </si>
   <si>
-    <t>Execute</t>
-  </si>
-  <si>
-    <t>ActualResult</t>
-  </si>
-  <si>
-    <t>0918079722</t>
-  </si>
-  <si>
-    <t>0648581234</t>
-  </si>
-  <si>
-    <t>0748581234</t>
-  </si>
-  <si>
-    <t>0848581234</t>
-  </si>
-  <si>
-    <t>0948581234</t>
-  </si>
-  <si>
-    <t>0719584713</t>
-  </si>
-  <si>
-    <t>0879354033</t>
-  </si>
-  <si>
-    <t>087935403</t>
-  </si>
-  <si>
-    <t>08793540331</t>
-  </si>
-  <si>
-    <t>0918079723</t>
-  </si>
-  <si>
-    <t>0918079724</t>
-  </si>
-  <si>
-    <t>0918079725</t>
-  </si>
-  <si>
-    <t>0918079726</t>
-  </si>
-  <si>
-    <t>0918079727</t>
-  </si>
-  <si>
-    <t>0918079728</t>
-  </si>
-  <si>
-    <t>0918079729</t>
-  </si>
-  <si>
-    <t>0918079730</t>
-  </si>
-  <si>
-    <t>0918079731</t>
-  </si>
-  <si>
-    <t>0918079732</t>
-  </si>
-  <si>
-    <t>0918079733</t>
-  </si>
-  <si>
-    <t>0918079734</t>
-  </si>
-  <si>
-    <t>0918079735</t>
-  </si>
-  <si>
-    <t>0918079736</t>
-  </si>
-  <si>
-    <t>0918079737</t>
-  </si>
-  <si>
-    <t>0918079738</t>
-  </si>
-  <si>
-    <t>0918079739</t>
-  </si>
-  <si>
-    <t>0918079740</t>
-  </si>
-  <si>
-    <t>0918079741</t>
-  </si>
-  <si>
-    <t>0918079742</t>
-  </si>
-  <si>
-    <t>0918079743</t>
-  </si>
-  <si>
-    <t>0918079744</t>
-  </si>
-  <si>
-    <t>0918079745</t>
-  </si>
-  <si>
-    <t>0918079746</t>
-  </si>
-  <si>
-    <t>0918079747</t>
-  </si>
-  <si>
-    <t>0918079748</t>
-  </si>
-  <si>
-    <t>0918079749</t>
-  </si>
-  <si>
-    <t>0918079750</t>
-  </si>
-  <si>
-    <t>0918079751</t>
-  </si>
-  <si>
-    <t>0918079752</t>
-  </si>
-  <si>
-    <t>0918079753</t>
-  </si>
-  <si>
-    <t>0918079754</t>
-  </si>
-  <si>
-    <t>0918079755</t>
-  </si>
-  <si>
-    <t>Profile1.jpg</t>
-  </si>
-  <si>
-    <t>Profile2.jpg</t>
-  </si>
-  <si>
     <t>Profile3.jpg</t>
   </si>
   <si>
+    <t>ขนาดไฟล์เกิน 5 MB</t>
+  </si>
+  <si>
     <t>TC2:79</t>
   </si>
   <si>
-    <t>MJU6504106383</t>
-  </si>
-  <si>
-    <t>pattrawut</t>
-  </si>
-  <si>
-    <t>MJU6504106337</t>
-  </si>
-  <si>
-    <t>mju6504106400</t>
-  </si>
-  <si>
-    <t>mju650410640</t>
-  </si>
-  <si>
-    <t>mju65041064001</t>
-  </si>
-  <si>
-    <t>Lastname</t>
-  </si>
-  <si>
-    <t>Firstname</t>
+    <t>กรุณาแนบรูปภาพ</t>
+  </si>
+  <si>
+    <t>Revise</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -631,12 +714,6 @@
       <color rgb="FFFF0000"/>
       <name val="Angsana New"/>
       <family val="1"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="5">
@@ -692,7 +769,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -716,6 +793,10 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="ปกติ" xfId="0" builtinId="0"/>
@@ -996,2823 +1077,3092 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M80"/>
+  <dimension ref="A1:N80"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="N1" sqref="N1:N80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="10.85546875" customWidth="1"/>
-    <col min="3" max="3" width="14.28515625" customWidth="1"/>
-    <col min="4" max="4" width="33.28515625" customWidth="1"/>
-    <col min="5" max="5" width="58.85546875" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" customWidth="1"/>
-    <col min="7" max="7" width="11.7109375" customWidth="1"/>
-    <col min="8" max="8" width="15.7109375" customWidth="1"/>
-    <col min="9" max="9" width="22" customWidth="1"/>
-    <col min="10" max="10" width="48.85546875" customWidth="1"/>
-    <col min="11" max="11" width="47.7109375" customWidth="1"/>
-    <col min="12" max="12" width="15.42578125" customWidth="1"/>
-    <col min="13" max="13" width="18.5703125" customWidth="1"/>
+    <col min="3" max="4" width="9.28515625" customWidth="1"/>
+    <col min="5" max="5" width="8.85546875" customWidth="1"/>
+    <col min="6" max="6" width="9.85546875" customWidth="1"/>
+    <col min="7" max="7" width="10.5703125" customWidth="1"/>
+    <col min="8" max="8" width="14.140625" customWidth="1"/>
+    <col min="9" max="9" width="12.5703125" customWidth="1"/>
+    <col min="10" max="10" width="9.5703125" customWidth="1"/>
+    <col min="11" max="11" width="46.28515625" customWidth="1"/>
+    <col min="12" max="12" width="28.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="F1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="L1" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="M1" s="1" t="s">
+      <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="J1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="13" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C2" s="3">
         <v>6504106383</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>136</v>
+        <v>17</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>85</v>
+        <v>18</v>
+      </c>
+      <c r="H2" s="11" t="s">
+        <v>19</v>
       </c>
       <c r="I2" s="11" t="s">
-        <v>182</v>
-      </c>
-      <c r="J2" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-    </row>
-    <row r="3" spans="1:13" ht="16.5" x14ac:dyDescent="0.35">
+        <v>20</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="N2" s="14"/>
+    </row>
+    <row r="3" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>145</v>
+        <v>27</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>85</v>
+        <v>18</v>
+      </c>
+      <c r="H3" s="11" t="s">
+        <v>19</v>
       </c>
       <c r="I3" s="11" t="s">
-        <v>182</v>
-      </c>
-      <c r="J3" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
-    </row>
-    <row r="4" spans="1:13" ht="16.5" x14ac:dyDescent="0.35">
+        <v>20</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="N3" s="14"/>
+    </row>
+    <row r="4" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="C4" s="3">
         <v>6504106383</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>146</v>
+        <v>31</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>85</v>
+        <v>18</v>
+      </c>
+      <c r="H4" s="11" t="s">
+        <v>19</v>
       </c>
       <c r="I4" s="11" t="s">
-        <v>182</v>
-      </c>
-      <c r="J4" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
-    </row>
-    <row r="5" spans="1:13" ht="16.5" x14ac:dyDescent="0.35">
+        <v>20</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="N4" s="14"/>
+    </row>
+    <row r="5" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="C5" s="4">
         <v>650410638</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>147</v>
+        <v>33</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>85</v>
+        <v>18</v>
+      </c>
+      <c r="H5" s="11" t="s">
+        <v>19</v>
       </c>
       <c r="I5" s="11" t="s">
-        <v>182</v>
-      </c>
-      <c r="J5" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
-      <c r="M5" s="2"/>
-    </row>
-    <row r="6" spans="1:13" ht="16.5" x14ac:dyDescent="0.35">
+        <v>20</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="N5" s="14"/>
+    </row>
+    <row r="6" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="C6" s="4">
         <v>65041063833</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>148</v>
+        <v>36</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>85</v>
+        <v>18</v>
+      </c>
+      <c r="H6" s="11" t="s">
+        <v>19</v>
       </c>
       <c r="I6" s="11" t="s">
-        <v>182</v>
-      </c>
-      <c r="J6" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
-      <c r="M6" s="2"/>
-    </row>
-    <row r="7" spans="1:13" ht="16.5" x14ac:dyDescent="0.35">
+        <v>20</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="N6" s="14"/>
+    </row>
+    <row r="7" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="C7" s="3">
         <v>6504106383</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>149</v>
+        <v>38</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>85</v>
+        <v>18</v>
+      </c>
+      <c r="H7" s="11" t="s">
+        <v>19</v>
       </c>
       <c r="I7" s="11" t="s">
-        <v>182</v>
-      </c>
-      <c r="J7" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="K7" s="2"/>
-      <c r="L7" s="2"/>
-      <c r="M7" s="2"/>
-    </row>
-    <row r="8" spans="1:13" ht="16.5" x14ac:dyDescent="0.35">
+        <v>20</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="N7" s="14"/>
+    </row>
+    <row r="8" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="C8" s="3">
         <v>6504106333</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>150</v>
+        <v>40</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>85</v>
+        <v>18</v>
+      </c>
+      <c r="H8" s="11" t="s">
+        <v>19</v>
       </c>
       <c r="I8" s="11" t="s">
-        <v>182</v>
-      </c>
-      <c r="J8" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="K8" s="2"/>
-      <c r="L8" s="2"/>
-      <c r="M8" s="2"/>
-    </row>
-    <row r="9" spans="1:13" ht="16.5" x14ac:dyDescent="0.35">
+        <v>20</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M8" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="N8" s="14"/>
+    </row>
+    <row r="9" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="C9" s="5"/>
       <c r="D9" s="2" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="E9" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H9" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="I9" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K9" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="F9" s="8" t="s">
-        <v>151</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="I9" s="11" t="s">
-        <v>182</v>
-      </c>
-      <c r="J9" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="K9" s="2"/>
-      <c r="L9" s="2"/>
-      <c r="M9" s="2"/>
-    </row>
-    <row r="10" spans="1:13" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="L9" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="M9" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="N9" s="14"/>
+    </row>
+    <row r="10" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="C10" s="3">
         <v>6504106383</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>152</v>
+        <v>47</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>85</v>
+        <v>18</v>
+      </c>
+      <c r="H10" s="11" t="s">
+        <v>19</v>
       </c>
       <c r="I10" s="11" t="s">
-        <v>182</v>
-      </c>
-      <c r="J10" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="K10" s="2"/>
+        <v>20</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>22</v>
+      </c>
       <c r="L10" s="2"/>
       <c r="M10" s="2"/>
-    </row>
-    <row r="11" spans="1:13" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="N10" s="14"/>
+    </row>
+    <row r="11" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>22</v>
+        <v>48</v>
       </c>
       <c r="C11" s="3">
         <v>6504106383</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>23</v>
+        <v>49</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>153</v>
+        <v>50</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>85</v>
+        <v>18</v>
+      </c>
+      <c r="H11" s="11" t="s">
+        <v>19</v>
       </c>
       <c r="I11" s="11" t="s">
-        <v>182</v>
-      </c>
-      <c r="J11" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="K11" s="2"/>
+        <v>20</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>22</v>
+      </c>
       <c r="L11" s="2"/>
       <c r="M11" s="2"/>
-    </row>
-    <row r="12" spans="1:13" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="N11" s="14"/>
+    </row>
+    <row r="12" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>24</v>
+        <v>51</v>
       </c>
       <c r="C12" s="3">
         <v>6504106383</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>25</v>
+        <v>52</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>154</v>
+        <v>53</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>85</v>
+        <v>18</v>
+      </c>
+      <c r="H12" s="11" t="s">
+        <v>19</v>
       </c>
       <c r="I12" s="11" t="s">
-        <v>182</v>
-      </c>
-      <c r="J12" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="K12" s="2"/>
+        <v>20</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>54</v>
+      </c>
       <c r="L12" s="2"/>
       <c r="M12" s="2"/>
-    </row>
-    <row r="13" spans="1:13" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="N12" s="14"/>
+    </row>
+    <row r="13" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>26</v>
+        <v>55</v>
       </c>
       <c r="C13" s="3">
         <v>6504106383</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>27</v>
+        <v>56</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>155</v>
+        <v>57</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="H13" s="2" t="s">
-        <v>85</v>
+        <v>18</v>
+      </c>
+      <c r="H13" s="11" t="s">
+        <v>19</v>
       </c>
       <c r="I13" s="11" t="s">
-        <v>182</v>
-      </c>
-      <c r="J13" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="K13" s="2"/>
+        <v>20</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>22</v>
+      </c>
       <c r="L13" s="2"/>
       <c r="M13" s="2"/>
-    </row>
-    <row r="14" spans="1:13" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="N13" s="14"/>
+    </row>
+    <row r="14" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>28</v>
+        <v>58</v>
       </c>
       <c r="C14" s="3">
         <v>6504106383</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>29</v>
+        <v>59</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>156</v>
+        <v>60</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="H14" s="2" t="s">
-        <v>85</v>
+        <v>18</v>
+      </c>
+      <c r="H14" s="11" t="s">
+        <v>19</v>
       </c>
       <c r="I14" s="11" t="s">
-        <v>182</v>
-      </c>
-      <c r="J14" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="K14" s="2"/>
+        <v>20</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>22</v>
+      </c>
       <c r="L14" s="2"/>
       <c r="M14" s="2"/>
-    </row>
-    <row r="15" spans="1:13" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="N14" s="14"/>
+    </row>
+    <row r="15" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>30</v>
+        <v>61</v>
       </c>
       <c r="C15" s="3">
         <v>6504106383</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>31</v>
+        <v>62</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>157</v>
+        <v>63</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="H15" s="2" t="s">
-        <v>85</v>
+        <v>18</v>
+      </c>
+      <c r="H15" s="11" t="s">
+        <v>19</v>
       </c>
       <c r="I15" s="11" t="s">
-        <v>182</v>
-      </c>
-      <c r="J15" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="K15" s="2"/>
+        <v>20</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>22</v>
+      </c>
       <c r="L15" s="2"/>
       <c r="M15" s="2"/>
-    </row>
-    <row r="16" spans="1:13" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="N15" s="14"/>
+    </row>
+    <row r="16" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="C16" s="3">
         <v>6504106383</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>33</v>
+        <v>65</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>158</v>
+        <v>66</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="H16" s="2" t="s">
-        <v>85</v>
+        <v>18</v>
+      </c>
+      <c r="H16" s="11" t="s">
+        <v>19</v>
       </c>
       <c r="I16" s="11" t="s">
-        <v>182</v>
-      </c>
-      <c r="J16" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="K16" s="2"/>
+        <v>20</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>22</v>
+      </c>
       <c r="L16" s="2"/>
       <c r="M16" s="2"/>
-    </row>
-    <row r="17" spans="1:13" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="N16" s="14"/>
+    </row>
+    <row r="17" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>34</v>
+        <v>67</v>
       </c>
       <c r="C17" s="3">
         <v>6504106383</v>
       </c>
-      <c r="D17" s="2" t="s">
-        <v>35</v>
+      <c r="D17" s="6" t="s">
+        <v>68</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="F17" s="8" t="s">
-        <v>159</v>
+        <v>69</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="H17" s="2" t="s">
-        <v>85</v>
+        <v>18</v>
+      </c>
+      <c r="H17" s="11" t="s">
+        <v>19</v>
       </c>
       <c r="I17" s="11" t="s">
-        <v>182</v>
-      </c>
-      <c r="J17" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="K17" s="2"/>
+        <v>20</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>70</v>
+      </c>
       <c r="L17" s="2"/>
       <c r="M17" s="2"/>
-    </row>
-    <row r="18" spans="1:13" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="N17" s="14"/>
+    </row>
+    <row r="18" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>36</v>
+        <v>71</v>
       </c>
       <c r="C18" s="3">
         <v>6504106383</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>37</v>
+        <v>72</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="F18" s="8" t="s">
-        <v>160</v>
+        <v>73</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="H18" s="2" t="s">
-        <v>85</v>
+        <v>18</v>
+      </c>
+      <c r="H18" s="11" t="s">
+        <v>19</v>
       </c>
       <c r="I18" s="11" t="s">
-        <v>182</v>
-      </c>
-      <c r="J18" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="K18" s="2"/>
+        <v>20</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>70</v>
+      </c>
       <c r="L18" s="2"/>
       <c r="M18" s="2"/>
-    </row>
-    <row r="19" spans="1:13" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="N18" s="14"/>
+    </row>
+    <row r="19" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>38</v>
+        <v>74</v>
       </c>
       <c r="C19" s="3">
         <v>6504106383</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>39</v>
+        <v>75</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>161</v>
+        <v>76</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="H19" s="2" t="s">
-        <v>85</v>
+        <v>18</v>
+      </c>
+      <c r="H19" s="11" t="s">
+        <v>19</v>
       </c>
       <c r="I19" s="11" t="s">
-        <v>182</v>
-      </c>
-      <c r="J19" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="K19" s="2"/>
+        <v>20</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K19" s="2" t="s">
+        <v>22</v>
+      </c>
       <c r="L19" s="2"/>
       <c r="M19" s="2"/>
-    </row>
-    <row r="20" spans="1:13" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="N19" s="14"/>
+    </row>
+    <row r="20" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="C20" s="3">
         <v>6504106383</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>41</v>
+        <v>78</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="F20" s="8" t="s">
-        <v>162</v>
+        <v>79</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="H20" s="2" t="s">
-        <v>85</v>
+        <v>18</v>
+      </c>
+      <c r="H20" s="11" t="s">
+        <v>19</v>
       </c>
       <c r="I20" s="11" t="s">
-        <v>182</v>
-      </c>
-      <c r="J20" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="K20" s="2"/>
+        <v>20</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K20" s="2" t="s">
+        <v>80</v>
+      </c>
       <c r="L20" s="2"/>
       <c r="M20" s="2"/>
-    </row>
-    <row r="21" spans="1:13" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="N20" s="14"/>
+    </row>
+    <row r="21" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>42</v>
+        <v>81</v>
       </c>
       <c r="C21" s="3">
         <v>6504106383</v>
       </c>
       <c r="D21" s="5"/>
       <c r="E21" s="2" t="s">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="F21" s="8" t="s">
-        <v>163</v>
+        <v>82</v>
       </c>
       <c r="G21" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H21" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="I21" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K21" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="H21" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="I21" s="11" t="s">
-        <v>182</v>
-      </c>
-      <c r="J21" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="K21" s="2"/>
       <c r="L21" s="2"/>
       <c r="M21" s="2"/>
-    </row>
-    <row r="22" spans="1:13" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="N21" s="14"/>
+    </row>
+    <row r="22" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>43</v>
+        <v>84</v>
       </c>
       <c r="C22" s="3">
         <v>6504106383</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="F22" s="8" t="s">
-        <v>164</v>
+        <v>85</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="H22" s="2" t="s">
-        <v>85</v>
+        <v>18</v>
+      </c>
+      <c r="H22" s="11" t="s">
+        <v>19</v>
       </c>
       <c r="I22" s="11" t="s">
-        <v>182</v>
-      </c>
-      <c r="J22" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="K22" s="2"/>
+        <v>20</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K22" s="2" t="s">
+        <v>22</v>
+      </c>
       <c r="L22" s="2"/>
       <c r="M22" s="2"/>
-    </row>
-    <row r="23" spans="1:13" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="N22" s="14"/>
+    </row>
+    <row r="23" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>45</v>
+        <v>86</v>
       </c>
       <c r="C23" s="3">
         <v>6504106383</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>46</v>
+        <v>87</v>
       </c>
       <c r="F23" s="8" t="s">
-        <v>165</v>
+        <v>88</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="H23" s="2" t="s">
-        <v>85</v>
+        <v>18</v>
+      </c>
+      <c r="H23" s="11" t="s">
+        <v>19</v>
       </c>
       <c r="I23" s="11" t="s">
-        <v>182</v>
-      </c>
-      <c r="J23" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="K23" s="2"/>
+        <v>20</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K23" s="2" t="s">
+        <v>22</v>
+      </c>
       <c r="L23" s="2"/>
       <c r="M23" s="2"/>
-    </row>
-    <row r="24" spans="1:13" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="N23" s="14"/>
+    </row>
+    <row r="24" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>47</v>
+        <v>89</v>
       </c>
       <c r="C24" s="3">
         <v>6504106383</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="E24" s="4">
         <v>1234</v>
       </c>
       <c r="F24" s="8" t="s">
-        <v>166</v>
+        <v>90</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="H24" s="2" t="s">
-        <v>85</v>
+        <v>18</v>
+      </c>
+      <c r="H24" s="11" t="s">
+        <v>19</v>
       </c>
       <c r="I24" s="11" t="s">
-        <v>182</v>
-      </c>
-      <c r="J24" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="K24" s="2"/>
+        <v>20</v>
+      </c>
+      <c r="J24" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K24" s="2" t="s">
+        <v>54</v>
+      </c>
       <c r="L24" s="2"/>
       <c r="M24" s="2"/>
-    </row>
-    <row r="25" spans="1:13" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="N24" s="14"/>
+    </row>
+    <row r="25" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>48</v>
+        <v>91</v>
       </c>
       <c r="C25" s="3">
         <v>6504106383</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>49</v>
+        <v>92</v>
       </c>
       <c r="F25" s="8" t="s">
-        <v>167</v>
+        <v>93</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="H25" s="2" t="s">
-        <v>85</v>
+        <v>18</v>
+      </c>
+      <c r="H25" s="11" t="s">
+        <v>19</v>
       </c>
       <c r="I25" s="11" t="s">
-        <v>182</v>
-      </c>
-      <c r="J25" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="K25" s="2"/>
+        <v>20</v>
+      </c>
+      <c r="J25" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K25" s="2" t="s">
+        <v>22</v>
+      </c>
       <c r="L25" s="2"/>
       <c r="M25" s="2"/>
-    </row>
-    <row r="26" spans="1:13" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="N25" s="14"/>
+    </row>
+    <row r="26" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>50</v>
+        <v>94</v>
       </c>
       <c r="C26" s="3">
         <v>6504106383</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>51</v>
+        <v>95</v>
       </c>
       <c r="F26" s="8" t="s">
-        <v>168</v>
+        <v>96</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="H26" s="2" t="s">
-        <v>85</v>
+        <v>18</v>
+      </c>
+      <c r="H26" s="11" t="s">
+        <v>19</v>
       </c>
       <c r="I26" s="11" t="s">
-        <v>182</v>
-      </c>
-      <c r="J26" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="K26" s="2"/>
+        <v>20</v>
+      </c>
+      <c r="J26" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K26" s="2" t="s">
+        <v>22</v>
+      </c>
       <c r="L26" s="2"/>
       <c r="M26" s="2"/>
-    </row>
-    <row r="27" spans="1:13" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="N26" s="14"/>
+    </row>
+    <row r="27" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>52</v>
+        <v>97</v>
       </c>
       <c r="C27" s="3">
         <v>6504106383</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>53</v>
+        <v>98</v>
       </c>
       <c r="F27" s="8" t="s">
-        <v>169</v>
+        <v>99</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="H27" s="2" t="s">
-        <v>85</v>
+        <v>18</v>
+      </c>
+      <c r="H27" s="11" t="s">
+        <v>19</v>
       </c>
       <c r="I27" s="11" t="s">
-        <v>182</v>
-      </c>
-      <c r="J27" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="K27" s="2"/>
+        <v>20</v>
+      </c>
+      <c r="J27" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K27" s="2" t="s">
+        <v>22</v>
+      </c>
       <c r="L27" s="2"/>
       <c r="M27" s="2"/>
-    </row>
-    <row r="28" spans="1:13" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="N27" s="14"/>
+    </row>
+    <row r="28" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>54</v>
+        <v>100</v>
       </c>
       <c r="C28" s="3">
         <v>6504106383</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>55</v>
+        <v>101</v>
       </c>
       <c r="F28" s="8" t="s">
-        <v>170</v>
+        <v>102</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="H28" s="2" t="s">
-        <v>85</v>
+        <v>18</v>
+      </c>
+      <c r="H28" s="11" t="s">
+        <v>19</v>
       </c>
       <c r="I28" s="11" t="s">
-        <v>182</v>
-      </c>
-      <c r="J28" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="K28" s="2"/>
+        <v>20</v>
+      </c>
+      <c r="J28" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K28" s="2" t="s">
+        <v>22</v>
+      </c>
       <c r="L28" s="2"/>
       <c r="M28" s="2"/>
-    </row>
-    <row r="29" spans="1:13" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="N28" s="14"/>
+    </row>
+    <row r="29" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>56</v>
+        <v>103</v>
       </c>
       <c r="C29" s="3">
         <v>6504106383</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="E29" s="6" t="s">
-        <v>57</v>
+        <v>104</v>
       </c>
       <c r="F29" s="8" t="s">
-        <v>171</v>
+        <v>105</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="H29" s="2" t="s">
-        <v>85</v>
+        <v>18</v>
+      </c>
+      <c r="H29" s="11" t="s">
+        <v>19</v>
       </c>
       <c r="I29" s="11" t="s">
-        <v>182</v>
-      </c>
-      <c r="J29" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="K29" s="2"/>
+        <v>20</v>
+      </c>
+      <c r="J29" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K29" s="2" t="s">
+        <v>106</v>
+      </c>
       <c r="L29" s="2"/>
       <c r="M29" s="2"/>
-    </row>
-    <row r="30" spans="1:13" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="N29" s="14"/>
+    </row>
+    <row r="30" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>58</v>
+        <v>107</v>
       </c>
       <c r="C30" s="3">
         <v>6504106383</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>59</v>
+        <v>108</v>
       </c>
       <c r="F30" s="8" t="s">
-        <v>172</v>
+        <v>109</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="H30" s="2" t="s">
-        <v>85</v>
+        <v>18</v>
+      </c>
+      <c r="H30" s="11" t="s">
+        <v>19</v>
       </c>
       <c r="I30" s="11" t="s">
-        <v>182</v>
-      </c>
-      <c r="J30" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="K30" s="2"/>
+        <v>20</v>
+      </c>
+      <c r="J30" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K30" s="2" t="s">
+        <v>106</v>
+      </c>
       <c r="L30" s="2"/>
       <c r="M30" s="2"/>
-    </row>
-    <row r="31" spans="1:13" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="N30" s="14"/>
+    </row>
+    <row r="31" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>60</v>
+        <v>110</v>
       </c>
       <c r="C31" s="3">
         <v>6504106383</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>61</v>
+        <v>111</v>
       </c>
       <c r="F31" s="8" t="s">
-        <v>173</v>
+        <v>112</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="H31" s="2" t="s">
-        <v>85</v>
+        <v>18</v>
+      </c>
+      <c r="H31" s="11" t="s">
+        <v>19</v>
       </c>
       <c r="I31" s="11" t="s">
-        <v>182</v>
-      </c>
-      <c r="J31" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="K31" s="2"/>
+        <v>20</v>
+      </c>
+      <c r="J31" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K31" s="2" t="s">
+        <v>22</v>
+      </c>
       <c r="L31" s="2"/>
       <c r="M31" s="2"/>
-    </row>
-    <row r="32" spans="1:13" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="N31" s="14"/>
+    </row>
+    <row r="32" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>62</v>
+        <v>113</v>
       </c>
       <c r="C32" s="3">
         <v>6504106383</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="E32" s="6" t="s">
-        <v>63</v>
+        <v>114</v>
       </c>
       <c r="F32" s="8" t="s">
-        <v>174</v>
+        <v>115</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="H32" s="2" t="s">
-        <v>85</v>
+        <v>18</v>
+      </c>
+      <c r="H32" s="11" t="s">
+        <v>19</v>
       </c>
       <c r="I32" s="11" t="s">
-        <v>182</v>
-      </c>
-      <c r="J32" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="K32" s="2"/>
+        <v>20</v>
+      </c>
+      <c r="J32" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K32" s="2" t="s">
+        <v>116</v>
+      </c>
       <c r="L32" s="2"/>
       <c r="M32" s="2"/>
-    </row>
-    <row r="33" spans="1:13" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="N32" s="14"/>
+    </row>
+    <row r="33" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>64</v>
+        <v>117</v>
       </c>
       <c r="C33" s="3">
         <v>6504106383</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>65</v>
+        <v>118</v>
       </c>
       <c r="F33" s="8" t="s">
-        <v>175</v>
+        <v>119</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="H33" s="2" t="s">
-        <v>85</v>
+        <v>18</v>
+      </c>
+      <c r="H33" s="11" t="s">
+        <v>19</v>
       </c>
       <c r="I33" s="11" t="s">
-        <v>182</v>
-      </c>
-      <c r="J33" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="K33" s="2"/>
+        <v>20</v>
+      </c>
+      <c r="J33" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K33" s="2" t="s">
+        <v>22</v>
+      </c>
       <c r="L33" s="2"/>
       <c r="M33" s="2"/>
-    </row>
-    <row r="34" spans="1:13" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="N33" s="14"/>
+    </row>
+    <row r="34" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>66</v>
+        <v>120</v>
       </c>
       <c r="C34" s="3">
         <v>6504106383</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="E34" s="6" t="s">
-        <v>67</v>
+        <v>121</v>
       </c>
       <c r="F34" s="8" t="s">
-        <v>176</v>
+        <v>122</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="H34" s="2" t="s">
-        <v>85</v>
+        <v>18</v>
+      </c>
+      <c r="H34" s="11" t="s">
+        <v>19</v>
       </c>
       <c r="I34" s="11" t="s">
-        <v>182</v>
-      </c>
-      <c r="J34" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="K34" s="2"/>
+        <v>20</v>
+      </c>
+      <c r="J34" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K34" s="2" t="s">
+        <v>116</v>
+      </c>
       <c r="L34" s="2"/>
       <c r="M34" s="2"/>
-    </row>
-    <row r="35" spans="1:13" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="N34" s="14"/>
+    </row>
+    <row r="35" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>68</v>
+        <v>123</v>
       </c>
       <c r="C35" s="3">
         <v>6504106383</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="E35" s="5"/>
       <c r="F35" s="8" t="s">
-        <v>177</v>
+        <v>124</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="H35" s="2" t="s">
-        <v>85</v>
+        <v>18</v>
+      </c>
+      <c r="H35" s="11" t="s">
+        <v>19</v>
       </c>
       <c r="I35" s="11" t="s">
-        <v>182</v>
-      </c>
-      <c r="J35" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="K35" s="2"/>
+        <v>20</v>
+      </c>
+      <c r="J35" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K35" s="2" t="s">
+        <v>125</v>
+      </c>
       <c r="L35" s="2"/>
       <c r="M35" s="2"/>
-    </row>
-    <row r="36" spans="1:13" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="N35" s="14"/>
+    </row>
+    <row r="36" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>69</v>
+        <v>126</v>
       </c>
       <c r="C36" s="3">
         <v>6504106383</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="F36" s="8" t="s">
-        <v>136</v>
+        <v>17</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="H36" s="2" t="s">
-        <v>85</v>
+        <v>18</v>
+      </c>
+      <c r="H36" s="11" t="s">
+        <v>19</v>
       </c>
       <c r="I36" s="11" t="s">
-        <v>182</v>
-      </c>
-      <c r="J36" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="K36" s="2"/>
+        <v>20</v>
+      </c>
+      <c r="J36" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K36" s="2" t="s">
+        <v>22</v>
+      </c>
       <c r="L36" s="2"/>
       <c r="M36" s="2"/>
-    </row>
-    <row r="37" spans="1:13" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="N36" s="14"/>
+    </row>
+    <row r="37" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>70</v>
+        <v>127</v>
       </c>
       <c r="C37" s="3">
         <v>6504106383</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="F37" s="9" t="s">
-        <v>71</v>
+        <v>128</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="H37" s="2" t="s">
-        <v>85</v>
+        <v>18</v>
+      </c>
+      <c r="H37" s="11" t="s">
+        <v>19</v>
       </c>
       <c r="I37" s="11" t="s">
-        <v>182</v>
-      </c>
-      <c r="J37" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="K37" s="2"/>
+        <v>20</v>
+      </c>
+      <c r="J37" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K37" s="2" t="s">
+        <v>129</v>
+      </c>
       <c r="L37" s="2"/>
       <c r="M37" s="2"/>
-    </row>
-    <row r="38" spans="1:13" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="N37" s="14"/>
+    </row>
+    <row r="38" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>72</v>
+        <v>130</v>
       </c>
       <c r="C38" s="3">
         <v>6504106383</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="F38" s="8" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="H38" s="2" t="s">
-        <v>85</v>
+        <v>18</v>
+      </c>
+      <c r="H38" s="11" t="s">
+        <v>19</v>
       </c>
       <c r="I38" s="11" t="s">
-        <v>182</v>
-      </c>
-      <c r="J38" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="K38" s="2"/>
+        <v>20</v>
+      </c>
+      <c r="J38" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K38" s="2" t="s">
+        <v>22</v>
+      </c>
       <c r="L38" s="2"/>
       <c r="M38" s="2"/>
-    </row>
-    <row r="39" spans="1:13" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="N38" s="14"/>
+    </row>
+    <row r="39" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>73</v>
+        <v>132</v>
       </c>
       <c r="C39" s="3">
         <v>6504106383</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="F39" s="8" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="H39" s="2" t="s">
-        <v>85</v>
+        <v>18</v>
+      </c>
+      <c r="H39" s="11" t="s">
+        <v>19</v>
       </c>
       <c r="I39" s="11" t="s">
-        <v>182</v>
-      </c>
-      <c r="J39" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="K39" s="2"/>
+        <v>20</v>
+      </c>
+      <c r="J39" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K39" s="2" t="s">
+        <v>22</v>
+      </c>
       <c r="L39" s="2"/>
       <c r="M39" s="2"/>
-    </row>
-    <row r="40" spans="1:13" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="N39" s="14"/>
+    </row>
+    <row r="40" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>74</v>
+        <v>134</v>
       </c>
       <c r="C40" s="3">
         <v>6504106383</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="F40" s="8" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="H40" s="2" t="s">
-        <v>85</v>
+        <v>18</v>
+      </c>
+      <c r="H40" s="11" t="s">
+        <v>19</v>
       </c>
       <c r="I40" s="11" t="s">
-        <v>182</v>
-      </c>
-      <c r="J40" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="K40" s="2"/>
+        <v>20</v>
+      </c>
+      <c r="J40" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K40" s="2" t="s">
+        <v>22</v>
+      </c>
       <c r="L40" s="2"/>
       <c r="M40" s="2"/>
-    </row>
-    <row r="41" spans="1:13" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="N40" s="14"/>
+    </row>
+    <row r="41" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A41" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>75</v>
+        <v>136</v>
       </c>
       <c r="C41" s="3">
         <v>6504106383</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="F41" s="8" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="H41" s="2" t="s">
-        <v>85</v>
+        <v>18</v>
+      </c>
+      <c r="H41" s="11" t="s">
+        <v>19</v>
       </c>
       <c r="I41" s="11" t="s">
-        <v>182</v>
-      </c>
-      <c r="J41" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="K41" s="2"/>
+        <v>20</v>
+      </c>
+      <c r="J41" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K41" s="2" t="s">
+        <v>22</v>
+      </c>
       <c r="L41" s="2"/>
       <c r="M41" s="2"/>
-    </row>
-    <row r="42" spans="1:13" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="N41" s="14"/>
+    </row>
+    <row r="42" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A42" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>76</v>
+        <v>138</v>
       </c>
       <c r="C42" s="3">
         <v>6504106383</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="F42" s="9" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="H42" s="2" t="s">
-        <v>85</v>
+        <v>18</v>
+      </c>
+      <c r="H42" s="11" t="s">
+        <v>19</v>
       </c>
       <c r="I42" s="11" t="s">
-        <v>182</v>
-      </c>
-      <c r="J42" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="K42" s="2"/>
+        <v>20</v>
+      </c>
+      <c r="J42" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K42" s="2" t="s">
+        <v>140</v>
+      </c>
       <c r="L42" s="2"/>
       <c r="M42" s="2"/>
-    </row>
-    <row r="43" spans="1:13" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="N42" s="14"/>
+    </row>
+    <row r="43" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A43" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>77</v>
+        <v>141</v>
       </c>
       <c r="C43" s="3">
         <v>6504106383</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="F43" s="8" t="s">
         <v>142</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="H43" s="2" t="s">
-        <v>85</v>
+        <v>18</v>
+      </c>
+      <c r="H43" s="11" t="s">
+        <v>19</v>
       </c>
       <c r="I43" s="11" t="s">
-        <v>182</v>
-      </c>
-      <c r="J43" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="K43" s="2"/>
+        <v>20</v>
+      </c>
+      <c r="J43" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K43" s="2" t="s">
+        <v>22</v>
+      </c>
       <c r="L43" s="2"/>
       <c r="M43" s="2"/>
-    </row>
-    <row r="44" spans="1:13" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="N43" s="14"/>
+    </row>
+    <row r="44" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A44" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>78</v>
+        <v>143</v>
       </c>
       <c r="C44" s="3">
         <v>6504106383</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="F44" s="9" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="H44" s="2" t="s">
-        <v>85</v>
+        <v>18</v>
+      </c>
+      <c r="H44" s="11" t="s">
+        <v>19</v>
       </c>
       <c r="I44" s="11" t="s">
-        <v>182</v>
-      </c>
-      <c r="J44" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="K44" s="2"/>
+        <v>20</v>
+      </c>
+      <c r="J44" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K44" s="2" t="s">
+        <v>145</v>
+      </c>
       <c r="L44" s="2"/>
       <c r="M44" s="2"/>
-    </row>
-    <row r="45" spans="1:13" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="N44" s="14"/>
+    </row>
+    <row r="45" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A45" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>99</v>
+        <v>146</v>
       </c>
       <c r="C45" s="3">
         <v>6504106383</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="F45" s="9" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="H45" s="2" t="s">
-        <v>85</v>
+        <v>18</v>
+      </c>
+      <c r="H45" s="11" t="s">
+        <v>19</v>
       </c>
       <c r="I45" s="11" t="s">
-        <v>182</v>
-      </c>
-      <c r="J45" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="K45" s="2"/>
+        <v>20</v>
+      </c>
+      <c r="J45" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K45" s="2" t="s">
+        <v>145</v>
+      </c>
       <c r="L45" s="2"/>
       <c r="M45" s="2"/>
-    </row>
-    <row r="46" spans="1:13" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="N45" s="14"/>
+    </row>
+    <row r="46" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>100</v>
+        <v>148</v>
       </c>
       <c r="C46" s="3">
         <v>6504106383</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="F46" s="8" t="s">
         <v>142</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="H46" s="2" t="s">
-        <v>85</v>
+        <v>18</v>
+      </c>
+      <c r="H46" s="11" t="s">
+        <v>19</v>
       </c>
       <c r="I46" s="11" t="s">
-        <v>182</v>
-      </c>
-      <c r="J46" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="K46" s="2"/>
+        <v>20</v>
+      </c>
+      <c r="J46" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K46" s="2" t="s">
+        <v>22</v>
+      </c>
       <c r="L46" s="2"/>
       <c r="M46" s="2"/>
-    </row>
-    <row r="47" spans="1:13" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="N46" s="14"/>
+    </row>
+    <row r="47" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A47" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>101</v>
+        <v>149</v>
       </c>
       <c r="C47" s="3">
         <v>6504106383</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="F47" s="10" t="s">
-        <v>79</v>
+        <v>150</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="H47" s="2" t="s">
-        <v>85</v>
+        <v>18</v>
+      </c>
+      <c r="H47" s="11" t="s">
+        <v>19</v>
       </c>
       <c r="I47" s="11" t="s">
-        <v>182</v>
-      </c>
-      <c r="J47" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="K47" s="2"/>
+        <v>20</v>
+      </c>
+      <c r="J47" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K47" s="2" t="s">
+        <v>151</v>
+      </c>
       <c r="L47" s="2"/>
       <c r="M47" s="2"/>
-    </row>
-    <row r="48" spans="1:13" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="N47" s="14"/>
+    </row>
+    <row r="48" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A48" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>102</v>
+        <v>152</v>
       </c>
       <c r="C48" s="3">
         <v>6504106383</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="F48" s="5"/>
       <c r="G48" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="H48" s="2" t="s">
-        <v>85</v>
+        <v>18</v>
+      </c>
+      <c r="H48" s="11" t="s">
+        <v>19</v>
       </c>
       <c r="I48" s="11" t="s">
-        <v>182</v>
-      </c>
-      <c r="J48" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="K48" s="2"/>
+        <v>20</v>
+      </c>
+      <c r="J48" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K48" s="2" t="s">
+        <v>153</v>
+      </c>
       <c r="L48" s="2"/>
       <c r="M48" s="2"/>
-    </row>
-    <row r="49" spans="1:13" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="N48" s="14"/>
+    </row>
+    <row r="49" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A49" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>103</v>
+        <v>154</v>
       </c>
       <c r="C49" s="3">
         <v>6504106383</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="F49" s="8" t="s">
-        <v>136</v>
+        <v>17</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="H49" s="2" t="s">
-        <v>85</v>
+        <v>155</v>
+      </c>
+      <c r="H49" s="11" t="s">
+        <v>19</v>
       </c>
       <c r="I49" s="11" t="s">
-        <v>182</v>
-      </c>
-      <c r="J49" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="K49" s="2"/>
+        <v>20</v>
+      </c>
+      <c r="J49" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K49" s="2" t="s">
+        <v>22</v>
+      </c>
       <c r="L49" s="2"/>
       <c r="M49" s="2"/>
-    </row>
-    <row r="50" spans="1:13" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="N49" s="14"/>
+    </row>
+    <row r="50" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A50" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>104</v>
+        <v>156</v>
       </c>
       <c r="C50" s="3">
         <v>6504106383</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="F50" s="8" t="s">
-        <v>145</v>
+        <v>27</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="H50" s="2" t="s">
-        <v>85</v>
+        <v>157</v>
+      </c>
+      <c r="H50" s="11" t="s">
+        <v>19</v>
       </c>
       <c r="I50" s="11" t="s">
-        <v>182</v>
-      </c>
-      <c r="J50" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="K50" s="2"/>
+        <v>20</v>
+      </c>
+      <c r="J50" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K50" s="2" t="s">
+        <v>22</v>
+      </c>
       <c r="L50" s="2"/>
       <c r="M50" s="2"/>
-    </row>
-    <row r="51" spans="1:13" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="N50" s="14"/>
+    </row>
+    <row r="51" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A51" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>105</v>
+        <v>158</v>
       </c>
       <c r="C51" s="3">
         <v>6504106383</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="F51" s="8" t="s">
-        <v>146</v>
+        <v>31</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="H51" s="2" t="s">
-        <v>85</v>
+        <v>159</v>
+      </c>
+      <c r="H51" s="11" t="s">
+        <v>19</v>
       </c>
       <c r="I51" s="11" t="s">
-        <v>182</v>
-      </c>
-      <c r="J51" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="K51" s="2"/>
+        <v>20</v>
+      </c>
+      <c r="J51" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K51" s="2" t="s">
+        <v>22</v>
+      </c>
       <c r="L51" s="2"/>
       <c r="M51" s="2"/>
-    </row>
-    <row r="52" spans="1:13" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="N51" s="14"/>
+    </row>
+    <row r="52" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A52" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>106</v>
+        <v>160</v>
       </c>
       <c r="C52" s="3">
         <v>6504106383</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="F52" s="8" t="s">
-        <v>147</v>
+        <v>33</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="H52" s="2" t="s">
-        <v>85</v>
+        <v>18</v>
+      </c>
+      <c r="H52" s="11" t="s">
+        <v>19</v>
       </c>
       <c r="I52" s="11" t="s">
-        <v>182</v>
-      </c>
-      <c r="J52" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="K52" s="2"/>
+        <v>20</v>
+      </c>
+      <c r="J52" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K52" s="2" t="s">
+        <v>22</v>
+      </c>
       <c r="L52" s="2"/>
       <c r="M52" s="2"/>
-    </row>
-    <row r="53" spans="1:13" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="N52" s="14"/>
+    </row>
+    <row r="53" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A53" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>107</v>
+        <v>161</v>
       </c>
       <c r="C53" s="3">
         <v>6504106383</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="F53" s="8" t="s">
-        <v>148</v>
+        <v>36</v>
       </c>
       <c r="G53" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="H53" s="2" t="s">
-        <v>85</v>
+        <v>162</v>
+      </c>
+      <c r="H53" s="11" t="s">
+        <v>19</v>
       </c>
       <c r="I53" s="11" t="s">
-        <v>182</v>
-      </c>
-      <c r="J53" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="K53" s="2"/>
+        <v>20</v>
+      </c>
+      <c r="J53" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K53" s="2" t="s">
+        <v>163</v>
+      </c>
       <c r="L53" s="2"/>
       <c r="M53" s="2"/>
-    </row>
-    <row r="54" spans="1:13" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="N53" s="14"/>
+    </row>
+    <row r="54" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A54" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>108</v>
+        <v>164</v>
       </c>
       <c r="C54" s="3">
         <v>6504106383</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="F54" s="8" t="s">
-        <v>149</v>
+        <v>38</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="H54" s="2" t="s">
-        <v>85</v>
+        <v>18</v>
+      </c>
+      <c r="H54" s="11" t="s">
+        <v>19</v>
       </c>
       <c r="I54" s="11" t="s">
-        <v>182</v>
-      </c>
-      <c r="J54" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="K54" s="2"/>
+        <v>20</v>
+      </c>
+      <c r="J54" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K54" s="2" t="s">
+        <v>22</v>
+      </c>
       <c r="L54" s="2"/>
       <c r="M54" s="2"/>
-    </row>
-    <row r="55" spans="1:13" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="N54" s="14"/>
+    </row>
+    <row r="55" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A55" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>109</v>
+        <v>165</v>
       </c>
       <c r="C55" s="3">
         <v>6504106383</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="F55" s="8" t="s">
-        <v>150</v>
+        <v>40</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="H55" s="6" t="s">
-        <v>86</v>
+        <v>18</v>
+      </c>
+      <c r="H55" s="7" t="s">
+        <v>166</v>
       </c>
       <c r="I55" s="11" t="s">
-        <v>182</v>
-      </c>
-      <c r="J55" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="K55" s="2"/>
+        <v>20</v>
+      </c>
+      <c r="J55" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K55" s="2" t="s">
+        <v>167</v>
+      </c>
       <c r="L55" s="2"/>
       <c r="M55" s="2"/>
-    </row>
-    <row r="56" spans="1:13" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="N55" s="14"/>
+    </row>
+    <row r="56" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A56" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>110</v>
+        <v>168</v>
       </c>
       <c r="C56" s="3">
         <v>6504106383</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="F56" s="8" t="s">
-        <v>151</v>
+        <v>43</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="H56" s="2" t="s">
-        <v>178</v>
+        <v>18</v>
+      </c>
+      <c r="H56" s="11" t="s">
+        <v>169</v>
       </c>
       <c r="I56" s="11" t="s">
-        <v>182</v>
-      </c>
-      <c r="J56" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="K56" s="2"/>
+        <v>20</v>
+      </c>
+      <c r="J56" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K56" s="2" t="s">
+        <v>22</v>
+      </c>
       <c r="L56" s="2"/>
       <c r="M56" s="2"/>
-    </row>
-    <row r="57" spans="1:13" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="N56" s="14"/>
+    </row>
+    <row r="57" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A57" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>111</v>
+        <v>170</v>
       </c>
       <c r="C57" s="3">
         <v>6504106383</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="F57" s="8" t="s">
-        <v>152</v>
+        <v>47</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="H57" s="2" t="s">
-        <v>179</v>
+        <v>18</v>
+      </c>
+      <c r="H57" s="7" t="s">
+        <v>171</v>
       </c>
       <c r="I57" s="11" t="s">
-        <v>182</v>
-      </c>
-      <c r="J57" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="K57" s="2"/>
+        <v>20</v>
+      </c>
+      <c r="J57" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K57" s="2" t="s">
+        <v>172</v>
+      </c>
       <c r="L57" s="2"/>
       <c r="M57" s="2"/>
-    </row>
-    <row r="58" spans="1:13" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="N57" s="14"/>
+    </row>
+    <row r="58" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A58" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>112</v>
+        <v>173</v>
       </c>
       <c r="C58" s="3">
         <v>6504106383</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="F58" s="8" t="s">
-        <v>153</v>
+        <v>50</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="H58" s="7" t="s">
-        <v>180</v>
+        <v>18</v>
+      </c>
+      <c r="H58" s="11" t="s">
+        <v>174</v>
       </c>
       <c r="I58" s="11" t="s">
-        <v>182</v>
-      </c>
-      <c r="J58" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="K58" s="2"/>
+        <v>20</v>
+      </c>
+      <c r="J58" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K58" s="2" t="s">
+        <v>22</v>
+      </c>
       <c r="L58" s="2"/>
       <c r="M58" s="2"/>
-    </row>
-    <row r="59" spans="1:13" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="N58" s="14"/>
+    </row>
+    <row r="59" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A59" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>113</v>
+        <v>175</v>
       </c>
       <c r="C59" s="3">
         <v>6504106383</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="F59" s="8" t="s">
-        <v>154</v>
+        <v>53</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="H59" s="12"/>
+        <v>18</v>
+      </c>
+      <c r="H59" s="7" t="s">
+        <v>176</v>
+      </c>
       <c r="I59" s="11" t="s">
-        <v>182</v>
-      </c>
-      <c r="J59" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="K59" s="2"/>
+        <v>20</v>
+      </c>
+      <c r="J59" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K59" s="2" t="s">
+        <v>177</v>
+      </c>
       <c r="L59" s="2"/>
       <c r="M59" s="2"/>
-    </row>
-    <row r="60" spans="1:13" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="N59" s="14"/>
+    </row>
+    <row r="60" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A60" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>114</v>
+        <v>178</v>
       </c>
       <c r="C60" s="3">
         <v>6504106383</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="F60" s="8" t="s">
-        <v>155</v>
+        <v>57</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="H60" s="2" t="s">
-        <v>85</v>
+        <v>18</v>
+      </c>
+      <c r="H60" s="7" t="s">
+        <v>179</v>
       </c>
       <c r="I60" s="11" t="s">
-        <v>182</v>
-      </c>
-      <c r="J60" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="K60" s="2"/>
+        <v>20</v>
+      </c>
+      <c r="J60" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K60" s="2" t="s">
+        <v>177</v>
+      </c>
       <c r="L60" s="2"/>
       <c r="M60" s="2"/>
-    </row>
-    <row r="61" spans="1:13" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="N60" s="14"/>
+    </row>
+    <row r="61" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A61" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>115</v>
+        <v>180</v>
       </c>
       <c r="C61" s="3">
         <v>6504106383</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="F61" s="8" t="s">
-        <v>156</v>
+        <v>60</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="H61" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="I61" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="J61" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="K61" s="2"/>
+        <v>18</v>
+      </c>
+      <c r="H61" s="12"/>
+      <c r="I61" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="J61" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K61" s="2" t="s">
+        <v>181</v>
+      </c>
       <c r="L61" s="2"/>
       <c r="M61" s="2"/>
-    </row>
-    <row r="62" spans="1:13" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="N61" s="14"/>
+    </row>
+    <row r="62" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A62" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>116</v>
+        <v>182</v>
       </c>
       <c r="C62" s="3">
         <v>6504106383</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="F62" s="8" t="s">
-        <v>157</v>
+        <v>63</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="H62" s="2" t="s">
-        <v>85</v>
+        <v>18</v>
+      </c>
+      <c r="H62" s="11" t="s">
+        <v>19</v>
       </c>
       <c r="I62" s="11" t="s">
-        <v>184</v>
-      </c>
-      <c r="J62" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="K62" s="2"/>
+        <v>20</v>
+      </c>
+      <c r="J62" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K62" s="2" t="s">
+        <v>22</v>
+      </c>
       <c r="L62" s="2"/>
       <c r="M62" s="2"/>
-    </row>
-    <row r="63" spans="1:13" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="N62" s="14"/>
+    </row>
+    <row r="63" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A63" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>117</v>
+        <v>183</v>
       </c>
       <c r="C63" s="3">
         <v>6504106383</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="F63" s="8" t="s">
-        <v>158</v>
+        <v>66</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="H63" s="2" t="s">
-        <v>85</v>
+        <v>18</v>
+      </c>
+      <c r="H63" s="11" t="s">
+        <v>19</v>
       </c>
       <c r="I63" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="J63" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="K63" s="2"/>
+        <v>184</v>
+      </c>
+      <c r="J63" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K63" s="2" t="s">
+        <v>185</v>
+      </c>
       <c r="L63" s="2"/>
       <c r="M63" s="2"/>
-    </row>
-    <row r="64" spans="1:13" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="N63" s="14"/>
+    </row>
+    <row r="64" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A64" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>118</v>
+        <v>186</v>
       </c>
       <c r="C64" s="3">
         <v>6504106383</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="F64" s="8" t="s">
-        <v>159</v>
+        <v>69</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="H64" s="2" t="s">
-        <v>85</v>
+        <v>18</v>
+      </c>
+      <c r="H64" s="11" t="s">
+        <v>19</v>
       </c>
       <c r="I64" s="11" t="s">
-        <v>185</v>
-      </c>
-      <c r="J64" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="K64" s="2"/>
+        <v>187</v>
+      </c>
+      <c r="J64" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K64" s="2" t="s">
+        <v>22</v>
+      </c>
       <c r="L64" s="2"/>
       <c r="M64" s="2"/>
-    </row>
-    <row r="65" spans="1:13" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="N64" s="14"/>
+    </row>
+    <row r="65" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A65" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>119</v>
+        <v>188</v>
       </c>
       <c r="C65" s="3">
         <v>6504106383</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="F65" s="8" t="s">
-        <v>160</v>
+        <v>73</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="H65" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="I65" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="J65" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="K65" s="2"/>
+        <v>18</v>
+      </c>
+      <c r="H65" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="I65" s="11" t="s">
+        <v>189</v>
+      </c>
+      <c r="J65" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K65" s="2" t="s">
+        <v>22</v>
+      </c>
       <c r="L65" s="2"/>
       <c r="M65" s="2"/>
-    </row>
-    <row r="66" spans="1:13" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="N65" s="14"/>
+    </row>
+    <row r="66" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A66" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>120</v>
+        <v>190</v>
       </c>
       <c r="C66" s="3">
         <v>6504106383</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="F66" s="8" t="s">
-        <v>161</v>
+        <v>76</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="H66" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="I66" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="J66" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="K66" s="2"/>
+        <v>18</v>
+      </c>
+      <c r="H66" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="I66" s="11" t="s">
+        <v>191</v>
+      </c>
+      <c r="J66" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K66" s="2" t="s">
+        <v>22</v>
+      </c>
       <c r="L66" s="2"/>
       <c r="M66" s="2"/>
-    </row>
-    <row r="67" spans="1:13" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="N66" s="14"/>
+    </row>
+    <row r="67" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A67" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>121</v>
+        <v>192</v>
       </c>
       <c r="C67" s="3">
         <v>6504106383</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="F67" s="8" t="s">
-        <v>162</v>
+        <v>79</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="H67" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="I67" s="12"/>
-      <c r="J67" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="K67" s="2"/>
+        <v>18</v>
+      </c>
+      <c r="H67" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="I67" s="11" t="s">
+        <v>193</v>
+      </c>
+      <c r="J67" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K67" s="2" t="s">
+        <v>22</v>
+      </c>
       <c r="L67" s="2"/>
       <c r="M67" s="2"/>
-    </row>
-    <row r="68" spans="1:13" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="N67" s="14"/>
+    </row>
+    <row r="68" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A68" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>122</v>
+        <v>194</v>
       </c>
       <c r="C68" s="3">
         <v>6504106383</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="F68" s="8" t="s">
-        <v>163</v>
+        <v>82</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="H68" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="I68" s="11" t="s">
-        <v>182</v>
-      </c>
-      <c r="J68" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="K68" s="2"/>
+        <v>18</v>
+      </c>
+      <c r="H68" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="I68" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="J68" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K68" s="2" t="s">
+        <v>196</v>
+      </c>
       <c r="L68" s="2"/>
       <c r="M68" s="2"/>
-    </row>
-    <row r="69" spans="1:13" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="N68" s="14"/>
+    </row>
+    <row r="69" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A69" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>123</v>
+        <v>197</v>
       </c>
       <c r="C69" s="3">
         <v>6504106383</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="F69" s="8" t="s">
-        <v>164</v>
+        <v>85</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="H69" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="I69" s="11" t="s">
-        <v>182</v>
-      </c>
-      <c r="J69" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="K69" s="2"/>
+        <v>18</v>
+      </c>
+      <c r="H69" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="I69" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="J69" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K69" s="2" t="s">
+        <v>196</v>
+      </c>
       <c r="L69" s="2"/>
       <c r="M69" s="2"/>
-    </row>
-    <row r="70" spans="1:13" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="N69" s="14"/>
+    </row>
+    <row r="70" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A70" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>124</v>
+        <v>199</v>
       </c>
       <c r="C70" s="3">
         <v>6504106383</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="F70" s="8" t="s">
-        <v>165</v>
+        <v>88</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="H70" s="2" t="s">
-        <v>85</v>
+        <v>18</v>
+      </c>
+      <c r="H70" s="11" t="s">
+        <v>19</v>
       </c>
       <c r="I70" s="11" t="s">
-        <v>182</v>
-      </c>
-      <c r="J70" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="K70" s="2"/>
+        <v>20</v>
+      </c>
+      <c r="J70" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K70" s="2" t="s">
+        <v>22</v>
+      </c>
       <c r="L70" s="2"/>
       <c r="M70" s="2"/>
-    </row>
-    <row r="71" spans="1:13" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="N70" s="14"/>
+    </row>
+    <row r="71" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A71" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>125</v>
+        <v>200</v>
       </c>
       <c r="C71" s="3">
         <v>6504106383</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="F71" s="8" t="s">
-        <v>166</v>
+        <v>90</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="H71" s="2" t="s">
-        <v>85</v>
+        <v>18</v>
+      </c>
+      <c r="H71" s="11" t="s">
+        <v>19</v>
       </c>
       <c r="I71" s="11" t="s">
-        <v>182</v>
-      </c>
-      <c r="J71" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="K71" s="2"/>
+        <v>201</v>
+      </c>
+      <c r="J71" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K71" s="2" t="s">
+        <v>22</v>
+      </c>
       <c r="L71" s="2"/>
       <c r="M71" s="2"/>
-    </row>
-    <row r="72" spans="1:13" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="N71" s="14"/>
+    </row>
+    <row r="72" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A72" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>126</v>
+        <v>202</v>
       </c>
       <c r="C72" s="3">
         <v>6504106383</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="F72" s="8" t="s">
-        <v>167</v>
+        <v>93</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="H72" s="2" t="s">
-        <v>85</v>
+        <v>18</v>
+      </c>
+      <c r="H72" s="11" t="s">
+        <v>19</v>
       </c>
       <c r="I72" s="11" t="s">
-        <v>182</v>
-      </c>
-      <c r="J72" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="K72" s="2"/>
+        <v>203</v>
+      </c>
+      <c r="J72" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K72" s="2" t="s">
+        <v>22</v>
+      </c>
       <c r="L72" s="2"/>
       <c r="M72" s="2"/>
-    </row>
-    <row r="73" spans="1:13" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="N72" s="14"/>
+    </row>
+    <row r="73" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A73" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>127</v>
+        <v>204</v>
       </c>
       <c r="C73" s="3">
         <v>6504106383</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="F73" s="8" t="s">
-        <v>168</v>
+        <v>96</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="H73" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="I73" s="11" t="s">
-        <v>182</v>
-      </c>
-      <c r="J73" s="11" t="s">
-        <v>93</v>
-      </c>
-      <c r="K73" s="2"/>
+        <v>18</v>
+      </c>
+      <c r="H73" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="I73" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="J73" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K73" s="2" t="s">
+        <v>206</v>
+      </c>
       <c r="L73" s="2"/>
       <c r="M73" s="2"/>
-    </row>
-    <row r="74" spans="1:13" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="N73" s="14"/>
+    </row>
+    <row r="74" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A74" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>128</v>
+        <v>207</v>
       </c>
       <c r="C74" s="3">
         <v>6504106383</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="F74" s="8" t="s">
-        <v>169</v>
+        <v>99</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="H74" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="I74" s="11" t="s">
-        <v>182</v>
-      </c>
-      <c r="J74" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="K74" s="2"/>
+        <v>18</v>
+      </c>
+      <c r="H74" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="I74" s="12"/>
+      <c r="J74" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K74" s="2" t="s">
+        <v>208</v>
+      </c>
       <c r="L74" s="2"/>
       <c r="M74" s="2"/>
-    </row>
-    <row r="75" spans="1:13" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="N74" s="14"/>
+    </row>
+    <row r="75" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A75" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>129</v>
+        <v>209</v>
       </c>
       <c r="C75" s="3">
         <v>6504106383</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="F75" s="8" t="s">
-        <v>170</v>
+        <v>102</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="H75" s="2" t="s">
-        <v>85</v>
+        <v>18</v>
+      </c>
+      <c r="H75" s="11" t="s">
+        <v>19</v>
       </c>
       <c r="I75" s="11" t="s">
-        <v>182</v>
-      </c>
-      <c r="J75" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="K75" s="2"/>
+        <v>20</v>
+      </c>
+      <c r="J75" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K75" s="2" t="s">
+        <v>22</v>
+      </c>
       <c r="L75" s="2"/>
       <c r="M75" s="2"/>
-    </row>
-    <row r="76" spans="1:13" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="N75" s="14"/>
+    </row>
+    <row r="76" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A76" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>130</v>
+        <v>210</v>
       </c>
       <c r="C76" s="3">
         <v>6504106383</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="F76" s="8" t="s">
-        <v>171</v>
+        <v>105</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="H76" s="2" t="s">
-        <v>85</v>
+        <v>18</v>
+      </c>
+      <c r="H76" s="11" t="s">
+        <v>19</v>
       </c>
       <c r="I76" s="11" t="s">
-        <v>182</v>
-      </c>
-      <c r="J76" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="K76" s="2"/>
+        <v>20</v>
+      </c>
+      <c r="J76" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="K76" s="2" t="s">
+        <v>212</v>
+      </c>
       <c r="L76" s="2"/>
       <c r="M76" s="2"/>
-    </row>
-    <row r="77" spans="1:13" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="N76" s="14"/>
+    </row>
+    <row r="77" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A77" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>131</v>
+        <v>213</v>
       </c>
       <c r="C77" s="3">
         <v>6504106383</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="F77" s="8" t="s">
-        <v>172</v>
+        <v>109</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="H77" s="2" t="s">
-        <v>85</v>
+        <v>18</v>
+      </c>
+      <c r="H77" s="11" t="s">
+        <v>19</v>
       </c>
       <c r="I77" s="11" t="s">
-        <v>182</v>
-      </c>
-      <c r="J77" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="K77" s="2"/>
+        <v>20</v>
+      </c>
+      <c r="J77" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="K77" s="2" t="s">
+        <v>22</v>
+      </c>
       <c r="L77" s="2"/>
       <c r="M77" s="2"/>
-    </row>
-    <row r="78" spans="1:13" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="N77" s="14"/>
+    </row>
+    <row r="78" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A78" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>132</v>
+        <v>215</v>
       </c>
       <c r="C78" s="3">
         <v>6504106383</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="F78" s="8" t="s">
-        <v>173</v>
+        <v>112</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="H78" s="2" t="s">
-        <v>85</v>
+        <v>18</v>
+      </c>
+      <c r="H78" s="11" t="s">
+        <v>19</v>
       </c>
       <c r="I78" s="11" t="s">
-        <v>182</v>
-      </c>
-      <c r="J78" s="11" t="s">
-        <v>97</v>
-      </c>
-      <c r="K78" s="2"/>
+        <v>20</v>
+      </c>
+      <c r="J78" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="K78" s="2" t="s">
+        <v>22</v>
+      </c>
       <c r="L78" s="2"/>
       <c r="M78" s="2"/>
-    </row>
-    <row r="79" spans="1:13" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="N78" s="14"/>
+    </row>
+    <row r="79" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A79" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>133</v>
+        <v>217</v>
       </c>
       <c r="C79" s="3">
         <v>6504106383</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="F79" s="8" t="s">
-        <v>174</v>
+        <v>115</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="H79" s="2" t="s">
-        <v>85</v>
+        <v>18</v>
+      </c>
+      <c r="H79" s="11" t="s">
+        <v>19</v>
       </c>
       <c r="I79" s="11" t="s">
-        <v>182</v>
+        <v>20</v>
       </c>
       <c r="J79" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="K79" s="2"/>
+        <v>218</v>
+      </c>
+      <c r="K79" s="2" t="s">
+        <v>219</v>
+      </c>
       <c r="L79" s="2"/>
       <c r="M79" s="2"/>
-    </row>
-    <row r="80" spans="1:13" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="N79" s="14"/>
+    </row>
+    <row r="80" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A80" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>181</v>
+        <v>220</v>
       </c>
       <c r="C80" s="3">
         <v>6504106383</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="F80" s="8" t="s">
-        <v>174</v>
+        <v>115</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="H80" s="2" t="s">
-        <v>85</v>
+        <v>18</v>
+      </c>
+      <c r="H80" s="11" t="s">
+        <v>19</v>
       </c>
       <c r="I80" s="11" t="s">
-        <v>182</v>
+        <v>20</v>
       </c>
       <c r="J80" s="12"/>
-      <c r="K80" s="2"/>
+      <c r="K80" s="2" t="s">
+        <v>221</v>
+      </c>
       <c r="L80" s="2"/>
       <c r="M80" s="2"/>
+      <c r="N80" s="14"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
--- a/ExcelProject/Register Student.xlsx
+++ b/ExcelProject/Register Student.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jalem\OneDrive\Desktop\Project_Test_Tutors\ExcelProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E94780D3-7B61-437F-B910-5BD7C2410435}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0176DA02-7D8A-4768-B77F-156C89658C52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9855" yWindow="2715" windowWidth="14610" windowHeight="12120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RegisterStudent" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="814" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="956" uniqueCount="287">
   <si>
     <t>Execute</t>
   </si>
@@ -61,7 +61,10 @@
     <t>Result</t>
   </si>
   <si>
-    <t>Y</t>
+    <t>Revise</t>
+  </si>
+  <si>
+    <t>N</t>
   </si>
   <si>
     <t>TC2:01</t>
@@ -88,427 +91,553 @@
     <t>Profile.jpg</t>
   </si>
   <si>
+    <t>ลงทะเบียนสำเร็จ! กรุณาเข้าสู่ระบบ</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>TC2:02</t>
+  </si>
+  <si>
+    <t>##04106383</t>
+  </si>
+  <si>
+    <t>0918079723</t>
+  </si>
+  <si>
+    <t>MJU##04106383</t>
+  </si>
+  <si>
+    <t>กรุณากรอกเป็นตัวเลข 10 ตัวเท่านั้น</t>
+  </si>
+  <si>
+    <t>TC2:03</t>
+  </si>
+  <si>
+    <t>0918079724</t>
+  </si>
+  <si>
+    <t>MJU6504106382</t>
+  </si>
+  <si>
+    <t>TC2:04</t>
+  </si>
+  <si>
+    <t>0918079725</t>
+  </si>
+  <si>
+    <t>MJU650410638</t>
+  </si>
+  <si>
+    <t>TC2:05</t>
+  </si>
+  <si>
+    <t>0918079726</t>
+  </si>
+  <si>
+    <t>MJU65041063833</t>
+  </si>
+  <si>
+    <t>TC2:06</t>
+  </si>
+  <si>
+    <t>0918079727</t>
+  </si>
+  <si>
+    <t>MJU6504106381</t>
+  </si>
+  <si>
+    <t>TC2:07</t>
+  </si>
+  <si>
+    <t>0918079728</t>
+  </si>
+  <si>
+    <t>ไม่สามารถบันทึกได้</t>
+  </si>
+  <si>
+    <t>TC2:08</t>
+  </si>
+  <si>
+    <t>0918079729</t>
+  </si>
+  <si>
+    <t>กรุณากรอกรหัสนักศึกษา</t>
+  </si>
+  <si>
+    <t>TC2:09</t>
+  </si>
+  <si>
+    <t>0918079730</t>
+  </si>
+  <si>
+    <t>MJU6504106384</t>
+  </si>
+  <si>
+    <t>TC2:10</t>
+  </si>
+  <si>
+    <t>ภัทราวุธ</t>
+  </si>
+  <si>
+    <t>0918079731</t>
+  </si>
+  <si>
+    <t>MJU6504106385</t>
+  </si>
+  <si>
+    <t>TC2:11</t>
+  </si>
+  <si>
+    <t>12345#_</t>
+  </si>
+  <si>
+    <t>0918079732</t>
+  </si>
+  <si>
+    <t>MJU6504106386</t>
+  </si>
+  <si>
+    <t>ชื่อต้องเป็นภาษาไทยหรืออังกฤษ ความยาว 2-40 ตัวอักษร</t>
+  </si>
+  <si>
+    <t>TC2:12</t>
+  </si>
+  <si>
+    <t>นพ</t>
+  </si>
+  <si>
+    <t>0918079733</t>
+  </si>
+  <si>
+    <t>MJU6504106387</t>
+  </si>
+  <si>
+    <t>TC2:13</t>
+  </si>
+  <si>
+    <t>เจม</t>
+  </si>
+  <si>
+    <t>0918079734</t>
+  </si>
+  <si>
+    <t>MJU6504106388</t>
+  </si>
+  <si>
+    <t>TC2:14</t>
+  </si>
+  <si>
+    <t>ชื่อนายภัทราวุธเมาใจสุขเกษมเปรมปรียิ่งม</t>
+  </si>
+  <si>
+    <t>0918079735</t>
+  </si>
+  <si>
+    <t>MJU6504106389</t>
+  </si>
+  <si>
+    <t>TC2:15</t>
+  </si>
+  <si>
+    <t>ชื่อนายภัทราวุธเมาใจสุขเกษมเปรมปรียิ่งคุ</t>
+  </si>
+  <si>
+    <t>0918079736</t>
+  </si>
+  <si>
+    <t>MJU6504106390</t>
+  </si>
+  <si>
+    <t>TC2:16</t>
+  </si>
+  <si>
+    <t>น</t>
+  </si>
+  <si>
+    <t>0918079737</t>
+  </si>
+  <si>
+    <t>MJU6504106391</t>
+  </si>
+  <si>
+    <t>TC2:17</t>
+  </si>
+  <si>
+    <t>ภัทราวุธเมาใจสุขเกษมเปรมปรียิ่งคุณวุฒมากล</t>
+  </si>
+  <si>
+    <t>0918079738</t>
+  </si>
+  <si>
+    <t>MJU6504106392</t>
+  </si>
+  <si>
+    <t>TC2:18</t>
+  </si>
+  <si>
+    <t>มานพ</t>
+  </si>
+  <si>
+    <t>0918079739</t>
+  </si>
+  <si>
+    <t>MJU6504106393</t>
+  </si>
+  <si>
+    <t>TC2:19</t>
+  </si>
+  <si>
+    <t>มา นพ</t>
+  </si>
+  <si>
+    <t>0918079740</t>
+  </si>
+  <si>
+    <t>MJU6504106394</t>
+  </si>
+  <si>
+    <t>TC2:20</t>
+  </si>
+  <si>
+    <t>0918079741</t>
+  </si>
+  <si>
+    <t>MJU6504106395</t>
+  </si>
+  <si>
+    <t>กรุณากรอกชื่อ</t>
+  </si>
+  <si>
+    <t>TC2:21</t>
+  </si>
+  <si>
+    <t>0918079742</t>
+  </si>
+  <si>
+    <t>MJU6504106396</t>
+  </si>
+  <si>
+    <t>Fail</t>
+  </si>
+  <si>
+    <t>TC2:22</t>
+  </si>
+  <si>
+    <t>เมาใจ</t>
+  </si>
+  <si>
+    <t>0918079743</t>
+  </si>
+  <si>
+    <t>MJU6504106397</t>
+  </si>
+  <si>
+    <t>TC2:23</t>
+  </si>
+  <si>
+    <t>0918079744</t>
+  </si>
+  <si>
+    <t>MJU6504106398</t>
+  </si>
+  <si>
+    <t>นามสกุลต้องเป็นภาษาไทยหรืออังกฤษ ความยาว 2-85 ตัวอักษร</t>
+  </si>
+  <si>
+    <t>TC2:24</t>
+  </si>
+  <si>
+    <t>จี</t>
+  </si>
+  <si>
+    <t>0918079745</t>
+  </si>
+  <si>
+    <t>MJU6504106399</t>
+  </si>
+  <si>
+    <t>TC2:25</t>
+  </si>
+  <si>
+    <t>จีน</t>
+  </si>
+  <si>
+    <t>0918079746</t>
+  </si>
+  <si>
+    <t>MJU6504106400</t>
+  </si>
+  <si>
+    <t>TC2:26</t>
+  </si>
+  <si>
+    <t>มหาศิริปัญญาโชติวัฒนาสุวรรณ กิตติเพชรบูรณาอุดมเดชสกุลพงศ์ พาณิชย์ศิริวิชยาพรทรัพย์ศิลา</t>
+  </si>
+  <si>
+    <t>0918079747</t>
+  </si>
+  <si>
+    <t>MJU6504106401</t>
+  </si>
+  <si>
+    <t>TC2:27</t>
+  </si>
+  <si>
+    <t>มหาศิริปัญญาโชติวัฒนาสุวรรณ กิตติเพชรบูรณาอุดมเดชสกุลพงศ์ พาณิชย์ศิริวิชยาพรทรัพย์ศิลาก</t>
+  </si>
+  <si>
+    <t>0918079748</t>
+  </si>
+  <si>
+    <t>MJU6504106402</t>
+  </si>
+  <si>
+    <t>TC2:28</t>
+  </si>
+  <si>
+    <t>จ</t>
+  </si>
+  <si>
+    <t>0918079749</t>
+  </si>
+  <si>
+    <t>MJU6504106403</t>
+  </si>
+  <si>
+    <t>TC2:29</t>
+  </si>
+  <si>
+    <t>มหาศิริปัญญาโชติวัฒนาสุวรรณ กิตติเพชรบูรณาอุดมเดชสกุลพงศ์ พาณิชย์ศิริวิชยาพรทรัพย์ศิลากร</t>
+  </si>
+  <si>
+    <t>0918079750</t>
+  </si>
+  <si>
+    <t>MJU6504106404</t>
+  </si>
+  <si>
+    <t>TC2:30</t>
+  </si>
+  <si>
+    <t>จีนดา</t>
+  </si>
+  <si>
+    <t>0918079751</t>
+  </si>
+  <si>
+    <t>MJU6504106405</t>
+  </si>
+  <si>
+    <t>TC2:31</t>
+  </si>
+  <si>
+    <t>จี@</t>
+  </si>
+  <si>
+    <t>0918079752</t>
+  </si>
+  <si>
+    <t>MJU6504106406</t>
+  </si>
+  <si>
+    <t>TC2:32</t>
+  </si>
+  <si>
+    <t>คิม</t>
+  </si>
+  <si>
+    <t>0918079753</t>
+  </si>
+  <si>
+    <t>MJU6504106407</t>
+  </si>
+  <si>
+    <t>TC2:33</t>
+  </si>
+  <si>
+    <t>คิ ม</t>
+  </si>
+  <si>
+    <t>0918079754</t>
+  </si>
+  <si>
+    <t>MJU6504106408</t>
+  </si>
+  <si>
+    <t>TC2:34</t>
+  </si>
+  <si>
+    <t>0918079755</t>
+  </si>
+  <si>
+    <t>MJU6504106409</t>
+  </si>
+  <si>
+    <t>กรุณากรอกนามสกุล</t>
+  </si>
+  <si>
+    <t>TC2:35</t>
+  </si>
+  <si>
+    <t>MJU6504106410</t>
+  </si>
+  <si>
+    <t>TC2:36</t>
+  </si>
+  <si>
+    <t>Eก#9180795</t>
+  </si>
+  <si>
+    <t>MJU6504106411</t>
+  </si>
+  <si>
+    <t>เบอร์โทรต้องขึ้นต้นด้วย 06, 07, 08 หรือ 09 และมี 10 หลักเท่านั้น</t>
+  </si>
+  <si>
+    <t>TC2:37</t>
+  </si>
+  <si>
+    <t>0648581234</t>
+  </si>
+  <si>
+    <t>MJU6504106412</t>
+  </si>
+  <si>
+    <t>TC2:38</t>
+  </si>
+  <si>
+    <t>0748581234</t>
+  </si>
+  <si>
+    <t>MJU6504106413</t>
+  </si>
+  <si>
+    <t>TC2:39</t>
+  </si>
+  <si>
+    <t>0848581234</t>
+  </si>
+  <si>
+    <t>MJU6504106414</t>
+  </si>
+  <si>
+    <t>TC2:40</t>
+  </si>
+  <si>
+    <t>0948581234</t>
+  </si>
+  <si>
+    <t>MJU6504106415</t>
+  </si>
+  <si>
+    <t>TC2:41</t>
+  </si>
+  <si>
+    <t>0719584713</t>
+  </si>
+  <si>
+    <t>MJU6504106416</t>
+  </si>
+  <si>
+    <t>TC2:42</t>
+  </si>
+  <si>
+    <t>0879354033</t>
+  </si>
+  <si>
+    <t>MJU6504106417</t>
+  </si>
+  <si>
+    <t>TC2:43</t>
+  </si>
+  <si>
+    <t>087935403</t>
+  </si>
+  <si>
+    <t>MJU6504106418</t>
+  </si>
+  <si>
+    <t>TC2:44</t>
+  </si>
+  <si>
+    <t>08793540331</t>
+  </si>
+  <si>
+    <t>MJU6504106419</t>
+  </si>
+  <si>
+    <t>TC2:45</t>
+  </si>
+  <si>
+    <t>MJU6504106420</t>
+  </si>
+  <si>
+    <t>TC2:46</t>
+  </si>
+  <si>
+    <t>087 935 4033</t>
+  </si>
+  <si>
+    <t>MJU6504106421</t>
+  </si>
+  <si>
+    <t>เบอร์โทรต้องไม่มีช่องว่าง</t>
+  </si>
+  <si>
+    <t>TC2:47</t>
+  </si>
+  <si>
+    <t>MJU6504106422</t>
+  </si>
+  <si>
+    <t>กรุณากรอกเบอร์โทรศัพท์</t>
+  </si>
+  <si>
+    <t>TC2:48</t>
+  </si>
+  <si>
+    <t>ชั้นปีที่ 1</t>
+  </si>
+  <si>
+    <t>MJU6504106423</t>
+  </si>
+  <si>
     <t>ลงทะเบียนสำเร็จ</t>
   </si>
   <si>
-    <t xml:space="preserve"> | | | |-- เลือกชั้นปี -- | | |</t>
-  </si>
-  <si>
-    <t>Failed</t>
-  </si>
-  <si>
-    <t>TC2:02</t>
-  </si>
-  <si>
-    <t>##04106383</t>
-  </si>
-  <si>
-    <t>0918079723</t>
-  </si>
-  <si>
-    <t>กรุณากรอกข้อมูลเป็นตัวเลขเท่านั้น</t>
-  </si>
-  <si>
-    <t>*กรุณากรอกเป็นตัวเลข 10 ตัวเท่านั้น | | | |-- เลือกชั้นปี -- | | |</t>
-  </si>
-  <si>
-    <t>TC2:03</t>
-  </si>
-  <si>
-    <t>0918079724</t>
-  </si>
-  <si>
-    <t>TC2:04</t>
-  </si>
-  <si>
-    <t>0918079725</t>
-  </si>
-  <si>
-    <t>กรุณากรอกข้อมูลรหัสนักศึกษามีความยาว 10 หลัก</t>
-  </si>
-  <si>
-    <t>TC2:05</t>
-  </si>
-  <si>
-    <t>0918079726</t>
-  </si>
-  <si>
-    <t>TC2:06</t>
-  </si>
-  <si>
-    <t>0918079727</t>
-  </si>
-  <si>
-    <t>TC2:07</t>
-  </si>
-  <si>
-    <t>0918079728</t>
-  </si>
-  <si>
-    <t>มีรหัสนักศึกษาอยู่ในระบบแล้ว</t>
-  </si>
-  <si>
-    <t>TC2:08</t>
-  </si>
-  <si>
-    <t>0918079729</t>
-  </si>
-  <si>
-    <t>กรุณากรอกข้อมูลรหัสนักศึกษา</t>
-  </si>
-  <si>
-    <t>* กรุณากรอกรหัสนักศึกษา | | | |-- เลือกชั้นปี -- | | |</t>
-  </si>
-  <si>
-    <t>TC2:09</t>
-  </si>
-  <si>
-    <t>0918079730</t>
-  </si>
-  <si>
-    <t>TC2:10</t>
-  </si>
-  <si>
-    <t>ภัทราวุธ</t>
-  </si>
-  <si>
-    <t>0918079731</t>
-  </si>
-  <si>
-    <t>TC2:11</t>
-  </si>
-  <si>
-    <t>12345#_</t>
-  </si>
-  <si>
-    <t>0918079732</t>
-  </si>
-  <si>
-    <t>กรุณากรอกข้อมูลเป็นภาษาไทย หรือ ภาษาอังกฤษเท่านั้น</t>
-  </si>
-  <si>
-    <t>TC2:12</t>
-  </si>
-  <si>
-    <t>นพ</t>
-  </si>
-  <si>
-    <t>0918079733</t>
-  </si>
-  <si>
-    <t>TC2:13</t>
-  </si>
-  <si>
-    <t>เจม</t>
-  </si>
-  <si>
-    <t>0918079734</t>
-  </si>
-  <si>
-    <t>TC2:14</t>
-  </si>
-  <si>
-    <t>ชื่อนายภัทราวุธเมาใจสุขเกษมเปรมปรียิ่งม</t>
-  </si>
-  <si>
-    <t>0918079735</t>
-  </si>
-  <si>
-    <t>TC2:15</t>
-  </si>
-  <si>
-    <t>ชื่อนายภัทราวุธเมาใจสุขเกษมเปรมปรียิ่งคุ</t>
-  </si>
-  <si>
-    <t>0918079736</t>
-  </si>
-  <si>
-    <t>TC2:16</t>
-  </si>
-  <si>
-    <t>น</t>
-  </si>
-  <si>
-    <t>0918079737</t>
-  </si>
-  <si>
-    <t>กรุณากรอกชื่อได้ตั้งแต่ 2 และไม่เกิน 40 ตัวอักษร</t>
-  </si>
-  <si>
-    <t>TC2:17</t>
-  </si>
-  <si>
-    <t>ภัทราวุธเมาใจสุขเกษมเปรมปรียิ่งคุณวุฒมากล</t>
-  </si>
-  <si>
-    <t>0918079738</t>
-  </si>
-  <si>
-    <t>TC2:18</t>
-  </si>
-  <si>
-    <t>มานพ</t>
-  </si>
-  <si>
-    <t>0918079739</t>
-  </si>
-  <si>
-    <t>TC2:19</t>
-  </si>
-  <si>
-    <t>มา นพ</t>
-  </si>
-  <si>
-    <t>0918079740</t>
-  </si>
-  <si>
-    <t>ห้ามมีเว้นวรรคระหว่างตัวอักษร</t>
-  </si>
-  <si>
-    <t>TC2:20</t>
-  </si>
-  <si>
-    <t>0918079741</t>
-  </si>
-  <si>
-    <t>กรุณากรอกชื่อ</t>
-  </si>
-  <si>
-    <t>TC2:21</t>
-  </si>
-  <si>
-    <t>0918079742</t>
-  </si>
-  <si>
-    <t>TC2:22</t>
-  </si>
-  <si>
-    <t>เมาใจ</t>
-  </si>
-  <si>
-    <t>0918079743</t>
-  </si>
-  <si>
-    <t>TC2:23</t>
-  </si>
-  <si>
-    <t>0918079744</t>
-  </si>
-  <si>
-    <t>TC2:24</t>
-  </si>
-  <si>
-    <t>จี</t>
-  </si>
-  <si>
-    <t>0918079745</t>
-  </si>
-  <si>
-    <t>TC2:25</t>
-  </si>
-  <si>
-    <t>จีน</t>
-  </si>
-  <si>
-    <t>0918079746</t>
-  </si>
-  <si>
-    <t>TC2:26</t>
-  </si>
-  <si>
-    <t>มหาศิริปัญญาโชติวัฒนาสุวรรณ กิตติเพชรบูรณาอุดมเดชสกุลพงศ์ พาณิชย์ศิริวิชยาพรทรัพย์ศิลา</t>
-  </si>
-  <si>
-    <t>0918079747</t>
-  </si>
-  <si>
-    <t>TC2:27</t>
-  </si>
-  <si>
-    <t>มหาศิริปัญญาโชติวัฒนาสุวรรณ กิตติเพชรบูรณาอุดมเดชสกุลพงศ์ พาณิชย์ศิริวิชยาพรทรัพย์ศิลาก</t>
-  </si>
-  <si>
-    <t>0918079748</t>
-  </si>
-  <si>
-    <t>TC2:28</t>
-  </si>
-  <si>
-    <t>จ</t>
-  </si>
-  <si>
-    <t>0918079749</t>
-  </si>
-  <si>
-    <t>กรุณากรอกนามสกุลตั้งแต่ 2 และไม่เกิน 85 ตัวอักษร</t>
-  </si>
-  <si>
-    <t>TC2:29</t>
-  </si>
-  <si>
-    <t>มหาศิริปัญญาโชติวัฒนาสุวรรณ กิตติเพชรบูรณาอุดมเดชสกุลพงศ์ พาณิชย์ศิริวิชยาพรทรัพย์ศิลากร</t>
-  </si>
-  <si>
-    <t>0918079750</t>
-  </si>
-  <si>
-    <t>TC2:30</t>
-  </si>
-  <si>
-    <t>จีนดา</t>
-  </si>
-  <si>
-    <t>0918079751</t>
-  </si>
-  <si>
-    <t>TC2:31</t>
-  </si>
-  <si>
-    <t>จี@</t>
-  </si>
-  <si>
-    <t>0918079752</t>
-  </si>
-  <si>
-    <t>กรุณากรอกข้อมูลโดยไม่มีอักขระพิเศษหรือเว้นวรรค</t>
-  </si>
-  <si>
-    <t>TC2:32</t>
-  </si>
-  <si>
-    <t>คิม</t>
-  </si>
-  <si>
-    <t>0918079753</t>
-  </si>
-  <si>
-    <t>TC2:33</t>
-  </si>
-  <si>
-    <t>คิ ม</t>
-  </si>
-  <si>
-    <t>0918079754</t>
-  </si>
-  <si>
-    <t>TC2:34</t>
-  </si>
-  <si>
-    <t>0918079755</t>
-  </si>
-  <si>
-    <t>กรุณากรอกนามสกุล</t>
-  </si>
-  <si>
-    <t>TC2:35</t>
-  </si>
-  <si>
-    <t>TC2:36</t>
-  </si>
-  <si>
-    <t>Eก#9180795</t>
-  </si>
-  <si>
-    <t>กรุณากรอกเป็นตัวเลข [0-9] เท่านั้น</t>
-  </si>
-  <si>
-    <t>TC2:37</t>
-  </si>
-  <si>
-    <t>0648581234</t>
-  </si>
-  <si>
-    <t>TC2:38</t>
-  </si>
-  <si>
-    <t>0748581234</t>
-  </si>
-  <si>
-    <t>TC2:39</t>
-  </si>
-  <si>
-    <t>0848581234</t>
-  </si>
-  <si>
-    <t>TC2:40</t>
-  </si>
-  <si>
-    <t>0948581234</t>
-  </si>
-  <si>
-    <t>TC2:41</t>
-  </si>
-  <si>
-    <t>0719584713</t>
-  </si>
-  <si>
-    <t>กรุณากรอกข้อมูลที่ขึ้นต้นด้วย 06 07 08 09</t>
-  </si>
-  <si>
-    <t>TC2:42</t>
-  </si>
-  <si>
-    <t>0879354033</t>
-  </si>
-  <si>
-    <t>TC2:43</t>
-  </si>
-  <si>
-    <t>087935403</t>
-  </si>
-  <si>
-    <t>กรุณากรอกข้อมูลจำนวนตัวเลข 10 หลักเท่านั้น</t>
-  </si>
-  <si>
-    <t>TC2:44</t>
-  </si>
-  <si>
-    <t>08793540331</t>
-  </si>
-  <si>
-    <t>TC2:45</t>
-  </si>
-  <si>
-    <t>TC2:46</t>
-  </si>
-  <si>
-    <t>087 935 4033</t>
-  </si>
-  <si>
-    <t>กรุณากรอกข้อมูลห้ามมีช่องว่างระหว่างตัวเลข</t>
-  </si>
-  <si>
-    <t>TC2:47</t>
-  </si>
-  <si>
-    <t>กรุณากรอกข้อมูลเบอร์โทรศัพท์</t>
-  </si>
-  <si>
-    <t>TC2:48</t>
-  </si>
-  <si>
-    <t>ชั้นปีที่ 1</t>
-  </si>
-  <si>
     <t>TC2:49</t>
   </si>
   <si>
     <t>ชั้นปีที่ 2</t>
   </si>
   <si>
+    <t>MJU6504106424</t>
+  </si>
+  <si>
     <t>TC2:50</t>
   </si>
   <si>
     <t>ชั้นปีที่ 3</t>
   </si>
   <si>
+    <t>MJU6504106425</t>
+  </si>
+  <si>
     <t>TC2:51</t>
   </si>
   <si>
+    <t>MJU6504106426</t>
+  </si>
+  <si>
     <t>TC2:52</t>
   </si>
   <si>
-    <t xml:space="preserve">เลือกชั้นปี </t>
+    <t>เลือกชั้นปี</t>
+  </si>
+  <si>
+    <t>MJU6504106427</t>
   </si>
   <si>
     <t>กรุณาเลือกชั้นปี</t>
@@ -517,6 +646,9 @@
     <t>TC2:53</t>
   </si>
   <si>
+    <t>MJU6504106428</t>
+  </si>
+  <si>
     <t>TC2:54</t>
   </si>
   <si>
@@ -526,6 +658,9 @@
     <t>กรุณากรอกเป็นรูปแบบของอีเมล MJU เท่านั้น เช่น (MJU6504106001@mju.ac.th)</t>
   </si>
   <si>
+    <t>อีเมลก่อน @ ต้องมีความยาว 13 ตัว</t>
+  </si>
+  <si>
     <t>TC2:55</t>
   </si>
   <si>
@@ -541,6 +676,9 @@
     <t>กรุณากรอกโดยห้ามมีช่องว่าง</t>
   </si>
   <si>
+    <t>ห้ามมีช่องว่างในอีเมล</t>
+  </si>
+  <si>
     <t>TC2:57</t>
   </si>
   <si>
@@ -568,93 +706,138 @@
     <t>กรุณากรอกอีเมล์รูปแบบของอีเมล MJU</t>
   </si>
   <si>
+    <t>กรุณากรอกอีเมล</t>
+  </si>
+  <si>
     <t>TC2:61</t>
   </si>
   <si>
+    <t>MJU6504106436</t>
+  </si>
+  <si>
     <t>TC2:62</t>
   </si>
   <si>
+    <t>MJU6504106437</t>
+  </si>
+  <si>
     <t>รหัสผ่าน</t>
   </si>
   <si>
-    <t>กรุณากรอกประกอบด้วยตัวอักษรภาษาอังกฤษหรือตัวเลขรวมอักขระพิเศษ</t>
+    <t>รหัสผ่านอนุญาตเฉพาะ A-Z, a-z, 0-9 และ ! # _ .</t>
   </si>
   <si>
     <t>TC2:63</t>
   </si>
   <si>
+    <t>MJU6504106438</t>
+  </si>
+  <si>
     <t>Jalem_11112</t>
   </si>
   <si>
     <t>TC2:64</t>
   </si>
   <si>
+    <t>MJU6504106439</t>
+  </si>
+  <si>
     <t>Pattara1_</t>
   </si>
   <si>
     <t>TC2:65</t>
   </si>
   <si>
+    <t>MJU6504106440</t>
+  </si>
+  <si>
     <t>Pattarawut_jam1</t>
   </si>
   <si>
     <t>TC2:66</t>
   </si>
   <si>
+    <t>MJU6504106441</t>
+  </si>
+  <si>
     <t>Pattarawut_kub11</t>
   </si>
   <si>
     <t>TC2:67</t>
   </si>
   <si>
+    <t>MJU6504106442</t>
+  </si>
+  <si>
     <t>1Jame##</t>
   </si>
   <si>
-    <t>กรุณากรอกได้ตั้งแต่ 8 - 16 ตัวอักษร</t>
+    <t>รหัสผ่านต้องมีความยาว 8-16 ตัวอักษร</t>
   </si>
   <si>
     <t>TC2:68</t>
   </si>
   <si>
+    <t>MJU6504106443</t>
+  </si>
+  <si>
     <t>Pattarawut_123456</t>
   </si>
   <si>
     <t>TC2:69</t>
   </si>
   <si>
+    <t>MJU6504106444</t>
+  </si>
+  <si>
     <t>TC2:70</t>
   </si>
   <si>
+    <t>MJU6504106445</t>
+  </si>
+  <si>
     <t>Ptt_1234</t>
   </si>
   <si>
     <t>TC2:71</t>
   </si>
   <si>
+    <t>MJU6504106446</t>
+  </si>
+  <si>
     <t>Pattarawut#12345</t>
   </si>
   <si>
     <t>TC2:72</t>
   </si>
   <si>
+    <t>MJU6504106447</t>
+  </si>
+  <si>
     <t>Pattarawut# 1234</t>
   </si>
   <si>
-    <t>กรุณากรอกข้อมูลโดยไม่มีช่องว่างระหว่างตัวอักษร</t>
-  </si>
-  <si>
     <t>TC2:73</t>
   </si>
   <si>
+    <t>MJU6504106448</t>
+  </si>
+  <si>
     <t>กรุณากรอกรหัสผ่าน</t>
   </si>
   <si>
     <t>TC2:74</t>
   </si>
   <si>
+    <t>MJU6504106449</t>
+  </si>
+  <si>
     <t>TC2:75</t>
   </si>
   <si>
+    <t>MJU6504106450</t>
+  </si>
+  <si>
     <t>Profile.docx</t>
   </si>
   <si>
@@ -664,18 +847,27 @@
     <t>TC2:76</t>
   </si>
   <si>
+    <t>MJU6504106451</t>
+  </si>
+  <si>
     <t>Profile1.jpg</t>
   </si>
   <si>
     <t>TC2:77</t>
   </si>
   <si>
+    <t>MJU6504106452</t>
+  </si>
+  <si>
     <t>Profile2.jpg</t>
   </si>
   <si>
     <t>TC2:78</t>
   </si>
   <si>
+    <t>MJU6504106453</t>
+  </si>
+  <si>
     <t>Profile3.jpg</t>
   </si>
   <si>
@@ -685,17 +877,20 @@
     <t>TC2:79</t>
   </si>
   <si>
+    <t>MJU6504106454</t>
+  </si>
+  <si>
     <t>กรุณาแนบรูปภาพ</t>
-  </si>
-  <si>
-    <t>Revise</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="m\J\U"/>
+  </numFmts>
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -712,6 +907,11 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Angsana New"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Angsana New"/>
       <family val="1"/>
     </font>
@@ -769,7 +969,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -790,13 +990,16 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="ปกติ" xfId="0" builtinId="0"/>
@@ -1079,22 +1282,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="N1" sqref="N1:N80"/>
+    <sheetView tabSelected="1" topLeftCell="C46" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H54" sqref="H54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="10.85546875" customWidth="1"/>
-    <col min="3" max="4" width="9.28515625" customWidth="1"/>
+    <col min="3" max="3" width="12" customWidth="1"/>
+    <col min="4" max="4" width="9.28515625" customWidth="1"/>
     <col min="5" max="5" width="8.85546875" customWidth="1"/>
     <col min="6" max="6" width="9.85546875" customWidth="1"/>
     <col min="7" max="7" width="10.5703125" customWidth="1"/>
-    <col min="8" max="8" width="14.140625" customWidth="1"/>
+    <col min="8" max="8" width="19.85546875" customWidth="1"/>
     <col min="9" max="9" width="12.5703125" customWidth="1"/>
     <col min="10" max="10" width="9.5703125" customWidth="1"/>
-    <col min="11" max="11" width="46.28515625" customWidth="1"/>
-    <col min="12" max="12" width="28.28515625" customWidth="1"/>
+    <col min="11" max="11" width="48.140625" customWidth="1"/>
+    <col min="12" max="12" width="41.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -1137,43 +1341,43 @@
       <c r="M1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="13" t="s">
-        <v>222</v>
+      <c r="N1" s="3" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C2" s="3">
         <v>6504106383</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H2" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="I2" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="H2" s="3" t="s">
         <v>20</v>
       </c>
+      <c r="I2" s="10" t="s">
+        <v>21</v>
+      </c>
       <c r="J2" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L2" s="2" t="s">
         <v>23</v>
@@ -1181,11 +1385,11 @@
       <c r="M2" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="N2" s="14"/>
+      <c r="N2" s="12"/>
     </row>
     <row r="3" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>25</v>
@@ -1194,28 +1398,28 @@
         <v>26</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F3" s="8" t="s">
         <v>27</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H3" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="I3" s="11" t="s">
-        <v>20</v>
+        <v>19</v>
+      </c>
+      <c r="H3" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="I3" s="10" t="s">
+        <v>21</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="L3" s="2" t="s">
         <v>29</v>
@@ -1223,41 +1427,41 @@
       <c r="M3" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="N3" s="14"/>
+      <c r="N3" s="12"/>
     </row>
     <row r="4" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>30</v>
       </c>
       <c r="C4" s="3">
-        <v>6504106383</v>
+        <v>6504106382</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F4" s="8" t="s">
         <v>31</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H4" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="I4" s="11" t="s">
-        <v>20</v>
+        <v>19</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="I4" s="10" t="s">
+        <v>21</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L4" s="2" t="s">
         <v>23</v>
@@ -1265,41 +1469,41 @@
       <c r="M4" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="N4" s="14"/>
+      <c r="N4" s="12"/>
     </row>
     <row r="5" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C5" s="4">
         <v>650410638</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H5" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="I5" s="11" t="s">
-        <v>20</v>
+        <v>19</v>
+      </c>
+      <c r="H5" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="I5" s="10" t="s">
+        <v>21</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="L5" s="2" t="s">
         <v>29</v>
@@ -1307,41 +1511,41 @@
       <c r="M5" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="N5" s="14"/>
+      <c r="N5" s="12"/>
     </row>
     <row r="6" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C6" s="4">
         <v>65041063833</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H6" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="I6" s="11" t="s">
-        <v>20</v>
+        <v>19</v>
+      </c>
+      <c r="H6" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="I6" s="10" t="s">
+        <v>21</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="L6" s="2" t="s">
         <v>29</v>
@@ -1349,41 +1553,41 @@
       <c r="M6" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="N6" s="14"/>
+      <c r="N6" s="12"/>
     </row>
     <row r="7" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C7" s="3">
-        <v>6504106383</v>
+        <v>6504106381</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H7" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="I7" s="11" t="s">
-        <v>20</v>
+        <v>19</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="I7" s="10" t="s">
+        <v>21</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L7" s="2" t="s">
         <v>23</v>
@@ -1391,2775 +1595,3059 @@
       <c r="M7" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="N7" s="14"/>
+      <c r="N7" s="12"/>
     </row>
     <row r="8" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C8" s="3">
-        <v>6504106333</v>
+        <v>42</v>
+      </c>
+      <c r="C8" s="4">
+        <v>6504106383</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H8" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="I8" s="11" t="s">
-        <v>20</v>
+        <v>19</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="I8" s="10" t="s">
+        <v>21</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="M8" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="N8" s="14"/>
+      <c r="N8" s="12"/>
     </row>
     <row r="9" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C9" s="5"/>
       <c r="D9" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H9" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="I9" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="H9" s="3" t="s">
         <v>20</v>
       </c>
+      <c r="I9" s="10" t="s">
+        <v>21</v>
+      </c>
       <c r="J9" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="M9" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="N9" s="14"/>
+      <c r="N9" s="12"/>
     </row>
     <row r="10" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C10" s="3">
-        <v>6504106383</v>
+        <v>6504106384</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H10" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="I10" s="11" t="s">
-        <v>20</v>
+        <v>19</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="I10" s="10" t="s">
+        <v>21</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="L10" s="2"/>
-      <c r="M10" s="2"/>
-      <c r="N10" s="14"/>
+        <v>23</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M10" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="N10" s="12"/>
     </row>
     <row r="11" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="C11" s="3">
-        <v>6504106383</v>
+        <v>6504106385</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H11" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="I11" s="11" t="s">
-        <v>20</v>
+        <v>19</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="I11" s="10" t="s">
+        <v>21</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="L11" s="2"/>
-      <c r="M11" s="2"/>
-      <c r="N11" s="14"/>
+        <v>23</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M11" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="N11" s="12"/>
     </row>
     <row r="12" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="C12" s="3">
-        <v>6504106383</v>
+        <v>6504106386</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H12" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="I12" s="11" t="s">
-        <v>20</v>
+        <v>19</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="I12" s="10" t="s">
+        <v>21</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="L12" s="2"/>
-      <c r="M12" s="2"/>
-      <c r="N12" s="14"/>
+        <v>59</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="M12" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="N12" s="12"/>
     </row>
     <row r="13" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="C13" s="3">
-        <v>6504106383</v>
+        <v>6504106387</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H13" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="I13" s="11" t="s">
-        <v>20</v>
+        <v>19</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="I13" s="10" t="s">
+        <v>21</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="L13" s="2"/>
-      <c r="M13" s="2"/>
-      <c r="N13" s="14"/>
+        <v>23</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M13" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="N13" s="12"/>
     </row>
     <row r="14" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="C14" s="3">
-        <v>6504106383</v>
+        <v>6504106388</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H14" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="I14" s="11" t="s">
-        <v>20</v>
+        <v>19</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="I14" s="10" t="s">
+        <v>21</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="L14" s="2"/>
-      <c r="M14" s="2"/>
-      <c r="N14" s="14"/>
+        <v>23</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M14" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="N14" s="12"/>
     </row>
     <row r="15" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="C15" s="3">
-        <v>6504106383</v>
+        <v>6504106389</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H15" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="I15" s="11" t="s">
-        <v>20</v>
+        <v>19</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="I15" s="10" t="s">
+        <v>21</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="L15" s="2"/>
-      <c r="M15" s="2"/>
-      <c r="N15" s="14"/>
+        <v>23</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M15" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="N15" s="12"/>
     </row>
     <row r="16" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="C16" s="3">
-        <v>6504106383</v>
+        <v>6504106390</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H16" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="I16" s="11" t="s">
-        <v>20</v>
+        <v>19</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="I16" s="10" t="s">
+        <v>21</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="L16" s="2"/>
-      <c r="M16" s="2"/>
-      <c r="N16" s="14"/>
+        <v>23</v>
+      </c>
+      <c r="L16" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M16" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="N16" s="12"/>
     </row>
     <row r="17" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="C17" s="3">
-        <v>6504106383</v>
+        <v>6504106391</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F17" s="8" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H17" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="I17" s="11" t="s">
-        <v>20</v>
+        <v>19</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="I17" s="10" t="s">
+        <v>21</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="L17" s="2"/>
-      <c r="M17" s="2"/>
-      <c r="N17" s="14"/>
+        <v>59</v>
+      </c>
+      <c r="L17" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="M17" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="N17" s="12"/>
     </row>
     <row r="18" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="C18" s="3">
-        <v>6504106383</v>
+        <v>6504106392</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F18" s="8" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H18" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="I18" s="11" t="s">
-        <v>20</v>
+        <v>19</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="I18" s="10" t="s">
+        <v>21</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="L18" s="2"/>
-      <c r="M18" s="2"/>
-      <c r="N18" s="14"/>
+        <v>59</v>
+      </c>
+      <c r="L18" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="M18" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="N18" s="12"/>
     </row>
     <row r="19" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="C19" s="3">
-        <v>6504106383</v>
+        <v>6504106393</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H19" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="I19" s="11" t="s">
-        <v>20</v>
+        <v>19</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="I19" s="10" t="s">
+        <v>21</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="L19" s="2"/>
-      <c r="M19" s="2"/>
-      <c r="N19" s="14"/>
+        <v>23</v>
+      </c>
+      <c r="L19" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M19" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="N19" s="12"/>
     </row>
     <row r="20" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="C20" s="3">
-        <v>6504106383</v>
+        <v>6504106394</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F20" s="8" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H20" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="I20" s="11" t="s">
-        <v>20</v>
+        <v>19</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="I20" s="10" t="s">
+        <v>21</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="L20" s="2"/>
-      <c r="M20" s="2"/>
-      <c r="N20" s="14"/>
+        <v>23</v>
+      </c>
+      <c r="L20" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M20" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="N20" s="12"/>
     </row>
     <row r="21" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="C21" s="3">
-        <v>6504106383</v>
+        <v>6504106395</v>
       </c>
       <c r="D21" s="5"/>
       <c r="E21" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F21" s="8" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H21" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="I21" s="11" t="s">
-        <v>20</v>
+        <v>19</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="I21" s="10" t="s">
+        <v>21</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="L21" s="2"/>
-      <c r="M21" s="2"/>
-      <c r="N21" s="14"/>
+        <v>95</v>
+      </c>
+      <c r="L21" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="M21" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="N21" s="12"/>
     </row>
     <row r="22" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="C22" s="3">
-        <v>6504106383</v>
+        <v>6504106396</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F22" s="8" t="s">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H22" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="I22" s="11" t="s">
-        <v>20</v>
+        <v>19</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="I22" s="10" t="s">
+        <v>21</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="L22" s="2"/>
-      <c r="M22" s="2"/>
-      <c r="N22" s="14"/>
+        <v>23</v>
+      </c>
+      <c r="L22" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M22" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="N22" s="12"/>
     </row>
     <row r="23" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>86</v>
+        <v>100</v>
       </c>
       <c r="C23" s="3">
-        <v>6504106383</v>
+        <v>6504106397</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>87</v>
+        <v>101</v>
       </c>
       <c r="F23" s="8" t="s">
-        <v>88</v>
+        <v>102</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H23" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="I23" s="11" t="s">
-        <v>20</v>
+        <v>19</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="I23" s="10" t="s">
+        <v>21</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="L23" s="2"/>
-      <c r="M23" s="2"/>
-      <c r="N23" s="14"/>
+        <v>23</v>
+      </c>
+      <c r="L23" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M23" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="N23" s="12"/>
     </row>
     <row r="24" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>89</v>
+        <v>104</v>
       </c>
       <c r="C24" s="3">
-        <v>6504106383</v>
+        <v>6504106398</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E24" s="4">
         <v>1234</v>
       </c>
       <c r="F24" s="8" t="s">
-        <v>90</v>
+        <v>105</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H24" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="I24" s="11" t="s">
-        <v>20</v>
+        <v>19</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="I24" s="10" t="s">
+        <v>21</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K24" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="L24" s="2"/>
-      <c r="M24" s="2"/>
-      <c r="N24" s="14"/>
+        <v>107</v>
+      </c>
+      <c r="L24" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="M24" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="N24" s="12"/>
     </row>
     <row r="25" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>91</v>
+        <v>108</v>
       </c>
       <c r="C25" s="3">
-        <v>6504106383</v>
+        <v>6504106399</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>92</v>
+        <v>109</v>
       </c>
       <c r="F25" s="8" t="s">
-        <v>93</v>
+        <v>110</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H25" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="I25" s="11" t="s">
-        <v>20</v>
+        <v>19</v>
+      </c>
+      <c r="H25" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="I25" s="10" t="s">
+        <v>21</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K25" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="L25" s="2"/>
-      <c r="M25" s="2"/>
-      <c r="N25" s="14"/>
+        <v>23</v>
+      </c>
+      <c r="L25" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M25" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="N25" s="12"/>
     </row>
     <row r="26" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>94</v>
+        <v>112</v>
       </c>
       <c r="C26" s="3">
-        <v>6504106383</v>
+        <v>6504106400</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>95</v>
+        <v>113</v>
       </c>
       <c r="F26" s="8" t="s">
-        <v>96</v>
+        <v>114</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H26" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="I26" s="11" t="s">
-        <v>20</v>
+        <v>19</v>
+      </c>
+      <c r="H26" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="I26" s="10" t="s">
+        <v>21</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K26" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="L26" s="2"/>
-      <c r="M26" s="2"/>
-      <c r="N26" s="14"/>
+        <v>23</v>
+      </c>
+      <c r="L26" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M26" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="N26" s="12"/>
     </row>
     <row r="27" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>97</v>
+        <v>116</v>
       </c>
       <c r="C27" s="3">
-        <v>6504106383</v>
+        <v>6504106401</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>98</v>
+        <v>117</v>
       </c>
       <c r="F27" s="8" t="s">
-        <v>99</v>
+        <v>118</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H27" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="I27" s="11" t="s">
-        <v>20</v>
+        <v>19</v>
+      </c>
+      <c r="H27" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="I27" s="10" t="s">
+        <v>21</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K27" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="L27" s="2"/>
-      <c r="M27" s="2"/>
-      <c r="N27" s="14"/>
+        <v>107</v>
+      </c>
+      <c r="L27" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="M27" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="N27" s="12"/>
     </row>
     <row r="28" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="C28" s="3">
-        <v>6504106383</v>
+        <v>6504106402</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>101</v>
+        <v>121</v>
       </c>
       <c r="F28" s="8" t="s">
-        <v>102</v>
+        <v>122</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H28" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="I28" s="11" t="s">
-        <v>20</v>
+        <v>19</v>
+      </c>
+      <c r="H28" s="15" t="s">
+        <v>123</v>
+      </c>
+      <c r="I28" s="10" t="s">
+        <v>21</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K28" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="L28" s="2"/>
-      <c r="M28" s="2"/>
-      <c r="N28" s="14"/>
+        <v>107</v>
+      </c>
+      <c r="L28" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="M28" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="N28" s="12"/>
     </row>
     <row r="29" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>103</v>
+        <v>124</v>
       </c>
       <c r="C29" s="3">
-        <v>6504106383</v>
+        <v>6504106403</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E29" s="6" t="s">
-        <v>104</v>
+        <v>125</v>
       </c>
       <c r="F29" s="8" t="s">
-        <v>105</v>
+        <v>126</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H29" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="I29" s="11" t="s">
-        <v>20</v>
+        <v>19</v>
+      </c>
+      <c r="H29" s="15" t="s">
+        <v>127</v>
+      </c>
+      <c r="I29" s="10" t="s">
+        <v>21</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K29" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="L29" s="2"/>
-      <c r="M29" s="2"/>
-      <c r="N29" s="14"/>
+        <v>107</v>
+      </c>
+      <c r="L29" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="M29" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="N29" s="12"/>
     </row>
     <row r="30" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B30" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C30" s="3">
+        <v>6504106404</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E30" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="F30" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H30" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="I30" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="J30" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K30" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="C30" s="3">
-        <v>6504106383</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E30" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="F30" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="G30" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H30" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="I30" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="J30" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="K30" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="L30" s="2"/>
-      <c r="M30" s="2"/>
-      <c r="N30" s="14"/>
+      <c r="L30" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="M30" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="N30" s="12"/>
     </row>
     <row r="31" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>110</v>
+        <v>132</v>
       </c>
       <c r="C31" s="3">
-        <v>6504106383</v>
+        <v>6504106405</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>111</v>
+        <v>133</v>
       </c>
       <c r="F31" s="8" t="s">
-        <v>112</v>
+        <v>134</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H31" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="I31" s="11" t="s">
-        <v>20</v>
+        <v>19</v>
+      </c>
+      <c r="H31" s="15" t="s">
+        <v>135</v>
+      </c>
+      <c r="I31" s="10" t="s">
+        <v>21</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K31" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="L31" s="2"/>
-      <c r="M31" s="2"/>
-      <c r="N31" s="14"/>
+        <v>23</v>
+      </c>
+      <c r="L31" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M31" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="N31" s="12"/>
     </row>
     <row r="32" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>113</v>
+        <v>136</v>
       </c>
       <c r="C32" s="3">
-        <v>6504106383</v>
+        <v>6504106406</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E32" s="6" t="s">
-        <v>114</v>
+        <v>137</v>
       </c>
       <c r="F32" s="8" t="s">
-        <v>115</v>
+        <v>138</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H32" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="I32" s="11" t="s">
-        <v>20</v>
+        <v>19</v>
+      </c>
+      <c r="H32" s="15" t="s">
+        <v>139</v>
+      </c>
+      <c r="I32" s="10" t="s">
+        <v>21</v>
       </c>
       <c r="J32" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K32" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="L32" s="2"/>
-      <c r="M32" s="2"/>
-      <c r="N32" s="14"/>
+        <v>107</v>
+      </c>
+      <c r="L32" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="M32" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="N32" s="12"/>
     </row>
     <row r="33" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>117</v>
+        <v>140</v>
       </c>
       <c r="C33" s="3">
-        <v>6504106383</v>
+        <v>6504106407</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>118</v>
+        <v>141</v>
       </c>
       <c r="F33" s="8" t="s">
-        <v>119</v>
+        <v>142</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H33" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="I33" s="11" t="s">
-        <v>20</v>
+        <v>19</v>
+      </c>
+      <c r="H33" s="15" t="s">
+        <v>143</v>
+      </c>
+      <c r="I33" s="10" t="s">
+        <v>21</v>
       </c>
       <c r="J33" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K33" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="L33" s="2"/>
-      <c r="M33" s="2"/>
-      <c r="N33" s="14"/>
+        <v>23</v>
+      </c>
+      <c r="L33" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M33" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="N33" s="12"/>
     </row>
     <row r="34" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>120</v>
+        <v>144</v>
       </c>
       <c r="C34" s="3">
-        <v>6504106383</v>
+        <v>6504106408</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E34" s="6" t="s">
-        <v>121</v>
+        <v>145</v>
       </c>
       <c r="F34" s="8" t="s">
-        <v>122</v>
+        <v>146</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H34" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="I34" s="11" t="s">
-        <v>20</v>
+        <v>19</v>
+      </c>
+      <c r="H34" s="15" t="s">
+        <v>147</v>
+      </c>
+      <c r="I34" s="10" t="s">
+        <v>21</v>
       </c>
       <c r="J34" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K34" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="L34" s="2"/>
-      <c r="M34" s="2"/>
-      <c r="N34" s="14"/>
+        <v>23</v>
+      </c>
+      <c r="L34" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M34" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="N34" s="12"/>
     </row>
     <row r="35" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>123</v>
+        <v>148</v>
       </c>
       <c r="C35" s="3">
-        <v>6504106383</v>
+        <v>6504106409</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E35" s="5"/>
       <c r="F35" s="8" t="s">
-        <v>124</v>
+        <v>149</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H35" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="I35" s="11" t="s">
-        <v>20</v>
+        <v>19</v>
+      </c>
+      <c r="H35" s="15" t="s">
+        <v>150</v>
+      </c>
+      <c r="I35" s="10" t="s">
+        <v>21</v>
       </c>
       <c r="J35" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K35" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="L35" s="2"/>
-      <c r="M35" s="2"/>
-      <c r="N35" s="14"/>
+        <v>151</v>
+      </c>
+      <c r="L35" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="M35" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="N35" s="12"/>
     </row>
     <row r="36" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>126</v>
+        <v>152</v>
       </c>
       <c r="C36" s="3">
-        <v>6504106383</v>
+        <v>6504106410</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F36" s="8" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H36" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="I36" s="11" t="s">
-        <v>20</v>
+        <v>19</v>
+      </c>
+      <c r="H36" s="15" t="s">
+        <v>153</v>
+      </c>
+      <c r="I36" s="10" t="s">
+        <v>21</v>
       </c>
       <c r="J36" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K36" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="L36" s="2"/>
-      <c r="M36" s="2"/>
-      <c r="N36" s="14"/>
+        <v>23</v>
+      </c>
+      <c r="L36" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M36" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="N36" s="12"/>
     </row>
     <row r="37" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>127</v>
+        <v>154</v>
       </c>
       <c r="C37" s="3">
-        <v>6504106383</v>
+        <v>6504106411</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F37" s="9" t="s">
-        <v>128</v>
+        <v>155</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H37" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="I37" s="11" t="s">
-        <v>20</v>
+        <v>19</v>
+      </c>
+      <c r="H37" s="15" t="s">
+        <v>156</v>
+      </c>
+      <c r="I37" s="10" t="s">
+        <v>21</v>
       </c>
       <c r="J37" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K37" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="L37" s="2"/>
-      <c r="M37" s="2"/>
-      <c r="N37" s="14"/>
+        <v>157</v>
+      </c>
+      <c r="L37" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="M37" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="N37" s="12"/>
     </row>
     <row r="38" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>130</v>
+        <v>158</v>
       </c>
       <c r="C38" s="3">
-        <v>6504106383</v>
+        <v>6504106412</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F38" s="8" t="s">
-        <v>131</v>
+        <v>159</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H38" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="I38" s="11" t="s">
-        <v>20</v>
+        <v>19</v>
+      </c>
+      <c r="H38" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="I38" s="10" t="s">
+        <v>21</v>
       </c>
       <c r="J38" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K38" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="L38" s="2"/>
-      <c r="M38" s="2"/>
-      <c r="N38" s="14"/>
+        <v>23</v>
+      </c>
+      <c r="L38" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M38" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="N38" s="12"/>
     </row>
     <row r="39" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>132</v>
+        <v>161</v>
       </c>
       <c r="C39" s="3">
-        <v>6504106383</v>
+        <v>6504106413</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F39" s="8" t="s">
-        <v>133</v>
+        <v>162</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H39" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="I39" s="11" t="s">
-        <v>20</v>
+        <v>19</v>
+      </c>
+      <c r="H39" s="15" t="s">
+        <v>163</v>
+      </c>
+      <c r="I39" s="10" t="s">
+        <v>21</v>
       </c>
       <c r="J39" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K39" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="L39" s="2"/>
-      <c r="M39" s="2"/>
-      <c r="N39" s="14"/>
+        <v>23</v>
+      </c>
+      <c r="L39" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M39" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="N39" s="12"/>
     </row>
     <row r="40" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>134</v>
+        <v>164</v>
       </c>
       <c r="C40" s="3">
-        <v>6504106383</v>
+        <v>6504106414</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F40" s="8" t="s">
-        <v>135</v>
+        <v>165</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H40" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="I40" s="11" t="s">
-        <v>20</v>
+        <v>19</v>
+      </c>
+      <c r="H40" s="15" t="s">
+        <v>166</v>
+      </c>
+      <c r="I40" s="10" t="s">
+        <v>21</v>
       </c>
       <c r="J40" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K40" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="L40" s="2"/>
-      <c r="M40" s="2"/>
-      <c r="N40" s="14"/>
+        <v>23</v>
+      </c>
+      <c r="L40" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M40" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="N40" s="12"/>
     </row>
     <row r="41" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A41" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>136</v>
+        <v>167</v>
       </c>
       <c r="C41" s="3">
-        <v>6504106383</v>
+        <v>6504106415</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F41" s="8" t="s">
-        <v>137</v>
+        <v>168</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H41" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="I41" s="11" t="s">
-        <v>20</v>
+        <v>19</v>
+      </c>
+      <c r="H41" s="15" t="s">
+        <v>169</v>
+      </c>
+      <c r="I41" s="10" t="s">
+        <v>21</v>
       </c>
       <c r="J41" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K41" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="L41" s="2"/>
-      <c r="M41" s="2"/>
-      <c r="N41" s="14"/>
+        <v>23</v>
+      </c>
+      <c r="L41" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M41" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="N41" s="12"/>
     </row>
     <row r="42" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A42" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>138</v>
+        <v>170</v>
       </c>
       <c r="C42" s="3">
-        <v>6504106383</v>
+        <v>6504106416</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F42" s="9" t="s">
-        <v>139</v>
+        <v>171</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H42" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="I42" s="11" t="s">
-        <v>20</v>
+        <v>19</v>
+      </c>
+      <c r="H42" s="15" t="s">
+        <v>172</v>
+      </c>
+      <c r="I42" s="10" t="s">
+        <v>21</v>
       </c>
       <c r="J42" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K42" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="L42" s="2"/>
-      <c r="M42" s="2"/>
-      <c r="N42" s="14"/>
+        <v>23</v>
+      </c>
+      <c r="L42" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M42" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="N42" s="12"/>
     </row>
     <row r="43" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A43" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>141</v>
+        <v>173</v>
       </c>
       <c r="C43" s="3">
-        <v>6504106383</v>
+        <v>6504106417</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F43" s="8" t="s">
-        <v>142</v>
+        <v>174</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H43" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="I43" s="11" t="s">
-        <v>20</v>
+        <v>19</v>
+      </c>
+      <c r="H43" s="15" t="s">
+        <v>175</v>
+      </c>
+      <c r="I43" s="10" t="s">
+        <v>21</v>
       </c>
       <c r="J43" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K43" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="L43" s="2"/>
-      <c r="M43" s="2"/>
-      <c r="N43" s="14"/>
+        <v>23</v>
+      </c>
+      <c r="L43" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M43" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="N43" s="12"/>
     </row>
     <row r="44" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A44" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>143</v>
+        <v>176</v>
       </c>
       <c r="C44" s="3">
-        <v>6504106383</v>
+        <v>6504106418</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F44" s="9" t="s">
-        <v>144</v>
+        <v>177</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H44" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="I44" s="11" t="s">
-        <v>20</v>
+        <v>19</v>
+      </c>
+      <c r="H44" s="15" t="s">
+        <v>178</v>
+      </c>
+      <c r="I44" s="10" t="s">
+        <v>21</v>
       </c>
       <c r="J44" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K44" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="L44" s="2"/>
-      <c r="M44" s="2"/>
-      <c r="N44" s="14"/>
+        <v>157</v>
+      </c>
+      <c r="L44" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="M44" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="N44" s="12"/>
     </row>
     <row r="45" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A45" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>146</v>
+        <v>179</v>
       </c>
       <c r="C45" s="3">
-        <v>6504106383</v>
+        <v>6504106419</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F45" s="9" t="s">
-        <v>147</v>
+        <v>180</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H45" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="I45" s="11" t="s">
-        <v>20</v>
+        <v>19</v>
+      </c>
+      <c r="H45" s="15" t="s">
+        <v>181</v>
+      </c>
+      <c r="I45" s="10" t="s">
+        <v>21</v>
       </c>
       <c r="J45" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K45" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="L45" s="2"/>
-      <c r="M45" s="2"/>
-      <c r="N45" s="14"/>
+        <v>157</v>
+      </c>
+      <c r="L45" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="M45" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="N45" s="12"/>
     </row>
     <row r="46" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>148</v>
+        <v>182</v>
       </c>
       <c r="C46" s="3">
-        <v>6504106383</v>
+        <v>6504106420</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F46" s="8" t="s">
-        <v>142</v>
+        <v>174</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H46" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="I46" s="11" t="s">
-        <v>20</v>
+        <v>19</v>
+      </c>
+      <c r="H46" s="15" t="s">
+        <v>183</v>
+      </c>
+      <c r="I46" s="10" t="s">
+        <v>21</v>
       </c>
       <c r="J46" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K46" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="L46" s="2"/>
-      <c r="M46" s="2"/>
-      <c r="N46" s="14"/>
+        <v>23</v>
+      </c>
+      <c r="L46" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M46" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="N46" s="12"/>
     </row>
     <row r="47" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A47" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>149</v>
+        <v>184</v>
       </c>
       <c r="C47" s="3">
-        <v>6504106383</v>
+        <v>6504106421</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F47" s="10" t="s">
-        <v>150</v>
+        <v>17</v>
+      </c>
+      <c r="F47" s="13" t="s">
+        <v>185</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H47" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="I47" s="11" t="s">
-        <v>20</v>
+        <v>19</v>
+      </c>
+      <c r="H47" s="15" t="s">
+        <v>186</v>
+      </c>
+      <c r="I47" s="10" t="s">
+        <v>21</v>
       </c>
       <c r="J47" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K47" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="L47" s="2"/>
-      <c r="M47" s="2"/>
-      <c r="N47" s="14"/>
+        <v>187</v>
+      </c>
+      <c r="L47" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="M47" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="N47" s="12"/>
     </row>
     <row r="48" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A48" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>152</v>
+        <v>188</v>
       </c>
       <c r="C48" s="3">
-        <v>6504106383</v>
+        <v>6504106422</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F48" s="5"/>
       <c r="G48" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H48" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="I48" s="11" t="s">
-        <v>20</v>
+        <v>19</v>
+      </c>
+      <c r="H48" s="15" t="s">
+        <v>189</v>
+      </c>
+      <c r="I48" s="10" t="s">
+        <v>21</v>
       </c>
       <c r="J48" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K48" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="L48" s="2"/>
-      <c r="M48" s="2"/>
-      <c r="N48" s="14"/>
+        <v>190</v>
+      </c>
+      <c r="L48" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="M48" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="N48" s="12"/>
     </row>
     <row r="49" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A49" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>154</v>
+        <v>191</v>
       </c>
       <c r="C49" s="3">
-        <v>6504106383</v>
+        <v>6504106423</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F49" s="8" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="H49" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="I49" s="11" t="s">
-        <v>20</v>
+        <v>192</v>
+      </c>
+      <c r="H49" s="15" t="s">
+        <v>193</v>
+      </c>
+      <c r="I49" s="10" t="s">
+        <v>21</v>
       </c>
       <c r="J49" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K49" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="L49" s="2"/>
-      <c r="M49" s="2"/>
-      <c r="N49" s="14"/>
+        <v>194</v>
+      </c>
+      <c r="L49" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M49" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="N49" s="12"/>
     </row>
     <row r="50" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A50" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>156</v>
+        <v>195</v>
       </c>
       <c r="C50" s="3">
-        <v>6504106383</v>
+        <v>6504106424</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F50" s="8" t="s">
         <v>27</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="H50" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="I50" s="11" t="s">
-        <v>20</v>
+        <v>196</v>
+      </c>
+      <c r="H50" s="15" t="s">
+        <v>197</v>
+      </c>
+      <c r="I50" s="10" t="s">
+        <v>21</v>
       </c>
       <c r="J50" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K50" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="L50" s="2"/>
-      <c r="M50" s="2"/>
-      <c r="N50" s="14"/>
+        <v>194</v>
+      </c>
+      <c r="L50" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M50" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="N50" s="12"/>
     </row>
     <row r="51" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A51" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>158</v>
+        <v>198</v>
       </c>
       <c r="C51" s="3">
-        <v>6504106383</v>
+        <v>6504106425</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F51" s="8" t="s">
         <v>31</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="H51" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="I51" s="11" t="s">
-        <v>20</v>
+        <v>199</v>
+      </c>
+      <c r="H51" s="15" t="s">
+        <v>200</v>
+      </c>
+      <c r="I51" s="10" t="s">
+        <v>21</v>
       </c>
       <c r="J51" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K51" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="L51" s="2"/>
-      <c r="M51" s="2"/>
-      <c r="N51" s="14"/>
+        <v>194</v>
+      </c>
+      <c r="L51" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M51" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="N51" s="12"/>
     </row>
     <row r="52" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A52" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>160</v>
+        <v>201</v>
       </c>
       <c r="C52" s="3">
-        <v>6504106383</v>
+        <v>6504106426</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F52" s="8" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H52" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="I52" s="11" t="s">
-        <v>20</v>
+        <v>19</v>
+      </c>
+      <c r="H52" s="15" t="s">
+        <v>202</v>
+      </c>
+      <c r="I52" s="10" t="s">
+        <v>21</v>
       </c>
       <c r="J52" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K52" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="L52" s="2"/>
-      <c r="M52" s="2"/>
-      <c r="N52" s="14"/>
+        <v>194</v>
+      </c>
+      <c r="L52" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M52" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="N52" s="12"/>
     </row>
     <row r="53" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A53" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>161</v>
+        <v>203</v>
       </c>
       <c r="C53" s="3">
-        <v>6504106383</v>
+        <v>6504106427</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F53" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="G53" s="6" t="s">
-        <v>162</v>
-      </c>
-      <c r="H53" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="I53" s="11" t="s">
-        <v>20</v>
+        <v>37</v>
+      </c>
+      <c r="G53" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="H53" s="15" t="s">
+        <v>205</v>
+      </c>
+      <c r="I53" s="10" t="s">
+        <v>21</v>
       </c>
       <c r="J53" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K53" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="L53" s="2"/>
-      <c r="M53" s="2"/>
-      <c r="N53" s="14"/>
+        <v>206</v>
+      </c>
+      <c r="L53" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="M53" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="N53" s="12"/>
     </row>
     <row r="54" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A54" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>164</v>
+        <v>207</v>
       </c>
       <c r="C54" s="3">
-        <v>6504106383</v>
+        <v>6504106428</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F54" s="8" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H54" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="I54" s="11" t="s">
-        <v>20</v>
+        <v>19</v>
+      </c>
+      <c r="H54" s="15" t="s">
+        <v>208</v>
+      </c>
+      <c r="I54" s="10" t="s">
+        <v>21</v>
       </c>
       <c r="J54" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K54" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="L54" s="2"/>
-      <c r="M54" s="2"/>
-      <c r="N54" s="14"/>
+        <v>194</v>
+      </c>
+      <c r="L54" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M54" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="N54" s="12"/>
     </row>
     <row r="55" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A55" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>165</v>
+        <v>209</v>
       </c>
       <c r="C55" s="3">
-        <v>6504106383</v>
+        <v>6504106429</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F55" s="8" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H55" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="I55" s="11" t="s">
-        <v>20</v>
+        <v>210</v>
+      </c>
+      <c r="I55" s="10" t="s">
+        <v>21</v>
       </c>
       <c r="J55" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K55" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="L55" s="2"/>
-      <c r="M55" s="2"/>
-      <c r="N55" s="14"/>
+        <v>211</v>
+      </c>
+      <c r="L55" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="M55" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="N55" s="12"/>
     </row>
     <row r="56" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A56" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>168</v>
+        <v>213</v>
       </c>
       <c r="C56" s="3">
-        <v>6504106383</v>
+        <v>6504106430</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F56" s="8" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H56" s="11" t="s">
-        <v>169</v>
-      </c>
-      <c r="I56" s="11" t="s">
-        <v>20</v>
+        <v>19</v>
+      </c>
+      <c r="H56" s="10" t="s">
+        <v>214</v>
+      </c>
+      <c r="I56" s="10" t="s">
+        <v>21</v>
       </c>
       <c r="J56" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K56" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="L56" s="2"/>
-      <c r="M56" s="2"/>
-      <c r="N56" s="14"/>
+        <v>194</v>
+      </c>
+      <c r="L56" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M56" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="N56" s="12"/>
     </row>
     <row r="57" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A57" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>170</v>
+        <v>215</v>
       </c>
       <c r="C57" s="3">
-        <v>6504106383</v>
+        <v>6504106431</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F57" s="8" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H57" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="I57" s="11" t="s">
-        <v>20</v>
+        <v>216</v>
+      </c>
+      <c r="I57" s="10" t="s">
+        <v>21</v>
       </c>
       <c r="J57" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K57" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="L57" s="2"/>
-      <c r="M57" s="2"/>
-      <c r="N57" s="14"/>
+        <v>217</v>
+      </c>
+      <c r="L57" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="M57" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="N57" s="12"/>
     </row>
     <row r="58" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A58" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>173</v>
+        <v>219</v>
       </c>
       <c r="C58" s="3">
-        <v>6504106383</v>
+        <v>6504106432</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F58" s="8" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H58" s="11" t="s">
-        <v>174</v>
-      </c>
-      <c r="I58" s="11" t="s">
-        <v>20</v>
+        <v>19</v>
+      </c>
+      <c r="H58" s="10" t="s">
+        <v>220</v>
+      </c>
+      <c r="I58" s="10" t="s">
+        <v>21</v>
       </c>
       <c r="J58" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K58" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="L58" s="2"/>
-      <c r="M58" s="2"/>
-      <c r="N58" s="14"/>
+        <v>194</v>
+      </c>
+      <c r="L58" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="M58" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="N58" s="12"/>
     </row>
     <row r="59" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A59" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>175</v>
+        <v>221</v>
       </c>
       <c r="C59" s="3">
-        <v>6504106383</v>
+        <v>6504106433</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F59" s="8" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H59" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="I59" s="11" t="s">
-        <v>20</v>
+        <v>222</v>
+      </c>
+      <c r="I59" s="10" t="s">
+        <v>21</v>
       </c>
       <c r="J59" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K59" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="L59" s="2"/>
-      <c r="M59" s="2"/>
-      <c r="N59" s="14"/>
+        <v>223</v>
+      </c>
+      <c r="L59" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="M59" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="N59" s="12"/>
     </row>
     <row r="60" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A60" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>178</v>
+        <v>224</v>
       </c>
       <c r="C60" s="3">
-        <v>6504106383</v>
+        <v>6504106434</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F60" s="8" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H60" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="I60" s="11" t="s">
-        <v>20</v>
+        <v>225</v>
+      </c>
+      <c r="I60" s="10" t="s">
+        <v>21</v>
       </c>
       <c r="J60" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K60" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="L60" s="2"/>
-      <c r="M60" s="2"/>
-      <c r="N60" s="14"/>
+        <v>223</v>
+      </c>
+      <c r="L60" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="M60" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="N60" s="12"/>
     </row>
     <row r="61" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A61" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>180</v>
+        <v>226</v>
       </c>
       <c r="C61" s="3">
-        <v>6504106383</v>
+        <v>6504106435</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F61" s="8" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H61" s="12"/>
-      <c r="I61" s="11" t="s">
-        <v>20</v>
+        <v>19</v>
+      </c>
+      <c r="H61" s="11"/>
+      <c r="I61" s="10" t="s">
+        <v>21</v>
       </c>
       <c r="J61" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K61" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="L61" s="2"/>
-      <c r="M61" s="2"/>
-      <c r="N61" s="14"/>
+        <v>227</v>
+      </c>
+      <c r="L61" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="M61" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="N61" s="12"/>
     </row>
     <row r="62" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A62" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>182</v>
+        <v>229</v>
       </c>
       <c r="C62" s="3">
-        <v>6504106383</v>
+        <v>6504106436</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F62" s="8" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H62" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="I62" s="11" t="s">
-        <v>20</v>
+        <v>19</v>
+      </c>
+      <c r="H62" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="I62" s="10" t="s">
+        <v>21</v>
       </c>
       <c r="J62" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K62" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="L62" s="2"/>
-      <c r="M62" s="2"/>
-      <c r="N62" s="14"/>
+        <v>194</v>
+      </c>
+      <c r="L62" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M62" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="N62" s="12"/>
     </row>
     <row r="63" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A63" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>183</v>
+        <v>231</v>
       </c>
       <c r="C63" s="3">
-        <v>6504106383</v>
+        <v>6504106437</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F63" s="8" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H63" s="11" t="s">
-        <v>19</v>
+        <v>19</v>
+      </c>
+      <c r="H63" s="3" t="s">
+        <v>232</v>
       </c>
       <c r="I63" s="7" t="s">
-        <v>184</v>
+        <v>233</v>
       </c>
       <c r="J63" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K63" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="L63" s="2"/>
-      <c r="M63" s="2"/>
-      <c r="N63" s="14"/>
+        <v>234</v>
+      </c>
+      <c r="L63" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="M63" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="N63" s="12"/>
     </row>
     <row r="64" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A64" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>186</v>
+        <v>235</v>
       </c>
       <c r="C64" s="3">
-        <v>6504106383</v>
+        <v>6504106438</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F64" s="8" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H64" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="I64" s="11" t="s">
-        <v>187</v>
+        <v>19</v>
+      </c>
+      <c r="H64" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="I64" s="10" t="s">
+        <v>237</v>
       </c>
       <c r="J64" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K64" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="L64" s="2"/>
-      <c r="M64" s="2"/>
-      <c r="N64" s="14"/>
+        <v>23</v>
+      </c>
+      <c r="L64" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M64" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="N64" s="12"/>
     </row>
     <row r="65" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A65" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>188</v>
+        <v>238</v>
       </c>
       <c r="C65" s="3">
-        <v>6504106383</v>
+        <v>6504106439</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F65" s="8" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H65" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="I65" s="11" t="s">
-        <v>189</v>
+        <v>19</v>
+      </c>
+      <c r="H65" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="I65" s="10" t="s">
+        <v>240</v>
       </c>
       <c r="J65" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K65" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="L65" s="2"/>
-      <c r="M65" s="2"/>
-      <c r="N65" s="14"/>
+        <v>23</v>
+      </c>
+      <c r="L65" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M65" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="N65" s="12"/>
     </row>
     <row r="66" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A66" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>190</v>
+        <v>241</v>
       </c>
       <c r="C66" s="3">
-        <v>6504106383</v>
+        <v>6504106440</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F66" s="8" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H66" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="I66" s="11" t="s">
-        <v>191</v>
+        <v>19</v>
+      </c>
+      <c r="H66" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="I66" s="10" t="s">
+        <v>243</v>
       </c>
       <c r="J66" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K66" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="L66" s="2"/>
-      <c r="M66" s="2"/>
-      <c r="N66" s="14"/>
+        <v>23</v>
+      </c>
+      <c r="L66" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M66" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="N66" s="12"/>
     </row>
     <row r="67" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A67" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>192</v>
+        <v>244</v>
       </c>
       <c r="C67" s="3">
-        <v>6504106383</v>
+        <v>6504106441</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F67" s="8" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H67" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="I67" s="11" t="s">
-        <v>193</v>
+        <v>19</v>
+      </c>
+      <c r="H67" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="I67" s="10" t="s">
+        <v>246</v>
       </c>
       <c r="J67" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K67" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="L67" s="2"/>
-      <c r="M67" s="2"/>
-      <c r="N67" s="14"/>
+        <v>23</v>
+      </c>
+      <c r="L67" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M67" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="N67" s="12"/>
     </row>
     <row r="68" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A68" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>194</v>
+        <v>247</v>
       </c>
       <c r="C68" s="3">
-        <v>6504106383</v>
+        <v>6504106442</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F68" s="8" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H68" s="11" t="s">
-        <v>19</v>
+        <v>19</v>
+      </c>
+      <c r="H68" s="3" t="s">
+        <v>248</v>
       </c>
       <c r="I68" s="7" t="s">
-        <v>195</v>
+        <v>249</v>
       </c>
       <c r="J68" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K68" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="L68" s="2"/>
-      <c r="M68" s="2"/>
-      <c r="N68" s="14"/>
+        <v>250</v>
+      </c>
+      <c r="L68" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="M68" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="N68" s="12"/>
     </row>
     <row r="69" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A69" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>197</v>
+        <v>251</v>
       </c>
       <c r="C69" s="3">
-        <v>6504106383</v>
+        <v>6504106443</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F69" s="8" t="s">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H69" s="11" t="s">
-        <v>19</v>
+        <v>19</v>
+      </c>
+      <c r="H69" s="3" t="s">
+        <v>252</v>
       </c>
       <c r="I69" s="7" t="s">
-        <v>198</v>
+        <v>253</v>
       </c>
       <c r="J69" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K69" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="L69" s="2"/>
-      <c r="M69" s="2"/>
-      <c r="N69" s="14"/>
+        <v>250</v>
+      </c>
+      <c r="L69" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="M69" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="N69" s="12"/>
     </row>
     <row r="70" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A70" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>199</v>
+        <v>254</v>
       </c>
       <c r="C70" s="3">
-        <v>6504106383</v>
+        <v>6504106444</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F70" s="8" t="s">
-        <v>88</v>
+        <v>102</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H70" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="I70" s="11" t="s">
-        <v>20</v>
+        <v>19</v>
+      </c>
+      <c r="H70" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="I70" s="10" t="s">
+        <v>21</v>
       </c>
       <c r="J70" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K70" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="L70" s="2"/>
-      <c r="M70" s="2"/>
-      <c r="N70" s="14"/>
+        <v>23</v>
+      </c>
+      <c r="L70" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M70" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="N70" s="12"/>
     </row>
     <row r="71" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A71" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>200</v>
+        <v>256</v>
       </c>
       <c r="C71" s="3">
-        <v>6504106383</v>
+        <v>6504106445</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F71" s="8" t="s">
-        <v>90</v>
+        <v>105</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H71" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="I71" s="11" t="s">
-        <v>201</v>
+        <v>19</v>
+      </c>
+      <c r="H71" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="I71" s="10" t="s">
+        <v>258</v>
       </c>
       <c r="J71" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K71" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="L71" s="2"/>
-      <c r="M71" s="2"/>
-      <c r="N71" s="14"/>
+        <v>23</v>
+      </c>
+      <c r="L71" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M71" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="N71" s="12"/>
     </row>
     <row r="72" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A72" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>202</v>
+        <v>259</v>
       </c>
       <c r="C72" s="3">
-        <v>6504106383</v>
+        <v>6504106446</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F72" s="8" t="s">
-        <v>93</v>
+        <v>110</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H72" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="I72" s="11" t="s">
-        <v>203</v>
+        <v>19</v>
+      </c>
+      <c r="H72" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="I72" s="10" t="s">
+        <v>261</v>
       </c>
       <c r="J72" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K72" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="L72" s="2"/>
-      <c r="M72" s="2"/>
-      <c r="N72" s="14"/>
+        <v>23</v>
+      </c>
+      <c r="L72" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M72" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="N72" s="12"/>
     </row>
     <row r="73" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A73" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>204</v>
+        <v>262</v>
       </c>
       <c r="C73" s="3">
-        <v>6504106383</v>
+        <v>6504106447</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F73" s="8" t="s">
-        <v>96</v>
+        <v>114</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H73" s="11" t="s">
-        <v>19</v>
+        <v>19</v>
+      </c>
+      <c r="H73" s="3" t="s">
+        <v>263</v>
       </c>
       <c r="I73" s="7" t="s">
-        <v>205</v>
+        <v>264</v>
       </c>
       <c r="J73" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K73" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="L73" s="2"/>
-      <c r="M73" s="2"/>
-      <c r="N73" s="14"/>
+        <v>234</v>
+      </c>
+      <c r="L73" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="M73" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="N73" s="12"/>
     </row>
     <row r="74" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A74" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>207</v>
+        <v>265</v>
       </c>
       <c r="C74" s="3">
-        <v>6504106383</v>
+        <v>6504106448</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F74" s="8" t="s">
-        <v>99</v>
+        <v>118</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H74" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="I74" s="12"/>
+        <v>19</v>
+      </c>
+      <c r="H74" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="I74" s="11"/>
       <c r="J74" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K74" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="L74" s="2"/>
-      <c r="M74" s="2"/>
-      <c r="N74" s="14"/>
+        <v>267</v>
+      </c>
+      <c r="L74" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="M74" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="N74" s="12"/>
     </row>
     <row r="75" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A75" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>209</v>
+        <v>268</v>
       </c>
       <c r="C75" s="3">
-        <v>6504106383</v>
+        <v>6504106449</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F75" s="8" t="s">
-        <v>102</v>
+        <v>122</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H75" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="I75" s="11" t="s">
-        <v>20</v>
+        <v>19</v>
+      </c>
+      <c r="H75" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="I75" s="10" t="s">
+        <v>21</v>
       </c>
       <c r="J75" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K75" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="L75" s="2"/>
-      <c r="M75" s="2"/>
-      <c r="N75" s="14"/>
+        <v>194</v>
+      </c>
+      <c r="L75" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M75" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="N75" s="12"/>
     </row>
     <row r="76" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A76" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>210</v>
+        <v>270</v>
       </c>
       <c r="C76" s="3">
-        <v>6504106383</v>
+        <v>6504106450</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F76" s="8" t="s">
-        <v>105</v>
+        <v>126</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H76" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="I76" s="11" t="s">
-        <v>20</v>
+        <v>19</v>
+      </c>
+      <c r="H76" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="I76" s="10" t="s">
+        <v>21</v>
       </c>
       <c r="J76" s="6" t="s">
-        <v>211</v>
+        <v>272</v>
       </c>
       <c r="K76" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="L76" s="2"/>
-      <c r="M76" s="2"/>
-      <c r="N76" s="14"/>
+        <v>273</v>
+      </c>
+      <c r="L76" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M76" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="N76" s="12"/>
     </row>
     <row r="77" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A77" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>213</v>
+        <v>274</v>
       </c>
       <c r="C77" s="3">
-        <v>6504106383</v>
+        <v>6504106451</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F77" s="8" t="s">
-        <v>109</v>
+        <v>130</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H77" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="I77" s="11" t="s">
-        <v>20</v>
+        <v>19</v>
+      </c>
+      <c r="H77" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="I77" s="10" t="s">
+        <v>21</v>
       </c>
       <c r="J77" s="2" t="s">
-        <v>214</v>
+        <v>276</v>
       </c>
       <c r="K77" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="L77" s="2"/>
-      <c r="M77" s="2"/>
-      <c r="N77" s="14"/>
+        <v>194</v>
+      </c>
+      <c r="L77" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M77" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="N77" s="12"/>
     </row>
     <row r="78" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A78" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>215</v>
+        <v>277</v>
       </c>
       <c r="C78" s="3">
-        <v>6504106383</v>
+        <v>6504106452</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F78" s="8" t="s">
-        <v>112</v>
+        <v>134</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H78" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="I78" s="11" t="s">
-        <v>20</v>
+        <v>19</v>
+      </c>
+      <c r="H78" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="I78" s="10" t="s">
+        <v>21</v>
       </c>
       <c r="J78" s="2" t="s">
-        <v>216</v>
+        <v>279</v>
       </c>
       <c r="K78" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="L78" s="2"/>
-      <c r="M78" s="2"/>
-      <c r="N78" s="14"/>
+        <v>194</v>
+      </c>
+      <c r="L78" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M78" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="N78" s="12"/>
     </row>
     <row r="79" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A79" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>217</v>
+        <v>280</v>
       </c>
       <c r="C79" s="3">
-        <v>6504106383</v>
+        <v>6504106453</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F79" s="8" t="s">
-        <v>115</v>
+        <v>138</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H79" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="I79" s="11" t="s">
-        <v>20</v>
+        <v>19</v>
+      </c>
+      <c r="H79" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="I79" s="10" t="s">
+        <v>21</v>
       </c>
       <c r="J79" s="7" t="s">
-        <v>218</v>
+        <v>282</v>
       </c>
       <c r="K79" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="L79" s="2"/>
-      <c r="M79" s="2"/>
-      <c r="N79" s="14"/>
+        <v>283</v>
+      </c>
+      <c r="L79" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M79" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="N79" s="12"/>
     </row>
     <row r="80" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A80" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>220</v>
+        <v>284</v>
       </c>
       <c r="C80" s="3">
-        <v>6504106383</v>
+        <v>6504106454</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F80" s="8" t="s">
-        <v>115</v>
+        <v>138</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H80" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="I80" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="J80" s="12"/>
+        <v>19</v>
+      </c>
+      <c r="H80" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="I80" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="J80" s="11"/>
       <c r="K80" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="L80" s="2"/>
-      <c r="M80" s="2"/>
-      <c r="N80" s="14"/>
+        <v>286</v>
+      </c>
+      <c r="L80" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M80" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="N80" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ExcelProject/Register Student.xlsx
+++ b/ExcelProject/Register Student.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jalem\OneDrive\Desktop\Project_Test_Tutors\ExcelProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0176DA02-7D8A-4768-B77F-156C89658C52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D53482E-5EAE-4EBD-AF91-80D16F77B51B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RegisterStudent" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="956" uniqueCount="287">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="956" uniqueCount="284">
   <si>
     <t>Execute</t>
   </si>
@@ -64,7 +64,7 @@
     <t>Revise</t>
   </si>
   <si>
-    <t>N</t>
+    <t>Y</t>
   </si>
   <si>
     <t>TC2:01</t>
@@ -319,294 +319,294 @@
     <t>MJU6504106396</t>
   </si>
   <si>
+    <t>TC2:22</t>
+  </si>
+  <si>
+    <t>เมาใจ</t>
+  </si>
+  <si>
+    <t>0918079743</t>
+  </si>
+  <si>
+    <t>MJU6504106397</t>
+  </si>
+  <si>
+    <t>TC2:23</t>
+  </si>
+  <si>
+    <t>0918079744</t>
+  </si>
+  <si>
+    <t>MJU6504106398</t>
+  </si>
+  <si>
+    <t>นามสกุลต้องเป็นภาษาไทยหรืออังกฤษ ความยาว 2-85 ตัวอักษร</t>
+  </si>
+  <si>
+    <t>TC2:24</t>
+  </si>
+  <si>
+    <t>จี</t>
+  </si>
+  <si>
+    <t>0918079745</t>
+  </si>
+  <si>
+    <t>MJU6504106399</t>
+  </si>
+  <si>
+    <t>TC2:25</t>
+  </si>
+  <si>
+    <t>จีน</t>
+  </si>
+  <si>
+    <t>0918079746</t>
+  </si>
+  <si>
+    <t>MJU6504106400</t>
+  </si>
+  <si>
+    <t>TC2:26</t>
+  </si>
+  <si>
+    <t>มหาศิริปัญญาโชติวัฒนาสุวรรณ กิตติเพชรบูรณาอุดมเดชสกุลพงศ์ พาณิชย์ศิริวิชยาพรทรัพย์ศิลา</t>
+  </si>
+  <si>
+    <t>0918079747</t>
+  </si>
+  <si>
+    <t>MJU6504106401</t>
+  </si>
+  <si>
+    <t>TC2:27</t>
+  </si>
+  <si>
+    <t>มหาศิริปัญญาโชติวัฒนาสุวรรณ กิตติเพชรบูรณาอุดมเดชสกุลพงศ์ พาณิชย์ศิริวิชยาพรทรัพย์ศิลาก</t>
+  </si>
+  <si>
+    <t>0918079748</t>
+  </si>
+  <si>
+    <t>MJU6504106402</t>
+  </si>
+  <si>
+    <t>TC2:28</t>
+  </si>
+  <si>
+    <t>จ</t>
+  </si>
+  <si>
+    <t>0918079749</t>
+  </si>
+  <si>
+    <t>MJU6504106403</t>
+  </si>
+  <si>
+    <t>TC2:29</t>
+  </si>
+  <si>
+    <t>มหาศิริปัญญาโชติวัฒนาสุวรรณ กิตติเพชรบูรณาอุดมเดชสกุลพงศ์ พาณิชย์ศิริวิชยาพรทรัพย์ศิลากร</t>
+  </si>
+  <si>
+    <t>0918079750</t>
+  </si>
+  <si>
+    <t>MJU6504106404</t>
+  </si>
+  <si>
+    <t>TC2:30</t>
+  </si>
+  <si>
+    <t>จีนดา</t>
+  </si>
+  <si>
+    <t>0918079751</t>
+  </si>
+  <si>
+    <t>MJU6504106405</t>
+  </si>
+  <si>
+    <t>TC2:31</t>
+  </si>
+  <si>
+    <t>จี@</t>
+  </si>
+  <si>
+    <t>0918079752</t>
+  </si>
+  <si>
+    <t>MJU6504106406</t>
+  </si>
+  <si>
+    <t>TC2:32</t>
+  </si>
+  <si>
+    <t>คิม</t>
+  </si>
+  <si>
+    <t>0918079753</t>
+  </si>
+  <si>
+    <t>MJU6504106407</t>
+  </si>
+  <si>
+    <t>TC2:33</t>
+  </si>
+  <si>
+    <t>คิ ม</t>
+  </si>
+  <si>
+    <t>0918079754</t>
+  </si>
+  <si>
+    <t>MJU6504106408</t>
+  </si>
+  <si>
+    <t>TC2:34</t>
+  </si>
+  <si>
+    <t>0918079755</t>
+  </si>
+  <si>
+    <t>MJU6504106409</t>
+  </si>
+  <si>
+    <t>กรุณากรอกนามสกุล</t>
+  </si>
+  <si>
+    <t>TC2:35</t>
+  </si>
+  <si>
+    <t>MJU6504106410</t>
+  </si>
+  <si>
+    <t>TC2:36</t>
+  </si>
+  <si>
+    <t>Eก#9180795</t>
+  </si>
+  <si>
+    <t>MJU6504106411</t>
+  </si>
+  <si>
+    <t>เบอร์โทรต้องขึ้นต้นด้วย 06, 07, 08 หรือ 09 และมี 10 หลักเท่านั้น</t>
+  </si>
+  <si>
+    <t>TC2:37</t>
+  </si>
+  <si>
+    <t>0648581234</t>
+  </si>
+  <si>
+    <t>MJU6504106412</t>
+  </si>
+  <si>
+    <t>TC2:38</t>
+  </si>
+  <si>
+    <t>0748581234</t>
+  </si>
+  <si>
+    <t>MJU6504106413</t>
+  </si>
+  <si>
+    <t>TC2:39</t>
+  </si>
+  <si>
+    <t>0848581234</t>
+  </si>
+  <si>
+    <t>MJU6504106414</t>
+  </si>
+  <si>
+    <t>TC2:40</t>
+  </si>
+  <si>
+    <t>0948581234</t>
+  </si>
+  <si>
+    <t>MJU6504106415</t>
+  </si>
+  <si>
+    <t>TC2:41</t>
+  </si>
+  <si>
+    <t>0719584713</t>
+  </si>
+  <si>
+    <t>MJU6504106416</t>
+  </si>
+  <si>
+    <t>TC2:42</t>
+  </si>
+  <si>
+    <t>0879354033</t>
+  </si>
+  <si>
+    <t>MJU6504106417</t>
+  </si>
+  <si>
+    <t>TC2:43</t>
+  </si>
+  <si>
+    <t>087935403</t>
+  </si>
+  <si>
+    <t>MJU6504106418</t>
+  </si>
+  <si>
+    <t>TC2:44</t>
+  </si>
+  <si>
+    <t>08793540331</t>
+  </si>
+  <si>
+    <t>MJU6504106419</t>
+  </si>
+  <si>
+    <t>TC2:45</t>
+  </si>
+  <si>
+    <t>MJU6504106420</t>
+  </si>
+  <si>
+    <t>TC2:46</t>
+  </si>
+  <si>
+    <t>087 935 4033</t>
+  </si>
+  <si>
+    <t>MJU6504106421</t>
+  </si>
+  <si>
+    <t>เบอร์โทรต้องไม่มีช่องว่าง</t>
+  </si>
+  <si>
+    <t>TC2:47</t>
+  </si>
+  <si>
+    <t>MJU6504106422</t>
+  </si>
+  <si>
+    <t>กรุณากรอกเบอร์โทรศัพท์</t>
+  </si>
+  <si>
+    <t>TC2:48</t>
+  </si>
+  <si>
+    <t>ชั้นปีที่ 1</t>
+  </si>
+  <si>
+    <t>MJU6504106423</t>
+  </si>
+  <si>
+    <t>ลงทะเบียนสำเร็จ</t>
+  </si>
+  <si>
     <t>Fail</t>
   </si>
   <si>
-    <t>TC2:22</t>
-  </si>
-  <si>
-    <t>เมาใจ</t>
-  </si>
-  <si>
-    <t>0918079743</t>
-  </si>
-  <si>
-    <t>MJU6504106397</t>
-  </si>
-  <si>
-    <t>TC2:23</t>
-  </si>
-  <si>
-    <t>0918079744</t>
-  </si>
-  <si>
-    <t>MJU6504106398</t>
-  </si>
-  <si>
-    <t>นามสกุลต้องเป็นภาษาไทยหรืออังกฤษ ความยาว 2-85 ตัวอักษร</t>
-  </si>
-  <si>
-    <t>TC2:24</t>
-  </si>
-  <si>
-    <t>จี</t>
-  </si>
-  <si>
-    <t>0918079745</t>
-  </si>
-  <si>
-    <t>MJU6504106399</t>
-  </si>
-  <si>
-    <t>TC2:25</t>
-  </si>
-  <si>
-    <t>จีน</t>
-  </si>
-  <si>
-    <t>0918079746</t>
-  </si>
-  <si>
-    <t>MJU6504106400</t>
-  </si>
-  <si>
-    <t>TC2:26</t>
-  </si>
-  <si>
-    <t>มหาศิริปัญญาโชติวัฒนาสุวรรณ กิตติเพชรบูรณาอุดมเดชสกุลพงศ์ พาณิชย์ศิริวิชยาพรทรัพย์ศิลา</t>
-  </si>
-  <si>
-    <t>0918079747</t>
-  </si>
-  <si>
-    <t>MJU6504106401</t>
-  </si>
-  <si>
-    <t>TC2:27</t>
-  </si>
-  <si>
-    <t>มหาศิริปัญญาโชติวัฒนาสุวรรณ กิตติเพชรบูรณาอุดมเดชสกุลพงศ์ พาณิชย์ศิริวิชยาพรทรัพย์ศิลาก</t>
-  </si>
-  <si>
-    <t>0918079748</t>
-  </si>
-  <si>
-    <t>MJU6504106402</t>
-  </si>
-  <si>
-    <t>TC2:28</t>
-  </si>
-  <si>
-    <t>จ</t>
-  </si>
-  <si>
-    <t>0918079749</t>
-  </si>
-  <si>
-    <t>MJU6504106403</t>
-  </si>
-  <si>
-    <t>TC2:29</t>
-  </si>
-  <si>
-    <t>มหาศิริปัญญาโชติวัฒนาสุวรรณ กิตติเพชรบูรณาอุดมเดชสกุลพงศ์ พาณิชย์ศิริวิชยาพรทรัพย์ศิลากร</t>
-  </si>
-  <si>
-    <t>0918079750</t>
-  </si>
-  <si>
-    <t>MJU6504106404</t>
-  </si>
-  <si>
-    <t>TC2:30</t>
-  </si>
-  <si>
-    <t>จีนดา</t>
-  </si>
-  <si>
-    <t>0918079751</t>
-  </si>
-  <si>
-    <t>MJU6504106405</t>
-  </si>
-  <si>
-    <t>TC2:31</t>
-  </si>
-  <si>
-    <t>จี@</t>
-  </si>
-  <si>
-    <t>0918079752</t>
-  </si>
-  <si>
-    <t>MJU6504106406</t>
-  </si>
-  <si>
-    <t>TC2:32</t>
-  </si>
-  <si>
-    <t>คิม</t>
-  </si>
-  <si>
-    <t>0918079753</t>
-  </si>
-  <si>
-    <t>MJU6504106407</t>
-  </si>
-  <si>
-    <t>TC2:33</t>
-  </si>
-  <si>
-    <t>คิ ม</t>
-  </si>
-  <si>
-    <t>0918079754</t>
-  </si>
-  <si>
-    <t>MJU6504106408</t>
-  </si>
-  <si>
-    <t>TC2:34</t>
-  </si>
-  <si>
-    <t>0918079755</t>
-  </si>
-  <si>
-    <t>MJU6504106409</t>
-  </si>
-  <si>
-    <t>กรุณากรอกนามสกุล</t>
-  </si>
-  <si>
-    <t>TC2:35</t>
-  </si>
-  <si>
-    <t>MJU6504106410</t>
-  </si>
-  <si>
-    <t>TC2:36</t>
-  </si>
-  <si>
-    <t>Eก#9180795</t>
-  </si>
-  <si>
-    <t>MJU6504106411</t>
-  </si>
-  <si>
-    <t>เบอร์โทรต้องขึ้นต้นด้วย 06, 07, 08 หรือ 09 และมี 10 หลักเท่านั้น</t>
-  </si>
-  <si>
-    <t>TC2:37</t>
-  </si>
-  <si>
-    <t>0648581234</t>
-  </si>
-  <si>
-    <t>MJU6504106412</t>
-  </si>
-  <si>
-    <t>TC2:38</t>
-  </si>
-  <si>
-    <t>0748581234</t>
-  </si>
-  <si>
-    <t>MJU6504106413</t>
-  </si>
-  <si>
-    <t>TC2:39</t>
-  </si>
-  <si>
-    <t>0848581234</t>
-  </si>
-  <si>
-    <t>MJU6504106414</t>
-  </si>
-  <si>
-    <t>TC2:40</t>
-  </si>
-  <si>
-    <t>0948581234</t>
-  </si>
-  <si>
-    <t>MJU6504106415</t>
-  </si>
-  <si>
-    <t>TC2:41</t>
-  </si>
-  <si>
-    <t>0719584713</t>
-  </si>
-  <si>
-    <t>MJU6504106416</t>
-  </si>
-  <si>
-    <t>TC2:42</t>
-  </si>
-  <si>
-    <t>0879354033</t>
-  </si>
-  <si>
-    <t>MJU6504106417</t>
-  </si>
-  <si>
-    <t>TC2:43</t>
-  </si>
-  <si>
-    <t>087935403</t>
-  </si>
-  <si>
-    <t>MJU6504106418</t>
-  </si>
-  <si>
-    <t>TC2:44</t>
-  </si>
-  <si>
-    <t>08793540331</t>
-  </si>
-  <si>
-    <t>MJU6504106419</t>
-  </si>
-  <si>
-    <t>TC2:45</t>
-  </si>
-  <si>
-    <t>MJU6504106420</t>
-  </si>
-  <si>
-    <t>TC2:46</t>
-  </si>
-  <si>
-    <t>087 935 4033</t>
-  </si>
-  <si>
-    <t>MJU6504106421</t>
-  </si>
-  <si>
-    <t>เบอร์โทรต้องไม่มีช่องว่าง</t>
-  </si>
-  <si>
-    <t>TC2:47</t>
-  </si>
-  <si>
-    <t>MJU6504106422</t>
-  </si>
-  <si>
-    <t>กรุณากรอกเบอร์โทรศัพท์</t>
-  </si>
-  <si>
-    <t>TC2:48</t>
-  </si>
-  <si>
-    <t>ชั้นปีที่ 1</t>
-  </si>
-  <si>
-    <t>MJU6504106423</t>
-  </si>
-  <si>
-    <t>ลงทะเบียนสำเร็จ</t>
-  </si>
-  <si>
     <t>TC2:49</t>
   </si>
   <si>
@@ -673,16 +673,13 @@
     <t>MJU 650410640</t>
   </si>
   <si>
-    <t>กรุณากรอกโดยห้ามมีช่องว่าง</t>
-  </si>
-  <si>
     <t>ห้ามมีช่องว่างในอีเมล</t>
   </si>
   <si>
     <t>TC2:57</t>
   </si>
   <si>
-    <t>mju6504106400</t>
+    <t>mju6504106435</t>
   </si>
   <si>
     <t>TC2:58</t>
@@ -691,9 +688,6 @@
     <t>mju650410640</t>
   </si>
   <si>
-    <t>กรุณากรอกความยาวให้มีขนาด 13 ตัวพอดี</t>
-  </si>
-  <si>
     <t>TC2:59</t>
   </si>
   <si>
@@ -701,9 +695,6 @@
   </si>
   <si>
     <t>TC2:60</t>
-  </si>
-  <si>
-    <t>กรุณากรอกอีเมล์รูปแบบของอีเมล MJU</t>
   </si>
   <si>
     <t>กรุณากรอกอีเมล</t>
@@ -1282,8 +1273,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C46" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H54" sqref="H54"/>
+    <sheetView tabSelected="1" topLeftCell="H44" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M55" sqref="M55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2219,7 +2210,7 @@
         <v>23</v>
       </c>
       <c r="M22" s="2" t="s">
-        <v>99</v>
+        <v>24</v>
       </c>
       <c r="N22" s="12"/>
     </row>
@@ -2228,7 +2219,7 @@
         <v>14</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C23" s="3">
         <v>6504106397</v>
@@ -2237,17 +2228,17 @@
         <v>16</v>
       </c>
       <c r="E23" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="F23" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="F23" s="8" t="s">
+      <c r="G23" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H23" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="G23" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H23" s="3" t="s">
-        <v>103</v>
-      </c>
       <c r="I23" s="10" t="s">
         <v>21</v>
       </c>
@@ -2261,7 +2252,7 @@
         <v>23</v>
       </c>
       <c r="M23" s="2" t="s">
-        <v>99</v>
+        <v>24</v>
       </c>
       <c r="N23" s="12"/>
     </row>
@@ -2270,7 +2261,7 @@
         <v>14</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C24" s="3">
         <v>6504106398</v>
@@ -2282,28 +2273,28 @@
         <v>1234</v>
       </c>
       <c r="F24" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H24" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="G24" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H24" s="3" t="s">
+      <c r="I24" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="J24" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K24" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="I24" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="J24" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="K24" s="2" t="s">
-        <v>107</v>
-      </c>
       <c r="L24" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="M24" s="2" t="s">
-        <v>99</v>
+        <v>24</v>
       </c>
       <c r="N24" s="12"/>
     </row>
@@ -2312,7 +2303,7 @@
         <v>14</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C25" s="3">
         <v>6504106399</v>
@@ -2321,17 +2312,17 @@
         <v>16</v>
       </c>
       <c r="E25" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="F25" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="F25" s="8" t="s">
+      <c r="G25" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H25" s="15" t="s">
         <v>110</v>
       </c>
-      <c r="G25" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H25" s="15" t="s">
-        <v>111</v>
-      </c>
       <c r="I25" s="10" t="s">
         <v>21</v>
       </c>
@@ -2345,7 +2336,7 @@
         <v>23</v>
       </c>
       <c r="M25" s="2" t="s">
-        <v>99</v>
+        <v>24</v>
       </c>
       <c r="N25" s="12"/>
     </row>
@@ -2354,7 +2345,7 @@
         <v>14</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C26" s="3">
         <v>6504106400</v>
@@ -2363,17 +2354,17 @@
         <v>16</v>
       </c>
       <c r="E26" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="F26" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="F26" s="8" t="s">
+      <c r="G26" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H26" s="15" t="s">
         <v>114</v>
       </c>
-      <c r="G26" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H26" s="15" t="s">
-        <v>115</v>
-      </c>
       <c r="I26" s="10" t="s">
         <v>21</v>
       </c>
@@ -2387,7 +2378,7 @@
         <v>23</v>
       </c>
       <c r="M26" s="2" t="s">
-        <v>99</v>
+        <v>24</v>
       </c>
       <c r="N26" s="12"/>
     </row>
@@ -2396,7 +2387,7 @@
         <v>14</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C27" s="3">
         <v>6504106401</v>
@@ -2405,17 +2396,17 @@
         <v>16</v>
       </c>
       <c r="E27" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="F27" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="F27" s="8" t="s">
+      <c r="G27" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H27" s="15" t="s">
         <v>118</v>
       </c>
-      <c r="G27" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H27" s="15" t="s">
-        <v>119</v>
-      </c>
       <c r="I27" s="10" t="s">
         <v>21</v>
       </c>
@@ -2423,13 +2414,13 @@
         <v>22</v>
       </c>
       <c r="K27" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="L27" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="M27" s="2" t="s">
-        <v>99</v>
+        <v>24</v>
       </c>
       <c r="N27" s="12"/>
     </row>
@@ -2438,7 +2429,7 @@
         <v>14</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C28" s="3">
         <v>6504106402</v>
@@ -2447,17 +2438,17 @@
         <v>16</v>
       </c>
       <c r="E28" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="F28" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="F28" s="8" t="s">
+      <c r="G28" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H28" s="15" t="s">
         <v>122</v>
       </c>
-      <c r="G28" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H28" s="15" t="s">
-        <v>123</v>
-      </c>
       <c r="I28" s="10" t="s">
         <v>21</v>
       </c>
@@ -2465,13 +2456,13 @@
         <v>22</v>
       </c>
       <c r="K28" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="L28" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="M28" s="2" t="s">
-        <v>99</v>
+        <v>24</v>
       </c>
       <c r="N28" s="12"/>
     </row>
@@ -2480,7 +2471,7 @@
         <v>14</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C29" s="3">
         <v>6504106403</v>
@@ -2489,17 +2480,17 @@
         <v>16</v>
       </c>
       <c r="E29" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="F29" s="8" t="s">
         <v>125</v>
       </c>
-      <c r="F29" s="8" t="s">
+      <c r="G29" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H29" s="15" t="s">
         <v>126</v>
       </c>
-      <c r="G29" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H29" s="15" t="s">
-        <v>127</v>
-      </c>
       <c r="I29" s="10" t="s">
         <v>21</v>
       </c>
@@ -2507,13 +2498,13 @@
         <v>22</v>
       </c>
       <c r="K29" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="L29" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="M29" s="2" t="s">
-        <v>99</v>
+        <v>24</v>
       </c>
       <c r="N29" s="12"/>
     </row>
@@ -2522,7 +2513,7 @@
         <v>14</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C30" s="3">
         <v>6504106404</v>
@@ -2531,17 +2522,17 @@
         <v>16</v>
       </c>
       <c r="E30" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="F30" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="F30" s="8" t="s">
+      <c r="G30" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H30" s="15" t="s">
         <v>130</v>
       </c>
-      <c r="G30" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H30" s="15" t="s">
-        <v>131</v>
-      </c>
       <c r="I30" s="10" t="s">
         <v>21</v>
       </c>
@@ -2549,13 +2540,13 @@
         <v>22</v>
       </c>
       <c r="K30" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="L30" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="M30" s="2" t="s">
-        <v>99</v>
+        <v>24</v>
       </c>
       <c r="N30" s="12"/>
     </row>
@@ -2564,7 +2555,7 @@
         <v>14</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C31" s="3">
         <v>6504106405</v>
@@ -2573,17 +2564,17 @@
         <v>16</v>
       </c>
       <c r="E31" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="F31" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="F31" s="8" t="s">
+      <c r="G31" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H31" s="15" t="s">
         <v>134</v>
       </c>
-      <c r="G31" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H31" s="15" t="s">
-        <v>135</v>
-      </c>
       <c r="I31" s="10" t="s">
         <v>21</v>
       </c>
@@ -2597,7 +2588,7 @@
         <v>23</v>
       </c>
       <c r="M31" s="2" t="s">
-        <v>99</v>
+        <v>24</v>
       </c>
       <c r="N31" s="12"/>
     </row>
@@ -2606,7 +2597,7 @@
         <v>14</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C32" s="3">
         <v>6504106406</v>
@@ -2615,17 +2606,17 @@
         <v>16</v>
       </c>
       <c r="E32" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="F32" s="8" t="s">
         <v>137</v>
       </c>
-      <c r="F32" s="8" t="s">
+      <c r="G32" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H32" s="15" t="s">
         <v>138</v>
       </c>
-      <c r="G32" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H32" s="15" t="s">
-        <v>139</v>
-      </c>
       <c r="I32" s="10" t="s">
         <v>21</v>
       </c>
@@ -2633,13 +2624,13 @@
         <v>22</v>
       </c>
       <c r="K32" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="L32" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="M32" s="2" t="s">
-        <v>99</v>
+        <v>24</v>
       </c>
       <c r="N32" s="12"/>
     </row>
@@ -2648,7 +2639,7 @@
         <v>14</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C33" s="3">
         <v>6504106407</v>
@@ -2657,17 +2648,17 @@
         <v>16</v>
       </c>
       <c r="E33" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="F33" s="8" t="s">
         <v>141</v>
       </c>
-      <c r="F33" s="8" t="s">
+      <c r="G33" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H33" s="15" t="s">
         <v>142</v>
       </c>
-      <c r="G33" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H33" s="15" t="s">
-        <v>143</v>
-      </c>
       <c r="I33" s="10" t="s">
         <v>21</v>
       </c>
@@ -2681,7 +2672,7 @@
         <v>23</v>
       </c>
       <c r="M33" s="2" t="s">
-        <v>99</v>
+        <v>24</v>
       </c>
       <c r="N33" s="12"/>
     </row>
@@ -2690,7 +2681,7 @@
         <v>14</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C34" s="3">
         <v>6504106408</v>
@@ -2699,17 +2690,17 @@
         <v>16</v>
       </c>
       <c r="E34" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="F34" s="8" t="s">
         <v>145</v>
       </c>
-      <c r="F34" s="8" t="s">
+      <c r="G34" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H34" s="15" t="s">
         <v>146</v>
       </c>
-      <c r="G34" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H34" s="15" t="s">
-        <v>147</v>
-      </c>
       <c r="I34" s="10" t="s">
         <v>21</v>
       </c>
@@ -2723,7 +2714,7 @@
         <v>23</v>
       </c>
       <c r="M34" s="2" t="s">
-        <v>99</v>
+        <v>24</v>
       </c>
       <c r="N34" s="12"/>
     </row>
@@ -2732,7 +2723,7 @@
         <v>14</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C35" s="3">
         <v>6504106409</v>
@@ -2742,25 +2733,25 @@
       </c>
       <c r="E35" s="5"/>
       <c r="F35" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H35" s="15" t="s">
         <v>149</v>
       </c>
-      <c r="G35" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H35" s="15" t="s">
+      <c r="I35" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="J35" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K35" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="I35" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="J35" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="K35" s="2" t="s">
-        <v>151</v>
-      </c>
       <c r="L35" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="M35" s="2" t="s">
         <v>24</v>
@@ -2772,7 +2763,7 @@
         <v>14</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C36" s="3">
         <v>6504106410</v>
@@ -2790,7 +2781,7 @@
         <v>19</v>
       </c>
       <c r="H36" s="15" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="I36" s="10" t="s">
         <v>21</v>
@@ -2805,7 +2796,7 @@
         <v>23</v>
       </c>
       <c r="M36" s="2" t="s">
-        <v>99</v>
+        <v>24</v>
       </c>
       <c r="N36" s="12"/>
     </row>
@@ -2814,7 +2805,7 @@
         <v>14</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C37" s="3">
         <v>6504106411</v>
@@ -2826,28 +2817,28 @@
         <v>17</v>
       </c>
       <c r="F37" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H37" s="15" t="s">
         <v>155</v>
       </c>
-      <c r="G37" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H37" s="15" t="s">
+      <c r="I37" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="J37" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K37" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="I37" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="J37" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="K37" s="2" t="s">
-        <v>157</v>
-      </c>
       <c r="L37" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="M37" s="2" t="s">
-        <v>99</v>
+        <v>24</v>
       </c>
       <c r="N37" s="12"/>
     </row>
@@ -2856,7 +2847,7 @@
         <v>14</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C38" s="3">
         <v>6504106412</v>
@@ -2868,14 +2859,14 @@
         <v>17</v>
       </c>
       <c r="F38" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H38" s="15" t="s">
         <v>159</v>
       </c>
-      <c r="G38" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H38" s="15" t="s">
-        <v>160</v>
-      </c>
       <c r="I38" s="10" t="s">
         <v>21</v>
       </c>
@@ -2889,7 +2880,7 @@
         <v>23</v>
       </c>
       <c r="M38" s="2" t="s">
-        <v>99</v>
+        <v>24</v>
       </c>
       <c r="N38" s="12"/>
     </row>
@@ -2898,7 +2889,7 @@
         <v>14</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C39" s="3">
         <v>6504106413</v>
@@ -2910,14 +2901,14 @@
         <v>17</v>
       </c>
       <c r="F39" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H39" s="15" t="s">
         <v>162</v>
       </c>
-      <c r="G39" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H39" s="15" t="s">
-        <v>163</v>
-      </c>
       <c r="I39" s="10" t="s">
         <v>21</v>
       </c>
@@ -2931,7 +2922,7 @@
         <v>23</v>
       </c>
       <c r="M39" s="2" t="s">
-        <v>99</v>
+        <v>24</v>
       </c>
       <c r="N39" s="12"/>
     </row>
@@ -2940,7 +2931,7 @@
         <v>14</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C40" s="3">
         <v>6504106414</v>
@@ -2952,14 +2943,14 @@
         <v>17</v>
       </c>
       <c r="F40" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H40" s="15" t="s">
         <v>165</v>
       </c>
-      <c r="G40" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H40" s="15" t="s">
-        <v>166</v>
-      </c>
       <c r="I40" s="10" t="s">
         <v>21</v>
       </c>
@@ -2973,7 +2964,7 @@
         <v>23</v>
       </c>
       <c r="M40" s="2" t="s">
-        <v>99</v>
+        <v>24</v>
       </c>
       <c r="N40" s="12"/>
     </row>
@@ -2982,7 +2973,7 @@
         <v>14</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C41" s="3">
         <v>6504106415</v>
@@ -2994,14 +2985,14 @@
         <v>17</v>
       </c>
       <c r="F41" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H41" s="15" t="s">
         <v>168</v>
       </c>
-      <c r="G41" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H41" s="15" t="s">
-        <v>169</v>
-      </c>
       <c r="I41" s="10" t="s">
         <v>21</v>
       </c>
@@ -3015,7 +3006,7 @@
         <v>23</v>
       </c>
       <c r="M41" s="2" t="s">
-        <v>99</v>
+        <v>24</v>
       </c>
       <c r="N41" s="12"/>
     </row>
@@ -3024,7 +3015,7 @@
         <v>14</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C42" s="3">
         <v>6504106416</v>
@@ -3036,14 +3027,14 @@
         <v>17</v>
       </c>
       <c r="F42" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H42" s="15" t="s">
         <v>171</v>
       </c>
-      <c r="G42" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H42" s="15" t="s">
-        <v>172</v>
-      </c>
       <c r="I42" s="10" t="s">
         <v>21</v>
       </c>
@@ -3057,7 +3048,7 @@
         <v>23</v>
       </c>
       <c r="M42" s="2" t="s">
-        <v>99</v>
+        <v>24</v>
       </c>
       <c r="N42" s="12"/>
     </row>
@@ -3066,7 +3057,7 @@
         <v>14</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C43" s="3">
         <v>6504106417</v>
@@ -3078,14 +3069,14 @@
         <v>17</v>
       </c>
       <c r="F43" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H43" s="15" t="s">
         <v>174</v>
       </c>
-      <c r="G43" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H43" s="15" t="s">
-        <v>175</v>
-      </c>
       <c r="I43" s="10" t="s">
         <v>21</v>
       </c>
@@ -3099,7 +3090,7 @@
         <v>23</v>
       </c>
       <c r="M43" s="2" t="s">
-        <v>99</v>
+        <v>24</v>
       </c>
       <c r="N43" s="12"/>
     </row>
@@ -3108,7 +3099,7 @@
         <v>14</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C44" s="3">
         <v>6504106418</v>
@@ -3120,14 +3111,14 @@
         <v>17</v>
       </c>
       <c r="F44" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H44" s="15" t="s">
         <v>177</v>
       </c>
-      <c r="G44" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H44" s="15" t="s">
-        <v>178</v>
-      </c>
       <c r="I44" s="10" t="s">
         <v>21</v>
       </c>
@@ -3135,13 +3126,13 @@
         <v>22</v>
       </c>
       <c r="K44" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="L44" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="M44" s="2" t="s">
-        <v>99</v>
+        <v>24</v>
       </c>
       <c r="N44" s="12"/>
     </row>
@@ -3150,7 +3141,7 @@
         <v>14</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C45" s="3">
         <v>6504106419</v>
@@ -3162,14 +3153,14 @@
         <v>17</v>
       </c>
       <c r="F45" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H45" s="15" t="s">
         <v>180</v>
       </c>
-      <c r="G45" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H45" s="15" t="s">
-        <v>181</v>
-      </c>
       <c r="I45" s="10" t="s">
         <v>21</v>
       </c>
@@ -3177,13 +3168,13 @@
         <v>22</v>
       </c>
       <c r="K45" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="L45" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="M45" s="2" t="s">
-        <v>99</v>
+        <v>24</v>
       </c>
       <c r="N45" s="12"/>
     </row>
@@ -3192,7 +3183,7 @@
         <v>14</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C46" s="3">
         <v>6504106420</v>
@@ -3204,13 +3195,13 @@
         <v>17</v>
       </c>
       <c r="F46" s="8" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G46" s="2" t="s">
         <v>19</v>
       </c>
       <c r="H46" s="15" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="I46" s="10" t="s">
         <v>21</v>
@@ -3225,7 +3216,7 @@
         <v>23</v>
       </c>
       <c r="M46" s="2" t="s">
-        <v>99</v>
+        <v>24</v>
       </c>
       <c r="N46" s="12"/>
     </row>
@@ -3234,7 +3225,7 @@
         <v>14</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C47" s="3">
         <v>6504106421</v>
@@ -3246,28 +3237,28 @@
         <v>17</v>
       </c>
       <c r="F47" s="13" t="s">
+        <v>184</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H47" s="15" t="s">
         <v>185</v>
       </c>
-      <c r="G47" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H47" s="15" t="s">
+      <c r="I47" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="J47" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K47" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="I47" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="J47" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="K47" s="2" t="s">
-        <v>187</v>
-      </c>
       <c r="L47" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="M47" s="2" t="s">
-        <v>99</v>
+        <v>24</v>
       </c>
       <c r="N47" s="12"/>
     </row>
@@ -3276,7 +3267,7 @@
         <v>14</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C48" s="3">
         <v>6504106422</v>
@@ -3292,22 +3283,22 @@
         <v>19</v>
       </c>
       <c r="H48" s="15" t="s">
+        <v>188</v>
+      </c>
+      <c r="I48" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="J48" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K48" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="I48" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="J48" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="K48" s="2" t="s">
-        <v>190</v>
-      </c>
       <c r="L48" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="M48" s="2" t="s">
-        <v>99</v>
+        <v>24</v>
       </c>
       <c r="N48" s="12"/>
     </row>
@@ -3316,7 +3307,7 @@
         <v>14</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C49" s="3">
         <v>6504106423</v>
@@ -3331,11 +3322,11 @@
         <v>18</v>
       </c>
       <c r="G49" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="H49" s="15" t="s">
         <v>192</v>
       </c>
-      <c r="H49" s="15" t="s">
-        <v>193</v>
-      </c>
       <c r="I49" s="10" t="s">
         <v>21</v>
       </c>
@@ -3343,13 +3334,13 @@
         <v>22</v>
       </c>
       <c r="K49" s="2" t="s">
-        <v>194</v>
+        <v>23</v>
       </c>
       <c r="L49" s="2" t="s">
         <v>23</v>
       </c>
       <c r="M49" s="2" t="s">
-        <v>99</v>
+        <v>24</v>
       </c>
       <c r="N49" s="12"/>
     </row>
@@ -3385,13 +3376,13 @@
         <v>22</v>
       </c>
       <c r="K50" s="2" t="s">
-        <v>194</v>
+        <v>23</v>
       </c>
       <c r="L50" s="2" t="s">
         <v>23</v>
       </c>
       <c r="M50" s="2" t="s">
-        <v>99</v>
+        <v>24</v>
       </c>
       <c r="N50" s="12"/>
     </row>
@@ -3427,13 +3418,13 @@
         <v>22</v>
       </c>
       <c r="K51" s="2" t="s">
-        <v>194</v>
+        <v>23</v>
       </c>
       <c r="L51" s="2" t="s">
         <v>23</v>
       </c>
       <c r="M51" s="2" t="s">
-        <v>99</v>
+        <v>24</v>
       </c>
       <c r="N51" s="12"/>
     </row>
@@ -3469,13 +3460,13 @@
         <v>22</v>
       </c>
       <c r="K52" s="2" t="s">
-        <v>194</v>
+        <v>23</v>
       </c>
       <c r="L52" s="2" t="s">
         <v>23</v>
       </c>
       <c r="M52" s="2" t="s">
-        <v>99</v>
+        <v>24</v>
       </c>
       <c r="N52" s="12"/>
     </row>
@@ -3553,13 +3544,13 @@
         <v>22</v>
       </c>
       <c r="K54" s="2" t="s">
-        <v>194</v>
+        <v>23</v>
       </c>
       <c r="L54" s="2" t="s">
         <v>23</v>
       </c>
       <c r="M54" s="2" t="s">
-        <v>99</v>
+        <v>24</v>
       </c>
       <c r="N54" s="12"/>
     </row>
@@ -3601,7 +3592,7 @@
         <v>212</v>
       </c>
       <c r="M55" s="2" t="s">
-        <v>99</v>
+        <v>194</v>
       </c>
       <c r="N55" s="12"/>
     </row>
@@ -3637,13 +3628,13 @@
         <v>22</v>
       </c>
       <c r="K56" s="2" t="s">
-        <v>194</v>
+        <v>23</v>
       </c>
       <c r="L56" s="2" t="s">
         <v>23</v>
       </c>
       <c r="M56" s="2" t="s">
-        <v>99</v>
+        <v>24</v>
       </c>
       <c r="N56" s="12"/>
     </row>
@@ -3682,10 +3673,10 @@
         <v>217</v>
       </c>
       <c r="L57" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="M57" s="2" t="s">
-        <v>99</v>
+        <v>24</v>
       </c>
       <c r="N57" s="12"/>
     </row>
@@ -3694,7 +3685,7 @@
         <v>14</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C58" s="3">
         <v>6504106432</v>
@@ -3712,7 +3703,7 @@
         <v>19</v>
       </c>
       <c r="H58" s="10" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="I58" s="10" t="s">
         <v>21</v>
@@ -3721,13 +3712,13 @@
         <v>22</v>
       </c>
       <c r="K58" s="2" t="s">
-        <v>194</v>
+        <v>23</v>
       </c>
       <c r="L58" s="2" t="s">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="M58" s="2" t="s">
-        <v>99</v>
+        <v>24</v>
       </c>
       <c r="N58" s="12"/>
     </row>
@@ -3736,7 +3727,7 @@
         <v>14</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C59" s="3">
         <v>6504106433</v>
@@ -3754,7 +3745,7 @@
         <v>19</v>
       </c>
       <c r="H59" s="7" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="I59" s="10" t="s">
         <v>21</v>
@@ -3763,13 +3754,13 @@
         <v>22</v>
       </c>
       <c r="K59" s="2" t="s">
-        <v>223</v>
+        <v>212</v>
       </c>
       <c r="L59" s="2" t="s">
         <v>212</v>
       </c>
       <c r="M59" s="2" t="s">
-        <v>99</v>
+        <v>24</v>
       </c>
       <c r="N59" s="12"/>
     </row>
@@ -3778,7 +3769,7 @@
         <v>14</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C60" s="3">
         <v>6504106434</v>
@@ -3796,7 +3787,7 @@
         <v>19</v>
       </c>
       <c r="H60" s="7" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="I60" s="10" t="s">
         <v>21</v>
@@ -3805,13 +3796,13 @@
         <v>22</v>
       </c>
       <c r="K60" s="2" t="s">
-        <v>223</v>
+        <v>212</v>
       </c>
       <c r="L60" s="2" t="s">
         <v>212</v>
       </c>
       <c r="M60" s="2" t="s">
-        <v>99</v>
+        <v>24</v>
       </c>
       <c r="N60" s="12"/>
     </row>
@@ -3820,7 +3811,7 @@
         <v>14</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C61" s="3">
         <v>6504106435</v>
@@ -3845,13 +3836,13 @@
         <v>22</v>
       </c>
       <c r="K61" s="2" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="L61" s="2" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="M61" s="2" t="s">
-        <v>99</v>
+        <v>24</v>
       </c>
       <c r="N61" s="12"/>
     </row>
@@ -3860,7 +3851,7 @@
         <v>14</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="C62" s="3">
         <v>6504106436</v>
@@ -3878,7 +3869,7 @@
         <v>19</v>
       </c>
       <c r="H62" s="3" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="I62" s="10" t="s">
         <v>21</v>
@@ -3887,13 +3878,13 @@
         <v>22</v>
       </c>
       <c r="K62" s="2" t="s">
-        <v>194</v>
+        <v>23</v>
       </c>
       <c r="L62" s="2" t="s">
         <v>23</v>
       </c>
       <c r="M62" s="2" t="s">
-        <v>99</v>
+        <v>24</v>
       </c>
       <c r="N62" s="12"/>
     </row>
@@ -3902,7 +3893,7 @@
         <v>14</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="C63" s="3">
         <v>6504106437</v>
@@ -3920,22 +3911,22 @@
         <v>19</v>
       </c>
       <c r="H63" s="3" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="I63" s="7" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="J63" s="2" t="s">
         <v>22</v>
       </c>
       <c r="K63" s="2" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="L63" s="2" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="M63" s="2" t="s">
-        <v>99</v>
+        <v>24</v>
       </c>
       <c r="N63" s="12"/>
     </row>
@@ -3944,7 +3935,7 @@
         <v>14</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="C64" s="3">
         <v>6504106438</v>
@@ -3962,10 +3953,10 @@
         <v>19</v>
       </c>
       <c r="H64" s="3" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="I64" s="10" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="J64" s="2" t="s">
         <v>22</v>
@@ -3977,7 +3968,7 @@
         <v>23</v>
       </c>
       <c r="M64" s="2" t="s">
-        <v>99</v>
+        <v>24</v>
       </c>
       <c r="N64" s="12"/>
     </row>
@@ -3986,7 +3977,7 @@
         <v>14</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="C65" s="3">
         <v>6504106439</v>
@@ -4004,10 +3995,10 @@
         <v>19</v>
       </c>
       <c r="H65" s="3" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="I65" s="10" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="J65" s="2" t="s">
         <v>22</v>
@@ -4019,7 +4010,7 @@
         <v>23</v>
       </c>
       <c r="M65" s="2" t="s">
-        <v>99</v>
+        <v>24</v>
       </c>
       <c r="N65" s="12"/>
     </row>
@@ -4028,7 +4019,7 @@
         <v>14</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="C66" s="3">
         <v>6504106440</v>
@@ -4046,10 +4037,10 @@
         <v>19</v>
       </c>
       <c r="H66" s="3" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="I66" s="10" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="J66" s="2" t="s">
         <v>22</v>
@@ -4061,7 +4052,7 @@
         <v>23</v>
       </c>
       <c r="M66" s="2" t="s">
-        <v>99</v>
+        <v>24</v>
       </c>
       <c r="N66" s="12"/>
     </row>
@@ -4070,7 +4061,7 @@
         <v>14</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="C67" s="3">
         <v>6504106441</v>
@@ -4088,10 +4079,10 @@
         <v>19</v>
       </c>
       <c r="H67" s="3" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="I67" s="10" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="J67" s="2" t="s">
         <v>22</v>
@@ -4103,7 +4094,7 @@
         <v>23</v>
       </c>
       <c r="M67" s="2" t="s">
-        <v>99</v>
+        <v>24</v>
       </c>
       <c r="N67" s="12"/>
     </row>
@@ -4112,7 +4103,7 @@
         <v>14</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="C68" s="3">
         <v>6504106442</v>
@@ -4130,22 +4121,22 @@
         <v>19</v>
       </c>
       <c r="H68" s="3" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="I68" s="7" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="J68" s="2" t="s">
         <v>22</v>
       </c>
       <c r="K68" s="2" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="L68" s="2" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="M68" s="2" t="s">
-        <v>99</v>
+        <v>24</v>
       </c>
       <c r="N68" s="12"/>
     </row>
@@ -4154,7 +4145,7 @@
         <v>14</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="C69" s="3">
         <v>6504106443</v>
@@ -4172,22 +4163,22 @@
         <v>19</v>
       </c>
       <c r="H69" s="3" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="I69" s="7" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="J69" s="2" t="s">
         <v>22</v>
       </c>
       <c r="K69" s="2" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="L69" s="2" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="M69" s="2" t="s">
-        <v>99</v>
+        <v>24</v>
       </c>
       <c r="N69" s="12"/>
     </row>
@@ -4196,7 +4187,7 @@
         <v>14</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="C70" s="3">
         <v>6504106444</v>
@@ -4208,13 +4199,13 @@
         <v>17</v>
       </c>
       <c r="F70" s="8" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G70" s="2" t="s">
         <v>19</v>
       </c>
       <c r="H70" s="3" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="I70" s="10" t="s">
         <v>21</v>
@@ -4229,7 +4220,7 @@
         <v>23</v>
       </c>
       <c r="M70" s="2" t="s">
-        <v>99</v>
+        <v>24</v>
       </c>
       <c r="N70" s="12"/>
     </row>
@@ -4238,7 +4229,7 @@
         <v>14</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="C71" s="3">
         <v>6504106445</v>
@@ -4250,16 +4241,16 @@
         <v>17</v>
       </c>
       <c r="F71" s="8" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G71" s="2" t="s">
         <v>19</v>
       </c>
       <c r="H71" s="3" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="I71" s="10" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="J71" s="2" t="s">
         <v>22</v>
@@ -4271,7 +4262,7 @@
         <v>23</v>
       </c>
       <c r="M71" s="2" t="s">
-        <v>99</v>
+        <v>24</v>
       </c>
       <c r="N71" s="12"/>
     </row>
@@ -4280,7 +4271,7 @@
         <v>14</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="C72" s="3">
         <v>6504106446</v>
@@ -4292,16 +4283,16 @@
         <v>17</v>
       </c>
       <c r="F72" s="8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G72" s="2" t="s">
         <v>19</v>
       </c>
       <c r="H72" s="3" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="I72" s="10" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="J72" s="2" t="s">
         <v>22</v>
@@ -4313,7 +4304,7 @@
         <v>23</v>
       </c>
       <c r="M72" s="2" t="s">
-        <v>99</v>
+        <v>24</v>
       </c>
       <c r="N72" s="12"/>
     </row>
@@ -4322,7 +4313,7 @@
         <v>14</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="C73" s="3">
         <v>6504106447</v>
@@ -4334,28 +4325,28 @@
         <v>17</v>
       </c>
       <c r="F73" s="8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G73" s="2" t="s">
         <v>19</v>
       </c>
       <c r="H73" s="3" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="I73" s="7" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="J73" s="2" t="s">
         <v>22</v>
       </c>
       <c r="K73" s="2" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="L73" s="2" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="M73" s="2" t="s">
-        <v>99</v>
+        <v>24</v>
       </c>
       <c r="N73" s="12"/>
     </row>
@@ -4364,7 +4355,7 @@
         <v>14</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="C74" s="3">
         <v>6504106448</v>
@@ -4376,23 +4367,23 @@
         <v>17</v>
       </c>
       <c r="F74" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G74" s="2" t="s">
         <v>19</v>
       </c>
       <c r="H74" s="3" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="I74" s="11"/>
       <c r="J74" s="2" t="s">
         <v>22</v>
       </c>
       <c r="K74" s="2" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="L74" s="2" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="M74" s="2" t="s">
         <v>24</v>
@@ -4404,7 +4395,7 @@
         <v>14</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="C75" s="3">
         <v>6504106449</v>
@@ -4416,13 +4407,13 @@
         <v>17</v>
       </c>
       <c r="F75" s="8" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G75" s="2" t="s">
         <v>19</v>
       </c>
       <c r="H75" s="3" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="I75" s="10" t="s">
         <v>21</v>
@@ -4431,13 +4422,13 @@
         <v>22</v>
       </c>
       <c r="K75" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="L75" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M75" s="2" t="s">
         <v>194</v>
-      </c>
-      <c r="L75" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="M75" s="2" t="s">
-        <v>99</v>
       </c>
       <c r="N75" s="12"/>
     </row>
@@ -4446,7 +4437,7 @@
         <v>14</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C76" s="3">
         <v>6504106450</v>
@@ -4458,28 +4449,28 @@
         <v>17</v>
       </c>
       <c r="F76" s="8" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G76" s="2" t="s">
         <v>19</v>
       </c>
       <c r="H76" s="3" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="I76" s="10" t="s">
         <v>21</v>
       </c>
       <c r="J76" s="6" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="K76" s="2" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="L76" s="2" t="s">
         <v>23</v>
       </c>
       <c r="M76" s="2" t="s">
-        <v>99</v>
+        <v>194</v>
       </c>
       <c r="N76" s="12"/>
     </row>
@@ -4488,7 +4479,7 @@
         <v>14</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="C77" s="3">
         <v>6504106451</v>
@@ -4500,28 +4491,28 @@
         <v>17</v>
       </c>
       <c r="F77" s="8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G77" s="2" t="s">
         <v>19</v>
       </c>
       <c r="H77" s="3" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="I77" s="10" t="s">
         <v>21</v>
       </c>
       <c r="J77" s="2" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="K77" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="L77" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M77" s="2" t="s">
         <v>194</v>
-      </c>
-      <c r="L77" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="M77" s="2" t="s">
-        <v>99</v>
       </c>
       <c r="N77" s="12"/>
     </row>
@@ -4530,7 +4521,7 @@
         <v>14</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="C78" s="3">
         <v>6504106452</v>
@@ -4542,28 +4533,28 @@
         <v>17</v>
       </c>
       <c r="F78" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G78" s="2" t="s">
         <v>19</v>
       </c>
       <c r="H78" s="3" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="I78" s="10" t="s">
         <v>21</v>
       </c>
       <c r="J78" s="2" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="K78" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="L78" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M78" s="2" t="s">
         <v>194</v>
-      </c>
-      <c r="L78" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="M78" s="2" t="s">
-        <v>99</v>
       </c>
       <c r="N78" s="12"/>
     </row>
@@ -4572,7 +4563,7 @@
         <v>14</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="C79" s="3">
         <v>6504106453</v>
@@ -4584,28 +4575,28 @@
         <v>17</v>
       </c>
       <c r="F79" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G79" s="2" t="s">
         <v>19</v>
       </c>
       <c r="H79" s="3" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="I79" s="10" t="s">
         <v>21</v>
       </c>
       <c r="J79" s="7" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="K79" s="2" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="L79" s="2" t="s">
         <v>23</v>
       </c>
       <c r="M79" s="2" t="s">
-        <v>99</v>
+        <v>194</v>
       </c>
       <c r="N79" s="12"/>
     </row>
@@ -4614,7 +4605,7 @@
         <v>14</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="C80" s="3">
         <v>6504106454</v>
@@ -4626,26 +4617,26 @@
         <v>17</v>
       </c>
       <c r="F80" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G80" s="2" t="s">
         <v>19</v>
       </c>
       <c r="H80" s="3" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="I80" s="10" t="s">
         <v>21</v>
       </c>
       <c r="J80" s="11"/>
       <c r="K80" s="2" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="L80" s="2" t="s">
         <v>23</v>
       </c>
       <c r="M80" s="2" t="s">
-        <v>99</v>
+        <v>194</v>
       </c>
       <c r="N80" s="12"/>
     </row>
